--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -700,70 +700,70 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>3.95</v>
@@ -811,7 +811,7 @@
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -823,46 +823,46 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
         <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>1.34</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
@@ -871,10 +871,10 @@
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
         <v>1.68</v>
@@ -946,10 +946,10 @@
         <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -1003,10 +1003,10 @@
         <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1144,10 +1144,10 @@
         <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
         <v>5.5</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
         <v>1.92</v>
@@ -1273,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="n">
         <v>340</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1510,10 +1510,10 @@
         <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
         <v>2.52</v>
@@ -1522,7 +1522,7 @@
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1555,13 +1555,13 @@
         <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1618,16 +1618,16 @@
         <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
         <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
         <v>10.5</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1780,7 +1780,7 @@
         <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1891,7 +1891,7 @@
         <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1915,7 +1915,7 @@
         <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1960,34 +1960,34 @@
         <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
         <v>44</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
         <v>4.8</v>
@@ -2050,7 +2050,7 @@
         <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
         <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>170</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
         <v>6.2</v>
@@ -2164,7 +2164,7 @@
         <v>1.76</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2428,10 +2428,10 @@
         <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
         <v>1.71</v>
@@ -2566,10 +2566,10 @@
         <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
@@ -2725,7 +2725,7 @@
         <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H19" t="n">
         <v>2.98</v>
@@ -2974,7 +2974,7 @@
         <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
@@ -2995,7 +2995,7 @@
         <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
         <v>5.4</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
         <v>1.79</v>
@@ -3235,7 +3235,7 @@
         <v>1.82</v>
       </c>
       <c r="G21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
         <v>1.96</v>
@@ -3379,7 +3379,7 @@
         <v>1.56</v>
       </c>
       <c r="J22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
         <v>5.2</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -3460,7 +3460,7 @@
         <v>210</v>
       </c>
       <c r="AK22" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3505,7 +3505,7 @@
         <v>1.39</v>
       </c>
       <c r="G23" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H23" t="n">
         <v>8.800000000000001</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
         <v>1.71</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA23" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB23" t="n">
         <v>9</v>
@@ -3574,7 +3574,7 @@
         <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE23" t="n">
         <v>190</v>
@@ -3586,16 +3586,16 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3649,7 +3649,7 @@
         <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>9.800000000000001</v>
@@ -3733,16 +3733,16 @@
         <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
         <v>1.79</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3829,10 +3829,10 @@
         <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,10 +3841,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3856,7 +3856,7 @@
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3913,7 +3913,7 @@
         <v>5.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I26" t="n">
         <v>1.82</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>13.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9.4</v>
@@ -3982,19 +3982,19 @@
         <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>150</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q27" t="n">
         <v>1.66</v>
@@ -4087,7 +4087,7 @@
         <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
@@ -4234,13 +4234,13 @@
         <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB28" t="n">
         <v>9.6</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4318,13 +4318,13 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K29" t="n">
         <v>7.4</v>
@@ -4342,16 +4342,16 @@
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
         <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T29" t="n">
         <v>2.38</v>
@@ -4387,7 +4387,7 @@
         <v>65</v>
       </c>
       <c r="AE29" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AF29" t="n">
         <v>7.8</v>
@@ -4399,10 +4399,10 @@
         <v>130</v>
       </c>
       <c r="AI29" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>15.5</v>
@@ -4450,16 +4450,16 @@
         <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>3.7</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G32" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I32" t="n">
         <v>1.73</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
         <v>1.64</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="G33" t="n">
         <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G34" t="n">
         <v>4.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I34" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G35" t="n">
         <v>2.64</v>
@@ -5155,7 +5155,7 @@
         <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5260,19 +5260,19 @@
         <v>6.2</v>
       </c>
       <c r="G36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q36" t="n">
         <v>1.49</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G37" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H37" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q37" t="n">
         <v>2.02</v>
@@ -5530,13 +5530,13 @@
         <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -5551,28 +5551,28 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q38" t="n">
         <v>1.94</v>
       </c>
       <c r="R38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>34</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
@@ -5605,7 +5605,7 @@
         <v>27</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG38" t="n">
         <v>15</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
@@ -5626,10 +5626,10 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>19.5</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G39" t="n">
         <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -808,7 +808,7 @@
         <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
         <v>2.18</v>
@@ -949,7 +949,7 @@
         <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
         <v>5.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
         <v>1.92</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H7" t="n">
         <v>14.5</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
         <v>8.800000000000001</v>
@@ -1369,7 +1369,7 @@
         <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>3.15</v>
@@ -1384,10 +1384,10 @@
         <v>2.06</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,16 +1408,16 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AE7" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AF7" t="n">
         <v>9.6</v>
@@ -1426,7 +1426,7 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1441,13 +1441,13 @@
         <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
         <v>3.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1522,7 +1522,7 @@
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
         <v>1.59</v>
@@ -1624,10 +1624,10 @@
         <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K12" t="n">
         <v>4.8</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,25 +2071,25 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA12" t="n">
         <v>170</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2104,10 +2104,10 @@
         <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK12" t="n">
         <v>16</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
@@ -2299,7 +2299,7 @@
         <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
         <v>1.92</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
         <v>1.71</v>
@@ -2569,7 +2569,7 @@
         <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H17" t="n">
-        <v>1.36</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
         <v>2.78</v>
@@ -2974,10 +2974,10 @@
         <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>7.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I22" t="n">
         <v>1.56</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3565,7 +3565,7 @@
         <v>90</v>
       </c>
       <c r="AA23" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB23" t="n">
         <v>9</v>
@@ -3574,7 +3574,7 @@
         <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>190</v>
@@ -3586,10 +3586,10 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
         <v>1.79</v>
@@ -3805,7 +3805,7 @@
         <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>13.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB26" t="n">
         <v>18.5</v>
@@ -4057,7 +4057,7 @@
         <v>5.6</v>
       </c>
       <c r="K27" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4249,10 +4249,10 @@
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE28" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="n">
         <v>9.4</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4315,16 +4315,16 @@
         <v>1.23</v>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
         <v>19</v>
       </c>
       <c r="J29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
         <v>7.4</v>
@@ -4342,7 +4342,7 @@
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q29" t="n">
         <v>1.65</v>
@@ -4351,13 +4351,13 @@
         <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T29" t="n">
         <v>2.38</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
         <v>170</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>17</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>5.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I32" t="n">
         <v>1.73</v>
@@ -4864,7 +4864,7 @@
         <v>7.4</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
         <v>4.7</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
         <v>4.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="I34" t="n">
         <v>1.93</v>
@@ -5002,7 +5002,7 @@
         <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G36" t="n">
         <v>7.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I36" t="n">
         <v>1.53</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G37" t="n">
         <v>1.79</v>
@@ -5404,7 +5404,7 @@
         <v>6.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
@@ -5533,10 +5533,10 @@
         <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I38" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G39" t="n">
         <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
         <v>3.4</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H40" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I40" t="n">
         <v>5.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -808,7 +808,7 @@
         <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>2.18</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>5.7</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.43</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1147,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
@@ -1156,7 +1156,7 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,16 +1168,16 @@
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
         <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
         <v>1.81</v>
@@ -1252,7 +1252,7 @@
         <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>3.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
         <v>4.9</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1510,19 +1510,19 @@
         <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>2.42</v>
       </c>
       <c r="I11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
         <v>4.6</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="n">
         <v>170</v>
@@ -2086,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>990</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
         <v>1.71</v>
@@ -2569,7 +2569,7 @@
         <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.97</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.98</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -2839,7 +2839,7 @@
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
         <v>2.78</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
         <v>1.79</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
@@ -3841,7 +3841,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>30</v>
@@ -3853,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G26" t="n">
         <v>5.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I26" t="n">
         <v>1.82</v>
@@ -3967,7 +3967,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA26" t="n">
         <v>19.5</v>
@@ -4075,7 +4075,7 @@
         <v>2.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB28" t="n">
         <v>9.6</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4339,19 +4339,19 @@
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>2.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
         <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T29" t="n">
         <v>2.38</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
         <v>170</v>
@@ -4447,40 +4447,40 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4591,10 +4591,10 @@
         <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I33" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
         <v>4.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I34" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G35" t="n">
         <v>2.64</v>
@@ -5134,10 +5134,10 @@
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5260,19 +5260,19 @@
         <v>6.6</v>
       </c>
       <c r="G36" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H36" t="n">
         <v>1.45</v>
       </c>
       <c r="I36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G37" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H37" t="n">
         <v>5.4</v>
       </c>
       <c r="I37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J37" t="n">
         <v>3.8</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q37" t="n">
         <v>2.02</v>
@@ -5533,7 +5533,7 @@
         <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I38" t="n">
         <v>2.46</v>
@@ -5554,7 +5554,7 @@
         <v>3.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
         <v>1.93</v>
@@ -5572,7 +5572,7 @@
         <v>1.74</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>2.72</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -670,7 +670,7 @@
         <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
@@ -679,13 +679,13 @@
         <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,16 +700,16 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
         <v>2.24</v>
@@ -718,31 +718,31 @@
         <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
         <v>980</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>48</v>
       </c>
       <c r="AB2" t="n">
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
@@ -751,7 +751,7 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,7 +760,7 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
@@ -820,7 +820,7 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -838,7 +838,7 @@
         <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -853,61 +853,61 @@
         <v>1.84</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,40 +1003,40 @@
         <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
         <v>7.4</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
         <v>1.43</v>
@@ -1087,7 +1087,7 @@
         <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1147,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
@@ -1171,13 +1171,13 @@
         <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1267,10 +1267,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>160</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G7" t="n">
         <v>1.24</v>
@@ -1351,7 +1351,7 @@
         <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J7" t="n">
         <v>7.8</v>
@@ -1372,7 +1372,7 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
         <v>1.42</v>
@@ -1381,10 +1381,10 @@
         <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>19.5</v>
@@ -1417,7 +1417,7 @@
         <v>230</v>
       </c>
       <c r="AE7" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
         <v>9.6</v>
@@ -1432,22 +1432,22 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
         <v>3.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -1501,22 +1501,22 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
@@ -1537,10 +1537,10 @@
         <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1549,28 +1549,28 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>42</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -1762,7 +1762,7 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AA10" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>9.800000000000001</v>
@@ -1843,7 +1843,7 @@
         <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>2.46</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.55</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1963,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
         <v>18.5</v>
@@ -1975,16 +1975,16 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
         <v>1.59</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.7</v>
@@ -2062,7 +2062,7 @@
         <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
         <v>190</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>170</v>
       </c>
       <c r="AB12" t="n">
         <v>10</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>15.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2164,7 +2164,7 @@
         <v>1.79</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
         <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q15" t="n">
         <v>1.45</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="H16" t="n">
         <v>5.3</v>
@@ -2569,10 +2569,10 @@
         <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.7</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H19" t="n">
         <v>2.98</v>
@@ -2974,7 +2974,7 @@
         <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.55</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
@@ -3370,7 +3370,7 @@
         <v>6.4</v>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>1.52</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3430,43 +3430,43 @@
         <v>11.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>210</v>
       </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3556,55 +3556,55 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
         <v>190</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
         <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3712,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -3736,7 +3736,7 @@
         <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
         <v>10.5</v>
@@ -3805,7 +3805,7 @@
         <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3853,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G26" t="n">
         <v>5.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I26" t="n">
         <v>1.82</v>
@@ -3961,19 +3961,19 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
         <v>9.4</v>
@@ -3982,10 +3982,10 @@
         <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
         <v>150</v>
@@ -4009,7 +4009,7 @@
         <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO26" t="n">
         <v>11.5</v>
@@ -4042,109 +4042,109 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="G27" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I27" t="n">
         <v>11</v>
       </c>
-      <c r="I27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="J27" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="K27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN27" t="n">
         <v>6.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.51</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4231,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB28" t="n">
         <v>9.6</v>
@@ -4249,19 +4249,19 @@
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE28" t="n">
         <v>130</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4318,7 +4318,7 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
         <v>19</v>
@@ -4327,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4336,28 +4336,28 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y29" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4384,37 +4384,37 @@
         <v>17</v>
       </c>
       <c r="AD29" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AF29" t="n">
         <v>7.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AI29" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4453,7 +4453,7 @@
         <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>3.65</v>
@@ -4462,7 +4462,7 @@
         <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,16 +4585,16 @@
         <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
         <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>2.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="G33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H33" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
         <v>1.01</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G34" t="n">
         <v>4.7</v>
@@ -4996,7 +4996,7 @@
         <v>1.89</v>
       </c>
       <c r="I34" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J34" t="n">
         <v>3.65</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q34" t="n">
         <v>1.89</v>
@@ -5128,13 +5128,13 @@
         <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G36" t="n">
         <v>8.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I36" t="n">
         <v>1.52</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
         <v>5.6</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I37" t="n">
         <v>6.4</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G38" t="n">
         <v>3.5</v>
@@ -5536,7 +5536,7 @@
         <v>2.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -5551,16 +5551,16 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
         <v>1.93</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
         <v>1.36</v>
@@ -5572,7 +5572,7 @@
         <v>1.74</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5581,46 +5581,46 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="n">
         <v>16</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,10 +5629,10 @@
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5674,7 +5674,7 @@
         <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>3.4</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G40" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="n">
         <v>5.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -709,7 +709,7 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.24</v>
@@ -1075,7 +1075,7 @@
         <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
         <v>8.4</v>
@@ -1087,7 +1087,7 @@
         <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1147,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.81</v>
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>160</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
         <v>1.24</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
         <v>17.5</v>
@@ -1369,22 +1369,22 @@
         <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="n">
         <v>65</v>
@@ -1411,7 +1411,7 @@
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AD7" t="n">
         <v>230</v>
@@ -1435,7 +1435,7 @@
         <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>38</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
         <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
         <v>4.9</v>
@@ -1501,10 +1501,10 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.48</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>6.4</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AA9" t="n">
         <v>210</v>
@@ -1714,7 +1714,7 @@
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
         <v>1.54</v>
@@ -1762,7 +1762,7 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="AA10" t="n">
         <v>260</v>
@@ -1816,7 +1816,7 @@
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>32</v>
@@ -1888,10 +1888,10 @@
         <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -2020,10 +2020,10 @@
         <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
         <v>6.6</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
         <v>36</v>
@@ -2083,7 +2083,7 @@
         <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2110,7 +2110,7 @@
         <v>15.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2161,7 +2161,7 @@
         <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2293,13 +2293,13 @@
         <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2320,7 +2320,7 @@
         <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
@@ -2725,7 +2725,7 @@
         <v>1.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3100,16 +3100,16 @@
         <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>420</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>14.5</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3682,7 +3682,7 @@
         <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3712,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -3805,7 +3805,7 @@
         <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>4.8</v>
       </c>
       <c r="G26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -3961,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>150</v>
@@ -4009,7 +4009,7 @@
         <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>11.5</v>
@@ -4045,25 +4045,25 @@
         <v>1.38</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>9.4</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J27" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q27" t="n">
         <v>1.71</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
@@ -4114,37 +4114,37 @@
         <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE27" t="n">
         <v>190</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
         <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4183,7 +4183,7 @@
         <v>1.51</v>
       </c>
       <c r="H28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I28" t="n">
         <v>8.199999999999999</v>
@@ -4210,7 +4210,7 @@
         <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4318,7 +4318,7 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" t="n">
         <v>19</v>
@@ -4333,28 +4333,28 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
         <v>2.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U29" t="n">
         <v>1.68</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
         <v>48</v>
@@ -4378,22 +4378,22 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE29" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AF29" t="n">
         <v>7.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>95</v>
@@ -4594,7 +4594,7 @@
         <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
         <v>1.79</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="G33" t="n">
         <v>1.63</v>
@@ -4864,10 +4864,10 @@
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>1.99</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I36" t="n">
         <v>1.52</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G37" t="n">
         <v>1.82</v>
@@ -5401,7 +5401,7 @@
         <v>5.3</v>
       </c>
       <c r="I37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
         <v>3.8</v>
@@ -5425,7 +5425,7 @@
         <v>1.79</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5593,46 +5593,46 @@
         <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE38" t="n">
         <v>32</v>
       </c>
       <c r="AF38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
         <v>48</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK38" t="n">
         <v>48</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G40" t="n">
         <v>1.98</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -670,10 +670,10 @@
         <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
         <v>2.84</v>
@@ -697,7 +697,7 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
         <v>1.82</v>
@@ -709,7 +709,7 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.24</v>
@@ -718,7 +718,7 @@
         <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
@@ -760,7 +760,7 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -859,31 +859,31 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -907,7 +907,7 @@
         <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1075,10 +1075,10 @@
         <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>9.199999999999999</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
         <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
         <v>1.81</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>1.24</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="n">
         <v>17.5</v>
@@ -1369,7 +1369,7 @@
         <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>3.1</v>
@@ -1381,13 +1381,13 @@
         <v>1.86</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="n">
         <v>65</v>
@@ -1411,7 +1411,7 @@
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD7" t="n">
         <v>230</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>32</v>
@@ -1570,10 +1570,10 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -1627,7 +1627,7 @@
         <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AA9" t="n">
         <v>210</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -1807,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="AA10" t="n">
         <v>260</v>
@@ -1819,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1963,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
         <v>18.5</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
         <v>44</v>
@@ -1984,7 +1984,7 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2020,10 +2020,10 @@
         <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
         <v>6.6</v>
@@ -2074,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
@@ -2161,7 +2161,7 @@
         <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2290,10 +2290,10 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>3.6</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
         <v>3.15</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3370,10 +3370,10 @@
         <v>6.4</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I22" t="n">
         <v>1.56</v>
@@ -3400,7 +3400,7 @@
         <v>2.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
         <v>32</v>
@@ -3454,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
         <v>210</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G24" t="n">
         <v>2.06</v>
@@ -3646,7 +3646,7 @@
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
         <v>3.95</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3682,7 +3682,7 @@
         <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3778,7 +3778,7 @@
         <v>1.79</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
         <v>5.7</v>
@@ -3787,7 +3787,7 @@
         <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4318,7 +4318,7 @@
         <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
         <v>19</v>
@@ -4327,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,13 +4342,13 @@
         <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
         <v>2.38</v>
@@ -4357,7 +4357,7 @@
         <v>2.28</v>
       </c>
       <c r="U29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC29" t="n">
         <v>17.5</v>
@@ -4390,31 +4390,31 @@
         <v>350</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK29" t="n">
         <v>14.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
         <v>3.65</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.7</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G31" t="n">
         <v>2.32</v>
@@ -4597,7 +4597,7 @@
         <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
         <v>1.63</v>
@@ -4990,13 +4990,13 @@
         <v>4.3</v>
       </c>
       <c r="G34" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I34" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q34" t="n">
         <v>1.89</v>
@@ -5128,13 +5128,13 @@
         <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I35" t="n">
         <v>3.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
         <v>1.82</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G38" t="n">
         <v>3.5</v>
@@ -5800,7 +5800,7 @@
         <v>1.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H40" t="n">
         <v>5.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
         <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -706,19 +706,19 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
@@ -820,13 +820,13 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
@@ -853,22 +853,22 @@
         <v>1.84</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -883,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -907,13 +907,13 @@
         <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.72</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.81</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.99</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5</v>
+        <v>1.79</v>
       </c>
       <c r="I7" t="n">
-        <v>17.5</v>
+        <v>1.81</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>160</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.35</v>
+        <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>310</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
         <v>4.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
         <v>32</v>
       </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>26</v>
-      </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="Z9" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
       </c>
       <c r="Y10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z10" t="n">
         <v>40</v>
       </c>
-      <c r="Z10" t="n">
-        <v>820</v>
-      </c>
       <c r="AA10" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>44</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.79</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.23</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>5.9</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>1.76</v>
       </c>
       <c r="I15" t="n">
-        <v>17.5</v>
+        <v>1.79</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="G16" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.85</v>
       </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
         <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2839,22 +2839,22 @@
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
         <v>2.8</v>
@@ -2863,76 +2863,76 @@
         <v>1.45</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>1.24</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n">
-        <v>1.79</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.94</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.4</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.51</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG22" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>32</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="G23" t="n">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="H23" t="n">
-        <v>8.800000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="I23" t="n">
-        <v>10.5</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>2.06</v>
@@ -3646,7 +3646,7 @@
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.95</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3682,7 +3682,7 @@
         <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -3763,37 +3763,37 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
         <v>5.4</v>
       </c>
-      <c r="I25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,55 +3826,55 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
-        <v>11.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
         <v>1.87</v>
@@ -3985,7 +3985,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -4033,37 +4033,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="H27" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,55 +4096,55 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5.9</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4192,7 +4192,7 @@
         <v>4.7</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4234,7 +4234,7 @@
         <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4249,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AE28" t="n">
         <v>130</v>
@@ -4273,7 +4273,7 @@
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4303,61 +4303,61 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,55 +4366,55 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,37 +4438,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>7.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>1.51</v>
       </c>
       <c r="I30" t="n">
-        <v>3.65</v>
+        <v>1.56</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,64 +4501,64 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,61 +4573,61 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.32</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,58 +4636,58 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.1</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>2.36</v>
       </c>
       <c r="H32" t="n">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>1.73</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="I34" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.46</v>
+        <v>1.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>1.63</v>
       </c>
       <c r="H35" t="n">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5248,61 +5248,61 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="G36" t="n">
-        <v>8.4</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="I36" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="J36" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,58 +5311,58 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="H37" t="n">
-        <v>5.3</v>
+        <v>2.98</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,61 +5518,61 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="I38" t="n">
-        <v>2.48</v>
+        <v>1.52</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5581,58 +5581,58 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.66</v>
+        <v>1.73</v>
       </c>
       <c r="G39" t="n">
-        <v>3.05</v>
+        <v>1.82</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,135 +5773,405 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>KF Drita</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F42" t="n">
         <v>1.86</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.2</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>5.9</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.55</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>1.56</v>
       </c>
-      <c r="Q40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
+      <c r="Q42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
         <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -685,28 +685,28 @@
         <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -715,10 +715,10 @@
         <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -820,7 +820,7 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -838,10 +838,10 @@
         <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.69</v>
@@ -907,7 +907,7 @@
         <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -976,7 +976,7 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1075,43 +1075,43 @@
         <v>2.12</v>
       </c>
       <c r="G5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.96</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.94</v>
-      </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
         <v>1.59</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1255,7 +1255,7 @@
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
         <v>2.68</v>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1312,7 +1312,7 @@
         <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
         <v>5.5</v>
@@ -1375,13 +1375,13 @@
         <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
         <v>1.99</v>
@@ -1405,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
@@ -1447,7 +1447,7 @@
         <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
         <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1507,7 +1507,7 @@
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
         <v>1.81</v>
@@ -1522,7 +1522,7 @@
         <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
         <v>1.12</v>
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
         <v>370</v>
@@ -1552,10 +1552,10 @@
         <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
@@ -1624,13 +1624,13 @@
         <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
         <v>8.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1642,7 +1642,7 @@
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q9" t="n">
         <v>1.43</v>
@@ -1651,10 +1651,10 @@
         <v>1.86</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.87</v>
@@ -1666,7 +1666,7 @@
         <v>5.2</v>
       </c>
       <c r="X9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="n">
         <v>330</v>
@@ -1681,7 +1681,7 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD9" t="n">
         <v>240</v>
@@ -1690,7 +1690,7 @@
         <v>280</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>13.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
         <v>1.79</v>
@@ -1765,7 +1765,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1792,7 +1792,7 @@
         <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
         <v>1.26</v>
@@ -1822,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -1846,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>8</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
         <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -1900,13 +1900,13 @@
         <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1915,25 +1915,25 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
         <v>7</v>
@@ -2032,16 +2032,16 @@
         <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2053,10 +2053,10 @@
         <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.86</v>
@@ -2068,7 +2068,7 @@
         <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -2101,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>85</v>
@@ -2161,7 +2161,7 @@
         <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2170,7 +2170,7 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2209,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>16</v>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2296,7 +2296,7 @@
         <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2305,7 +2305,7 @@
         <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2320,7 +2320,7 @@
         <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
         <v>1.55</v>
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.76</v>
@@ -2434,22 +2434,22 @@
         <v>1.79</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.12</v>
@@ -2458,73 +2458,73 @@
         <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>2.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AF15" t="n">
         <v>46</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G16" t="n">
         <v>1.95</v>
@@ -2575,34 +2575,34 @@
         <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
         <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
         <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.23</v>
@@ -2611,58 +2611,58 @@
         <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
         <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
@@ -2710,16 +2710,16 @@
         <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
         <v>1.85</v>
@@ -2728,76 +2728,76 @@
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
         <v>48</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -2845,28 +2845,28 @@
         <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="T18" t="n">
         <v>1.48</v>
@@ -2878,13 +2878,13 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
         <v>38</v>
@@ -2893,37 +2893,37 @@
         <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
         <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="n">
         <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>55</v>
@@ -2932,7 +2932,7 @@
         <v>9.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2980,16 +2980,16 @@
         <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
         <v>1.89</v>
@@ -3001,7 +3001,7 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.73</v>
@@ -3019,34 +3019,34 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G20" t="n">
         <v>1.25</v>
@@ -3109,40 +3109,40 @@
         <v>17.5</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K20" t="n">
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
         <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V20" t="n">
         <v>1.06</v>
@@ -3151,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
         <v>70</v>
@@ -3163,46 +3163,46 @@
         <v>890</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
         <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="n">
         <v>310</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI20" t="n">
         <v>230</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
         <v>220</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -3250,16 +3250,16 @@
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
         <v>2.02</v>
@@ -3268,16 +3268,16 @@
         <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
         <v>1.19</v>
@@ -3286,55 +3286,55 @@
         <v>2.28</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3385,16 +3385,16 @@
         <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.74</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
         <v>1.74</v>
@@ -3403,16 +3403,16 @@
         <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
         <v>1.38</v>
@@ -3421,55 +3421,55 @@
         <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
         <v>90</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG22" t="n">
         <v>980</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
         <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>60</v>
@@ -3514,25 +3514,25 @@
         <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
         <v>1.86</v>
@@ -3541,13 +3541,13 @@
         <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
         <v>1.42</v>
@@ -3559,52 +3559,52 @@
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3682,7 +3682,7 @@
         <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I25" t="n">
         <v>11</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3856,7 +3856,7 @@
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>11.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>40</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I27" t="n">
         <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="n">
         <v>8.800000000000001</v>
@@ -4114,40 +4114,40 @@
         <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK27" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4183,16 +4183,16 @@
         <v>1.51</v>
       </c>
       <c r="H28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J28" t="n">
         <v>4.7</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q28" t="n">
         <v>1.74</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4231,58 +4231,58 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
         <v>130</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>150</v>
       </c>
       <c r="AN28" t="n">
         <v>6.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q29" t="n">
         <v>1.74</v>
@@ -4450,7 +4450,7 @@
         <v>6.6</v>
       </c>
       <c r="G30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H30" t="n">
         <v>1.51</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
@@ -4525,7 +4525,7 @@
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
         <v>32</v>
@@ -4534,7 +4534,7 @@
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="n">
         <v>210</v>
@@ -4591,7 +4591,7 @@
         <v>15.5</v>
       </c>
       <c r="I31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J31" t="n">
         <v>7.2</v>
@@ -4615,16 +4615,16 @@
         <v>2.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U31" t="n">
         <v>1.66</v>
@@ -4678,10 +4678,10 @@
         <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="n">
         <v>3.95</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
         <v>2.36</v>
@@ -4858,16 +4858,16 @@
         <v>2.32</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I33" t="n">
         <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="G35" t="n">
         <v>1.63</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
         <v>1000</v>
@@ -5257,28 +5257,28 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="I36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J36" t="n">
         <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
         <v>3.75</v>
@@ -5287,7 +5287,7 @@
         <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q36" t="n">
         <v>1.89</v>
@@ -5296,7 +5296,7 @@
         <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.78</v>
@@ -5317,13 +5317,13 @@
         <v>9.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
@@ -5332,19 +5332,19 @@
         <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
         <v>1000</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="G37" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.64</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.98</v>
-      </c>
       <c r="I37" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="J37" t="n">
         <v>3.5</v>
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I38" t="n">
         <v>1.52</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G39" t="n">
         <v>1.82</v>
@@ -5803,13 +5803,13 @@
         <v>3.45</v>
       </c>
       <c r="H40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I40" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
         <v>3.65</v>
@@ -5824,7 +5824,7 @@
         <v>3.65</v>
       </c>
       <c r="O40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
         <v>1.92</v>
@@ -5899,7 +5899,7 @@
         <v>110</v>
       </c>
       <c r="AN40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO40" t="n">
         <v>21</v>
@@ -5944,7 +5944,7 @@
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
         <v>2.52</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
@@ -706,7 +706,7 @@
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -760,7 +760,7 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
@@ -952,7 +952,7 @@
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -973,7 +973,7 @@
         <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:35:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>2.96</v>
+        <v>1.37</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>1.68</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.7</v>
+        <v>1.94</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>2.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>2.68</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
-        <v>1.79</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.81</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.99</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF7" t="n">
         <v>10</v>
       </c>
-      <c r="AA7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>38</v>
-      </c>
       <c r="AG7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH7" t="n">
         <v>21</v>
       </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO7" t="n">
         <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.42</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.6</v>
       </c>
-      <c r="I8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK8" t="n">
         <v>80</v>
       </c>
-      <c r="AA8" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>210</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF9" t="n">
         <v>7.8</v>
       </c>
-      <c r="K9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>330</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>1.21</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>17.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.2</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
+        <v>330</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC10" t="n">
         <v>24</v>
       </c>
-      <c r="Z10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="G11" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>21</v>
       </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="H12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="I12" t="n">
-        <v>7.6</v>
-      </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,46 +2041,46 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2089,40 +2089,40 @@
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
         <v>9.6</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
         <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="X13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>44</v>
-      </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>2.34</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
-        <v>2.48</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO14" t="n">
         <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.79</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>2.26</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>2.46</v>
       </c>
       <c r="X15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>860</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL15" t="n">
         <v>32</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>80</v>
-      </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>7.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.82</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>1.79</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.23</v>
       </c>
-      <c r="W16" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.84</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.42</v>
@@ -2716,73 +2716,73 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
         <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2791,13 +2791,13 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.88</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
         <v>980</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.77</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>2.68</v>
       </c>
       <c r="V19" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.23</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H20" t="n">
-        <v>14</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5</v>
-      </c>
       <c r="X20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>890</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.71</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="S21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.06</v>
       </c>
-      <c r="N21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.28</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AA21" t="n">
-        <v>180</v>
+        <v>890</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>18</v>
-      </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22">
@@ -3358,109 +3358,109 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
         <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
         <v>980</v>
@@ -3469,10 +3469,10 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>2.66</v>
       </c>
       <c r="H24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.7</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
         <v>25</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AG24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>50</v>
       </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>36</v>
-      </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.37</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.4</v>
       </c>
-      <c r="H25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
         <v>32</v>
       </c>
-      <c r="Y25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>190</v>
-      </c>
       <c r="AF25" t="n">
-        <v>8.4</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL25" t="n">
         <v>50</v>
       </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>40</v>
-      </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.9</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.8</v>
       </c>
-      <c r="G26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>150</v>
-      </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE27" t="n">
         <v>44</v>
       </c>
-      <c r="AA27" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>75</v>
-      </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
         <v>80</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>130</v>
-      </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="G28" t="n">
-        <v>1.51</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
-        <v>7.6</v>
+        <v>1.78</v>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>1.81</v>
       </c>
       <c r="J28" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>29</v>
-      </c>
       <c r="AE28" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AK28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>130</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="H29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB29" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC29" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
         <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK29" t="n">
         <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>7.2</v>
+        <v>1.51</v>
       </c>
       <c r="H30" t="n">
-        <v>1.51</v>
+        <v>7.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.56</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
         <v>4.7</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -4573,118 +4573,118 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="G31" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="T31" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.36</v>
+        <v>7.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>1.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="G33" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.64</v>
+        <v>6.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.73</v>
+        <v>9.4</v>
       </c>
       <c r="J34" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.23</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J36" t="n">
         <v>4.2</v>
       </c>
-      <c r="G36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="U36" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>2.94</v>
+        <v>2.36</v>
       </c>
       <c r="H37" t="n">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="G38" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="J38" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="39">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.71</v>
+        <v>2.64</v>
       </c>
       <c r="G39" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="H39" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="I39" t="n">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="J39" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.45</v>
+        <v>8.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.34</v>
+        <v>1.45</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="J40" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="T40" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X40" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC40" t="n">
         <v>17</v>
       </c>
-      <c r="AA40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB40" t="n">
+      <c r="AD40" t="n">
         <v>15</v>
       </c>
-      <c r="AC40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12</v>
-      </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -5923,256 +5923,661 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.66</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>KF Drita</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K43" t="n">
+        <v>980</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.95</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>5.3</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J45" t="n">
         <v>3.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K45" t="n">
         <v>3.6</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q42" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
+      <c r="O45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.62</v>
@@ -679,40 +679,40 @@
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -724,34 +724,34 @@
         <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -766,13 +766,13 @@
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +808,7 @@
         <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
         <v>2.18</v>
@@ -817,7 +817,7 @@
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
         <v>2.14</v>
@@ -946,7 +946,7 @@
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -973,7 +973,7 @@
         <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>1.87</v>
@@ -1072,82 +1072,82 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="I5" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>11.5</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1510,7 +1510,7 @@
         <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1531,7 +1531,7 @@
         <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>8.199999999999999</v>
@@ -1687,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
@@ -1708,7 +1708,7 @@
         <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>190</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G10" t="n">
         <v>1.24</v>
@@ -1756,7 +1756,7 @@
         <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>7.8</v>
@@ -1774,7 +1774,7 @@
         <v>7.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
         <v>3.1</v>
@@ -1786,25 +1786,25 @@
         <v>1.86</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,25 +1813,25 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AE10" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1843,16 +1843,16 @@
         <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>1.78</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
         <v>4.9</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -1918,16 +1918,16 @@
         <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.26</v>
@@ -1939,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
@@ -1963,7 +1963,7 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -1975,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
         <v>25</v>
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
         <v>1.68</v>
@@ -2056,7 +2056,7 @@
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2161,13 +2161,13 @@
         <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2182,25 +2182,25 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
         <v>2.8</v>
@@ -2209,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
@@ -2218,7 +2218,7 @@
         <v>210</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>10.5</v>
@@ -2257,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2383,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G15" t="n">
         <v>1.66</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
@@ -2458,7 +2458,7 @@
         <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
         <v>2.62</v>
@@ -2470,19 +2470,19 @@
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2494,7 +2494,7 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
         <v>990</v>
@@ -2503,13 +2503,13 @@
         <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="AJ15" t="n">
         <v>18.5</v>
@@ -2521,7 +2521,7 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
         <v>7.6</v>
@@ -2608,7 +2608,7 @@
         <v>2.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2698,10 +2698,10 @@
         <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2725,7 +2725,7 @@
         <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2740,7 +2740,7 @@
         <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
         <v>2.1</v>
@@ -2761,7 +2761,7 @@
         <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
         <v>980</v>
@@ -2857,10 +2857,10 @@
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
@@ -2890,7 +2890,7 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
         <v>11</v>
@@ -2902,7 +2902,7 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
         <v>17.5</v>
@@ -2914,13 +2914,13 @@
         <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
         <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
@@ -2980,16 +2980,16 @@
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
         <v>2.88</v>
@@ -3019,16 +3019,16 @@
         <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
         <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3040,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3064,10 +3064,10 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
         <v>7.2</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.26</v>
@@ -3262,40 +3262,40 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q21" t="n">
         <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
         <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W21" t="n">
         <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z21" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AA21" t="n">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
@@ -3307,16 +3307,16 @@
         <v>60</v>
       </c>
       <c r="AE21" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
         <v>230</v>
@@ -3325,19 +3325,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
         <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H22" t="n">
         <v>5.3</v>
@@ -3379,7 +3379,7 @@
         <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
         <v>4.5</v>
@@ -3415,10 +3415,10 @@
         <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X22" t="n">
         <v>17.5</v>
@@ -3532,7 +3532,7 @@
         <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
         <v>2.1</v>
@@ -3547,7 +3547,7 @@
         <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>1.38</v>
@@ -3643,7 +3643,7 @@
         <v>2.66</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
         <v>3.35</v>
@@ -3670,7 +3670,7 @@
         <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
         <v>1.31</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
@@ -3820,10 +3820,10 @@
         <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
@@ -3832,13 +3832,13 @@
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
@@ -3856,16 +3856,16 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
         <v>46</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>48</v>
       </c>
       <c r="AL25" t="n">
         <v>50</v>
@@ -3919,7 +3919,7 @@
         <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K26" t="n">
         <v>5.9</v>
@@ -3943,10 +3943,10 @@
         <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T26" t="n">
         <v>2.04</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4066,13 +4066,13 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q27" t="n">
         <v>1.63</v>
@@ -4084,70 +4084,70 @@
         <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
         <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
         <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4255,7 +4255,7 @@
         <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="n">
         <v>21</v>
@@ -4321,7 +4321,7 @@
         <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J29" t="n">
         <v>3.9</v>
@@ -4351,7 +4351,7 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
         <v>1.88</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.51</v>
       </c>
       <c r="H30" t="n">
         <v>7.6</v>
@@ -4459,10 +4459,10 @@
         <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4489,7 +4489,7 @@
         <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4504,10 +4504,10 @@
         <v>19.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="n">
         <v>270</v>
@@ -4606,7 +4606,7 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -4621,7 +4621,7 @@
         <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T31" t="n">
         <v>2.02</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="H32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.49</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.5</v>
-      </c>
       <c r="J32" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -4744,31 +4744,31 @@
         <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
         <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
         <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V32" t="n">
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X32" t="n">
         <v>27</v>
@@ -4783,7 +4783,7 @@
         <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
         <v>11.5</v>
@@ -4795,10 +4795,10 @@
         <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4807,22 +4807,22 @@
         <v>28</v>
       </c>
       <c r="AJ32" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AK32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM32" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO32" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="33">
@@ -4858,10 +4858,10 @@
         <v>1.24</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J33" t="n">
         <v>7.2</v>
@@ -4897,7 +4897,7 @@
         <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V33" t="n">
         <v>1.05</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -5017,16 +5017,16 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="R34" t="n">
         <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T34" t="n">
         <v>1.61</v>
@@ -5038,7 +5038,7 @@
         <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
@@ -5146,10 +5146,10 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
         <v>1.89</v>
@@ -5164,10 +5164,10 @@
         <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.38</v>
@@ -5176,22 +5176,22 @@
         <v>1.76</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
         <v>70</v>
       </c>
       <c r="AB35" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>15.5</v>
@@ -5200,13 +5200,13 @@
         <v>44</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
         <v>55</v>
@@ -5215,19 +5215,19 @@
         <v>30</v>
       </c>
       <c r="AK35" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -5299,10 +5299,10 @@
         <v>2.58</v>
       </c>
       <c r="T36" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
         <v>2.34</v>
@@ -5335,7 +5335,7 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="n">
         <v>980</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
         <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>3.55</v>
@@ -5413,40 +5413,40 @@
         <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="O37" t="n">
         <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
         <v>1.97</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
         <v>1.37</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
         <v>980</v>
@@ -5458,7 +5458,7 @@
         <v>85</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC37" t="n">
         <v>980</v>
@@ -5479,7 +5479,7 @@
         <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
         <v>980</v>
@@ -5491,7 +5491,7 @@
         <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
@@ -5536,10 +5536,10 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
         <v>3.8</v>
@@ -5575,7 +5575,7 @@
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W38" t="n">
         <v>1.29</v>
@@ -5671,7 +5671,7 @@
         <v>2.74</v>
       </c>
       <c r="I39" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
@@ -5842,7 +5842,7 @@
         <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
         <v>2.92</v>
@@ -6073,10 +6073,10 @@
         <v>3.05</v>
       </c>
       <c r="H42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J42" t="n">
         <v>3.15</v>
@@ -6133,7 +6133,7 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC42" t="n">
         <v>8.800000000000001</v>
@@ -6148,7 +6148,7 @@
         <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH42" t="n">
         <v>980</v>
@@ -6208,7 +6208,7 @@
         <v>2.16</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
         <v>6.8</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="I44" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,7 +6361,7 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
@@ -6373,22 +6373,22 @@
         <v>1.84</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
         <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I45" t="n">
         <v>6</v>
@@ -6487,34 +6487,34 @@
         <v>3.3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="O45" t="n">
         <v>1.52</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
         <v>4.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U45" t="n">
         <v>1.6</v>
@@ -6523,10 +6523,10 @@
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X45" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>2.9</v>
@@ -682,7 +682,7 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -706,7 +706,7 @@
         <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.62</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
         <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
@@ -1222,7 +1222,7 @@
         <v>2.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>500</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1345,7 +1345,7 @@
         <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>6.2</v>
@@ -1369,7 +1369,7 @@
         <v>4.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
         <v>2.3</v>
@@ -1387,13 +1387,13 @@
         <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
         <v>20</v>
@@ -1417,10 +1417,10 @@
         <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
         <v>9.6</v>
@@ -1432,7 +1432,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1510,7 +1510,7 @@
         <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1645,7 +1645,7 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
         <v>1.44</v>
@@ -1657,7 +1657,7 @@
         <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V9" t="n">
         <v>1.12</v>
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J10" t="n">
         <v>7.8</v>
@@ -1786,25 +1786,25 @@
         <v>1.86</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1984,7 +1984,7 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO11" t="n">
         <v>42</v>
@@ -2023,7 +2023,7 @@
         <v>1.58</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -2047,16 +2047,16 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.53</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
         <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2179,10 +2179,10 @@
         <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.69</v>
@@ -2191,31 +2191,31 @@
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X13" t="n">
         <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA13" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
         <v>9.6</v>
@@ -2224,7 +2224,7 @@
         <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>95</v>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>14.5</v>
@@ -2248,13 +2248,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
         <v>110</v>
@@ -2458,7 +2458,7 @@
         <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
         <v>2.62</v>
@@ -2476,16 +2476,16 @@
         <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
         <v>38</v>
       </c>
       <c r="Z15" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
@@ -2497,37 +2497,37 @@
         <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>18.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2599,7 +2599,7 @@
         <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
@@ -2773,7 +2773,7 @@
         <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
@@ -2869,7 +2869,7 @@
         <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
@@ -3121,7 +3121,7 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
@@ -3133,16 +3133,16 @@
         <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
         <v>2.06</v>
@@ -3151,52 +3151,52 @@
         <v>1.23</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
         <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
@@ -3265,7 +3265,7 @@
         <v>2.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
         <v>1.73</v>
@@ -3379,7 +3379,7 @@
         <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4.5</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -3643,7 +3643,7 @@
         <v>2.66</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I24" t="n">
         <v>3.35</v>
@@ -3847,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
         <v>24</v>
@@ -3865,19 +3865,19 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
         <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -3916,7 +3916,7 @@
         <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J26" t="n">
         <v>5.3</v>
@@ -3943,10 +3943,10 @@
         <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
         <v>2.04</v>
@@ -4054,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4078,7 +4078,7 @@
         <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>2.6</v>
@@ -4354,7 +4354,7 @@
         <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
@@ -4393,7 +4393,7 @@
         <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4483,13 +4483,13 @@
         <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
         <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4528,10 +4528,10 @@
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>100</v>
@@ -4606,7 +4606,7 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -4738,7 +4738,7 @@
         <v>1.28</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
         <v>5.6</v>
@@ -4771,7 +4771,7 @@
         <v>1.14</v>
       </c>
       <c r="X32" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
         <v>11.5</v>
@@ -4789,7 +4789,7 @@
         <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE32" t="n">
         <v>14</v>
@@ -4861,7 +4861,7 @@
         <v>15.5</v>
       </c>
       <c r="I33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
         <v>7.2</v>
@@ -4870,7 +4870,7 @@
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4882,7 +4882,7 @@
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
@@ -4894,10 +4894,10 @@
         <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
         <v>1.05</v>
@@ -4927,7 +4927,7 @@
         <v>65</v>
       </c>
       <c r="AE33" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="n">
         <v>8</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -5032,13 +5032,13 @@
         <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V34" t="n">
         <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
@@ -5077,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK34" t="n">
         <v>17</v>
@@ -5089,7 +5089,7 @@
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO34" t="n">
         <v>110</v>
@@ -5299,7 +5299,7 @@
         <v>2.58</v>
       </c>
       <c r="T36" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U36" t="n">
         <v>2.2</v>
@@ -5422,7 +5422,7 @@
         <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
         <v>1.97</v>
@@ -5536,10 +5536,10 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>3.8</v>
@@ -5551,7 +5551,7 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
@@ -5575,7 +5575,7 @@
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W38" t="n">
         <v>1.29</v>
@@ -5611,7 +5611,7 @@
         <v>19.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
         <v>38</v>
@@ -5821,10 +5821,10 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
         <v>2.24</v>
@@ -5833,16 +5833,16 @@
         <v>1.66</v>
       </c>
       <c r="R40" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S40" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U40" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="V40" t="n">
         <v>2.92</v>
@@ -5854,10 +5854,10 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
         <v>980</v>
@@ -5866,16 +5866,16 @@
         <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AD40" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
         <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AG40" t="n">
         <v>980</v>
@@ -5890,19 +5890,19 @@
         <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H41" t="n">
         <v>5.3</v>
@@ -5983,7 +5983,7 @@
         <v>1.2</v>
       </c>
       <c r="W41" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X41" t="n">
         <v>980</v>
@@ -6013,7 +6013,7 @@
         <v>980</v>
       </c>
       <c r="AG41" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>980</v>
@@ -6070,16 +6070,16 @@
         <v>2.66</v>
       </c>
       <c r="G42" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H42" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6118,7 +6118,7 @@
         <v>1.47</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X42" t="n">
         <v>16</v>
@@ -6205,16 +6205,16 @@
         <v>1.28</v>
       </c>
       <c r="G43" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="I43" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J43" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="n">
         <v>980</v>
@@ -6250,10 +6250,10 @@
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W43" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G44" t="n">
         <v>5.2</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G45" t="n">
         <v>1.91</v>
@@ -6484,7 +6484,7 @@
         <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>3.65</v>
@@ -6496,7 +6496,7 @@
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="O45" t="n">
         <v>1.52</v>
@@ -6514,7 +6514,7 @@
         <v>4.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
         <v>1.6</v>
@@ -6523,7 +6523,7 @@
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.31</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13</v>
-      </c>
       <c r="AE2" t="n">
         <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>980</v>
@@ -760,19 +760,19 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.08</v>
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -841,10 +841,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
         <v>2.24</v>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
@@ -883,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1078,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
         <v>1.53</v>
@@ -1090,7 +1090,7 @@
         <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1105,7 +1105,7 @@
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
@@ -1126,7 +1126,7 @@
         <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
         <v>9.4</v>
@@ -1138,7 +1138,7 @@
         <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1150,16 +1150,16 @@
         <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>500</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1240,76 +1240,76 @@
         <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>6.6</v>
@@ -1360,7 +1360,7 @@
         <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1384,10 +1384,10 @@
         <v>2.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
         <v>1.18</v>
@@ -1396,10 +1396,10 @@
         <v>2.66</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
@@ -1420,7 +1420,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>9.6</v>
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
         <v>5.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>2.22</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10</v>
       </c>
-      <c r="AE8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO8" t="n">
         <v>85</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.42</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AD9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="n">
         <v>80</v>
       </c>
-      <c r="AA9" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>190</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF10" t="n">
         <v>7.8</v>
       </c>
-      <c r="K10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>310</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="AH10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.28</v>
+        <v>5.2</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,34 +2008,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2044,85 +2044,85 @@
         <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
         <v>9.6</v>
       </c>
       <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>21</v>
       </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK12" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2143,91 +2143,91 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2236,28 +2236,28 @@
         <v>9.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
         <v>14.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -2305,19 +2305,19 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
         <v>2.02</v>
@@ -2326,7 +2326,7 @@
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
         <v>1.79</v>
@@ -2341,7 +2341,7 @@
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -2362,7 +2362,7 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
         <v>25</v>
@@ -2383,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="H15" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H16" t="n">
         <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2575,7 +2575,7 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2587,34 +2587,34 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
         <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
         <v>11.5</v>
@@ -2623,7 +2623,7 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
         <v>9.6</v>
@@ -2635,7 +2635,7 @@
         <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2653,16 +2653,16 @@
         <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I17" t="n">
         <v>5.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
@@ -2716,13 +2716,13 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -2734,16 +2734,16 @@
         <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2758,7 +2758,7 @@
         <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
         <v>980</v>
@@ -2779,7 +2779,7 @@
         <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
         <v>980</v>
@@ -2830,10 +2830,10 @@
         <v>2.58</v>
       </c>
       <c r="G18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.78</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.84</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2851,37 +2851,37 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.35</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2890,22 +2890,22 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2914,25 +2914,25 @@
         <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO18" t="n">
         <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2992,28 +2992,28 @@
         <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>2.08</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
         <v>2.68</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
@@ -3022,10 +3022,10 @@
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3037,10 +3037,10 @@
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3052,7 +3052,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3064,10 +3064,10 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -3088,115 +3088,115 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.8</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.21</v>
+        <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>8.4</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>2.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>1.23</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.800000000000001</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3391,88 +3391,88 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH22" t="n">
         <v>21</v>
       </c>
-      <c r="Z22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.45</v>
@@ -3526,34 +3526,34 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
@@ -3565,7 +3565,7 @@
         <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>980</v>
@@ -3580,13 +3580,13 @@
         <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3595,19 +3595,19 @@
         <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
         <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.38</v>
+        <v>1.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.66</v>
+        <v>1.24</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>20</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="K24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN24" t="n">
         <v>3.7</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>30</v>
-      </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W25" t="n">
         <v>3.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK25" t="n">
         <v>15</v>
       </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>48</v>
-      </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM25" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>5.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.37</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.4</v>
       </c>
-      <c r="H26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
         <v>30</v>
       </c>
-      <c r="Y26" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>170</v>
-      </c>
       <c r="AF26" t="n">
-        <v>8.4</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>50</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J27" t="n">
         <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.1</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4075,13 +4075,13 @@
         <v>2.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
         <v>1.6</v>
@@ -4093,19 +4093,19 @@
         <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4204,13 +4204,13 @@
         <v>3.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
@@ -4240,10 +4240,10 @@
         <v>11.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
         <v>9.4</v>
@@ -4255,10 +4255,10 @@
         <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4267,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
@@ -4342,7 +4342,7 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
         <v>1.94</v>
@@ -4351,10 +4351,10 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
         <v>44</v>
@@ -4378,7 +4378,7 @@
         <v>160</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>8.6</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G30" t="n">
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J30" t="n">
         <v>4.8</v>
@@ -4465,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4480,7 +4480,7 @@
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
         <v>1.49</v>
@@ -4489,7 +4489,7 @@
         <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4498,22 +4498,22 @@
         <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
         <v>19.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="n">
         <v>70</v>
       </c>
       <c r="AA30" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4522,7 +4522,7 @@
         <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -4615,10 +4615,10 @@
         <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S31" t="n">
         <v>2.9</v>
@@ -4627,7 +4627,7 @@
         <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>1.11</v>
@@ -4645,37 +4645,37 @@
         <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
         <v>190</v>
       </c>
       <c r="AF31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG31" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
         <v>46</v>
@@ -4738,16 +4738,16 @@
         <v>1.28</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
         <v>1.58</v>
@@ -4756,7 +4756,7 @@
         <v>1.63</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
         <v>1.76</v>
@@ -4813,7 +4813,7 @@
         <v>100</v>
       </c>
       <c r="AL32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
         <v>100</v>
@@ -4861,7 +4861,7 @@
         <v>15.5</v>
       </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J33" t="n">
         <v>7.2</v>
@@ -4876,31 +4876,31 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T33" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="n">
         <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W33" t="n">
         <v>5.1</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,19 +4918,19 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD33" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AE33" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG33" t="n">
         <v>13</v>
@@ -4942,19 +4942,19 @@
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="H34" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="I34" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.2</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W34" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
         <v>110</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -5146,28 +5146,28 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
         <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
         <v>1.38</v>
@@ -5179,7 +5179,7 @@
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
         <v>26</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G36" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I36" t="n">
         <v>1.73</v>
@@ -5284,13 +5284,13 @@
         <v>4.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
         <v>2.32</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
         <v>1.53</v>
@@ -5299,13 +5299,13 @@
         <v>2.58</v>
       </c>
       <c r="T36" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U36" t="n">
         <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
         <v>1.2</v>
@@ -5335,7 +5335,7 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
         <v>980</v>
@@ -5350,7 +5350,7 @@
         <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL36" t="n">
         <v>65</v>
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.61</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>5.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="R37" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="S37" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="T37" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U37" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA37" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI37" t="n">
         <v>85</v>
       </c>
-      <c r="AB37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
         <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="X38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
         <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,37 +5653,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.94</v>
+        <v>2.08</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
         <v>3.7</v>
@@ -5695,79 +5695,79 @@
         <v>1.94</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R39" t="n">
         <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.51</v>
+        <v>1.93</v>
       </c>
       <c r="W39" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
         <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6.2</v>
+        <v>2.64</v>
       </c>
       <c r="G40" t="n">
-        <v>8.4</v>
+        <v>2.78</v>
       </c>
       <c r="H40" t="n">
-        <v>1.45</v>
+        <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>1.52</v>
+        <v>2.94</v>
       </c>
       <c r="J40" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.32</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P40" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>2.92</v>
+        <v>1.51</v>
       </c>
       <c r="W40" t="n">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
         <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AL40" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5923,70 +5923,70 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.71</v>
+        <v>6.8</v>
       </c>
       <c r="G41" t="n">
-        <v>1.77</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3</v>
+        <v>1.46</v>
       </c>
       <c r="I41" t="n">
-        <v>6.2</v>
+        <v>1.52</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="S41" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U41" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V41" t="n">
-        <v>1.2</v>
+        <v>2.92</v>
       </c>
       <c r="W41" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
         <v>980</v>
@@ -5995,7 +5995,7 @@
         <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AB41" t="n">
         <v>980</v>
@@ -6007,37 +6007,37 @@
         <v>980</v>
       </c>
       <c r="AE41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL41" t="n">
         <v>110</v>
       </c>
-      <c r="AF41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>980</v>
-      </c>
       <c r="AM41" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G42" t="n">
         <v>2.96</v>
       </c>
       <c r="H42" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6091,55 +6091,55 @@
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q42" t="n">
         <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V42" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W42" t="n">
         <v>1.51</v>
       </c>
       <c r="X42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
         <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
@@ -6148,7 +6148,7 @@
         <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
         <v>980</v>
@@ -6163,7 +6163,7 @@
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="G43" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,7 +6226,7 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6235,7 +6235,7 @@
         <v>1.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
         <v>1.23</v>
@@ -6244,22 +6244,22 @@
         <v>3.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="V43" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z43" t="n">
         <v>1000</v>
@@ -6268,34 +6268,34 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
         <v>5.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I44" t="n">
         <v>2.4</v>
@@ -6361,7 +6361,7 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
@@ -6376,7 +6376,7 @@
         <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>3.05</v>
+        <v>1.05</v>
       </c>
       <c r="T44" t="n">
         <v>1.04</v>
@@ -6385,10 +6385,10 @@
         <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="W44" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G45" t="n">
         <v>1.91</v>
@@ -6481,13 +6481,13 @@
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
         <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.58</v>
@@ -6496,87 +6496,492 @@
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="O45" t="n">
         <v>1.52</v>
       </c>
       <c r="P45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="R45" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="U45" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W45" t="n">
         <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL45" t="n">
         <v>60</v>
       </c>
-      <c r="AA45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG45" t="n">
+      <c r="AM45" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K47" t="n">
+        <v>950</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23:07:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X48" t="n">
         <v>15</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="Y48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE48" t="n">
         <v>38</v>
       </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AF48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
         <v>30</v>
       </c>
-      <c r="AK45" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO45" t="n">
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO48" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,19 +760,19 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>32</v>
       </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>30</v>
-      </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
         <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
         <v>2.18</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -853,7 +853,7 @@
         <v>1.84</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -877,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -901,10 +901,10 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
         <v>13.5</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1120,7 +1120,7 @@
         <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.12</v>
@@ -1219,7 +1219,7 @@
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
@@ -1240,10 +1240,10 @@
         <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
         <v>180</v>
       </c>
       <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
         <v>4.4</v>
@@ -1495,31 +1495,31 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
         <v>2.26</v>
@@ -1528,10 +1528,10 @@
         <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
         <v>38</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1567,10 +1567,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK8" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
         <v>1.8</v>
@@ -1630,19 +1630,19 @@
         <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1651,10 +1651,10 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1675,10 +1675,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>9.199999999999999</v>
@@ -1774,16 +1774,16 @@
         <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
         <v>3.1</v>
@@ -1798,7 +1798,7 @@
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AB10" t="n">
         <v>8.199999999999999</v>
@@ -1831,13 +1831,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15.5</v>
@@ -1846,10 +1846,10 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1885,10 +1885,10 @@
         <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="n">
         <v>17</v>
@@ -1912,13 +1912,13 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
         <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
@@ -1927,16 +1927,16 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="n">
         <v>310</v>
@@ -1951,13 +1951,13 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
         <v>230</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
         <v>9.4</v>
@@ -1975,19 +1975,19 @@
         <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
         <v>1.77</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
@@ -2050,19 +2050,19 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2074,10 +2074,10 @@
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
@@ -2095,10 +2095,10 @@
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2182,7 +2182,7 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
@@ -2191,10 +2191,10 @@
         <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2203,13 +2203,13 @@
         <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>55</v>
@@ -2242,7 +2242,7 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2311,28 +2311,28 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
         <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>1.71</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>18.5</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
         <v>7.2</v>
@@ -2434,7 +2434,7 @@
         <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -2455,7 +2455,7 @@
         <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.52</v>
@@ -2464,7 +2464,7 @@
         <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
         <v>2.1</v>
@@ -2473,7 +2473,7 @@
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2497,7 +2497,7 @@
         <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>9.6</v>
@@ -2521,10 +2521,10 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
         <v>110</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.78</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2590,31 +2590,31 @@
         <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>2.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
         <v>11.5</v>
@@ -2623,7 +2623,7 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
         <v>9.6</v>
@@ -2635,7 +2635,7 @@
         <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2647,19 +2647,19 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
@@ -2716,13 +2716,13 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.21</v>
@@ -2830,10 +2830,10 @@
         <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2851,40 +2851,40 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>1.97</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -2896,10 +2896,10 @@
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2971,13 +2971,13 @@
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2989,16 +2989,16 @@
         <v>6.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q19" t="n">
         <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S19" t="n">
         <v>2.08</v>
@@ -3007,7 +3007,7 @@
         <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V19" t="n">
         <v>1.32</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
         <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3118,10 +3118,10 @@
         <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3130,76 +3130,76 @@
         <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
         <v>1.62</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3262,7 +3262,7 @@
         <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
         <v>1.9</v>
@@ -3370,19 +3370,19 @@
         <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3391,34 +3391,34 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q22" t="n">
         <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
@@ -3427,34 +3427,34 @@
         <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
         <v>120</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE22" t="n">
         <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
@@ -3463,16 +3463,16 @@
         <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I23" t="n">
         <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.45</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
         <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.22</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I24" t="n">
         <v>20</v>
       </c>
       <c r="J24" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,40 +3664,40 @@
         <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
         <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
         <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
         <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
         <v>60</v>
       </c>
       <c r="Z24" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3712,7 +3712,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AF24" t="n">
         <v>8.800000000000001</v>
@@ -3724,10 +3724,10 @@
         <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK24" t="n">
         <v>14.5</v>
@@ -3736,13 +3736,13 @@
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J25" t="n">
         <v>5.3</v>
       </c>
       <c r="K25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.31</v>
@@ -3802,10 +3802,10 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
         <v>1.51</v>
@@ -3814,10 +3814,10 @@
         <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
         <v>1.1</v>
@@ -3841,22 +3841,22 @@
         <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="n">
         <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3910,10 +3910,10 @@
         <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I26" t="n">
         <v>2.46</v>
@@ -3931,34 +3931,34 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
         <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -4000,7 +4000,7 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4042,37 +4042,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
         <v>1.64</v>
@@ -4081,46 +4081,46 @@
         <v>1.58</v>
       </c>
       <c r="S27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,13 +4129,13 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G28" t="n">
         <v>5.2</v>
@@ -4207,7 +4207,7 @@
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
         <v>1.88</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G29" t="n">
         <v>1.78</v>
@@ -4321,7 +4321,7 @@
         <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.9</v>
@@ -4342,7 +4342,7 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
         <v>1.94</v>
@@ -4417,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I30" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.8</v>
       </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4474,43 +4474,43 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
         <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X30" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB30" t="n">
         <v>9.199999999999999</v>
@@ -4519,25 +4519,25 @@
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG30" t="n">
         <v>9.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>100</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4549,10 +4549,10 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -4588,7 +4588,7 @@
         <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I31" t="n">
         <v>10</v>
@@ -4606,19 +4606,19 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
         <v>2.9</v>
@@ -4627,7 +4627,7 @@
         <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
         <v>1.11</v>
@@ -4645,7 +4645,7 @@
         <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB31" t="n">
         <v>9.800000000000001</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G32" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="I32" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
         <v>5.2</v>
       </c>
-      <c r="K32" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W32" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X32" t="n">
         <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
         <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE32" t="n">
         <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
         <v>230</v>
       </c>
       <c r="AK32" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN32" t="n">
         <v>80</v>
       </c>
-      <c r="AM32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>85</v>
-      </c>
       <c r="AO32" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="33">
@@ -4870,34 +4870,34 @@
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
         <v>2.28</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
@@ -4921,10 +4921,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD33" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
         <v>300</v>
@@ -4942,7 +4942,7 @@
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK33" t="n">
         <v>14</v>
@@ -4951,10 +4951,10 @@
         <v>130</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G34" t="n">
         <v>1.77</v>
       </c>
       <c r="H34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I34" t="n">
         <v>6.2</v>
@@ -5002,7 +5002,7 @@
         <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -5011,25 +5011,25 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
         <v>2.04</v>
       </c>
       <c r="R34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
         <v>3.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
         <v>1.87</v>
@@ -5050,7 +5050,7 @@
         <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB34" t="n">
         <v>980</v>
@@ -5146,16 +5146,16 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
         <v>1.36</v>
@@ -5164,10 +5164,10 @@
         <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.38</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G36" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I36" t="n">
         <v>1.73</v>
@@ -5296,7 +5296,7 @@
         <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T36" t="n">
         <v>1.71</v>
@@ -5305,7 +5305,7 @@
         <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.2</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G37" t="n">
         <v>1.61</v>
       </c>
       <c r="H37" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5416,70 +5416,70 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O37" t="n">
         <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q37" t="n">
         <v>1.66</v>
       </c>
       <c r="R37" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T37" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V37" t="n">
         <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
         <v>60</v>
       </c>
       <c r="AA37" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
         <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="n">
         <v>11.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
         <v>17</v>
@@ -5488,7 +5488,7 @@
         <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM37" t="n">
         <v>100</v>
@@ -5497,7 +5497,7 @@
         <v>7.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.65</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K38" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q38" t="n">
         <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
         <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W38" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF38" t="n">
         <v>16</v>
       </c>
-      <c r="Y38" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>980</v>
-      </c>
       <c r="AG38" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ38" t="n">
         <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL38" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -5671,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
         <v>3.8</v>
@@ -5686,7 +5686,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
@@ -5695,13 +5695,13 @@
         <v>1.94</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.78</v>
@@ -5710,7 +5710,7 @@
         <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W39" t="n">
         <v>1.3</v>
@@ -5737,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
         <v>38</v>
@@ -5806,16 +5806,16 @@
         <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5824,10 +5824,10 @@
         <v>3.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q40" t="n">
         <v>1.98</v>
@@ -5845,7 +5845,7 @@
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W40" t="n">
         <v>1.56</v>
@@ -5860,7 +5860,7 @@
         <v>19.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
@@ -5884,7 +5884,7 @@
         <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
         <v>42</v>
@@ -5899,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO40" t="n">
         <v>32</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G41" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J41" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.31</v>
@@ -5956,34 +5956,34 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P41" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T41" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U41" t="n">
         <v>1.96</v>
       </c>
       <c r="V41" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="W41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G42" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>2.78</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6088,7 +6088,7 @@
         <v>1.48</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
         <v>3.05</v>
@@ -6109,37 +6109,37 @@
         <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W42" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y42" t="n">
         <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
@@ -6148,7 +6148,7 @@
         <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
         <v>980</v>
@@ -6163,10 +6163,10 @@
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G43" t="n">
         <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
         <v>5.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6223,88 +6223,88 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="V43" t="n">
         <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X43" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>23</v>
       </c>
-      <c r="Z43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>30</v>
-      </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN43" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>3.7</v>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="J44" t="n">
         <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="T44" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W44" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6496,7 +6496,7 @@
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.52</v>
@@ -6505,7 +6505,7 @@
         <v>1.59</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R45" t="n">
         <v>1.21</v>
@@ -6514,7 +6514,7 @@
         <v>5.1</v>
       </c>
       <c r="T45" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U45" t="n">
         <v>1.72</v>
@@ -6610,7 +6610,7 @@
         <v>2.74</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H46" t="n">
         <v>2.76</v>
@@ -6622,97 +6622,97 @@
         <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O46" t="n">
         <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U46" t="n">
         <v>2.04</v>
       </c>
-      <c r="R46" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V46" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W46" t="n">
         <v>1.5</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL46" t="n">
         <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -6883,7 +6883,7 @@
         <v>2.66</v>
       </c>
       <c r="H48" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3.3</v>
@@ -6892,37 +6892,37 @@
         <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
         <v>1.91</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R48" t="n">
         <v>1.35</v>
       </c>
       <c r="S48" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U48" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V48" t="n">
         <v>1.44</v>
@@ -6931,7 +6931,7 @@
         <v>1.6</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
         <v>13</v>
@@ -6943,19 +6943,19 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG48" t="n">
         <v>12.5</v>
@@ -6982,7 +6982,7 @@
         <v>24</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -700,16 +700,16 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.12</v>
@@ -718,7 +718,7 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
@@ -742,13 +742,13 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -844,13 +844,13 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
         <v>1.35</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>16.5</v>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>40</v>
@@ -1075,19 +1075,19 @@
         <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1111,22 +1111,22 @@
         <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
         <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
         <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>9.4</v>
@@ -1138,13 +1138,13 @@
         <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>16.5</v>
@@ -1153,13 +1153,13 @@
         <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,64 +1366,64 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
         <v>23</v>
       </c>
-      <c r="Z7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>22</v>
-      </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
         <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH7" t="n">
         <v>20</v>
@@ -1432,22 +1432,22 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1483,85 +1483,85 @@
         <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
         <v>4.7</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.1</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1570,19 +1570,19 @@
         <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>1.77</v>
@@ -1639,10 +1639,10 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1651,7 +1651,7 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
         <v>1.99</v>
@@ -1678,7 +1678,7 @@
         <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1708,7 +1708,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
@@ -1780,7 +1780,7 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -1792,7 +1792,7 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1918,7 +1918,7 @@
         <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
@@ -1927,7 +1927,7 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
@@ -1951,13 +1951,13 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>9.4</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK11" t="n">
         <v>12.5</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2053,19 +2053,19 @@
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
         <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>2.28</v>
@@ -2089,7 +2089,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
@@ -2098,13 +2098,13 @@
         <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
         <v>6.2</v>
       </c>
-      <c r="I13" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2185,37 +2185,37 @@
         <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W13" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
         <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
@@ -2227,10 +2227,10 @@
         <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.6</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
@@ -2257,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>2.34</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
@@ -2329,19 +2329,19 @@
         <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -2350,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2383,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
@@ -2428,7 +2428,7 @@
         <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
         <v>7.8</v>
@@ -2452,7 +2452,7 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -2461,7 +2461,7 @@
         <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
         <v>1.86</v>
@@ -2560,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="I16" t="n">
         <v>1.78</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2590,7 +2590,7 @@
         <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
@@ -2608,25 +2608,25 @@
         <v>2.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
       </c>
       <c r="AB16" t="n">
         <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
         <v>10</v>
@@ -2635,19 +2635,19 @@
         <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
         <v>70</v>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>70</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
         <v>4.9</v>
@@ -2707,7 +2707,7 @@
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.42</v>
@@ -2740,7 +2740,7 @@
         <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
         <v>2.12</v>
@@ -2851,16 +2851,16 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
         <v>1.34</v>
@@ -2869,16 +2869,16 @@
         <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -2905,13 +2905,13 @@
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G19" t="n">
         <v>1.97</v>
@@ -2971,7 +2971,7 @@
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -3010,7 +3010,7 @@
         <v>2.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
         <v>2.02</v>
@@ -3025,7 +3025,7 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3106,7 +3106,7 @@
         <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
@@ -3235,16 +3235,16 @@
         <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3256,55 +3256,55 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H22" t="n">
         <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
         <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
         <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q23" t="n">
         <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -3562,25 +3562,25 @@
         <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -3592,10 +3592,10 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
@@ -3604,10 +3604,10 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
         <v>16.5</v>
@@ -3649,7 +3649,7 @@
         <v>20</v>
       </c>
       <c r="J24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K24" t="n">
         <v>8.4</v>
@@ -3676,7 +3676,7 @@
         <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T24" t="n">
         <v>2.12</v>
@@ -3688,7 +3688,7 @@
         <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="X24" t="n">
         <v>980</v>
@@ -3721,7 +3721,7 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="n">
         <v>220</v>
@@ -3805,7 +3805,7 @@
         <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
         <v>1.51</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
         <v>3.4</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
@@ -3949,10 +3949,10 @@
         <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
         <v>1.68</v>
@@ -3961,13 +3961,13 @@
         <v>1.41</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA26" t="n">
         <v>34</v>
@@ -3988,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
         <v>19.5</v>
@@ -4048,13 +4048,13 @@
         <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
@@ -4072,7 +4072,7 @@
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q27" t="n">
         <v>1.64</v>
@@ -4087,7 +4087,7 @@
         <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
         <v>1.31</v>
@@ -4132,7 +4132,7 @@
         <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
         <v>17.5</v>
@@ -4213,7 +4213,7 @@
         <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4222,7 +4222,7 @@
         <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V28" t="n">
         <v>2.22</v>
@@ -4270,7 +4270,7 @@
         <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4318,16 +4318,16 @@
         <v>1.78</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4342,22 +4342,22 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
         <v>1.88</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
         <v>1.21</v>
@@ -4375,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB29" t="n">
         <v>8.6</v>
@@ -4411,7 +4411,7 @@
         <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -4450,7 +4450,7 @@
         <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>7.4</v>
@@ -4480,13 +4480,13 @@
         <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T30" t="n">
         <v>1.89</v>
@@ -4498,7 +4498,7 @@
         <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X30" t="n">
         <v>18.5</v>
@@ -4513,7 +4513,7 @@
         <v>250</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4585,7 +4585,7 @@
         <v>1.4</v>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H31" t="n">
         <v>8.800000000000001</v>
@@ -4594,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5.4</v>
@@ -4609,31 +4609,31 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
         <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T31" t="n">
         <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X31" t="n">
         <v>20</v>
@@ -4651,7 +4651,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,7 +4660,7 @@
         <v>190</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4672,19 +4672,19 @@
         <v>150</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
         <v>190</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.51</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.53</v>
-      </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
         <v>5.2</v>
@@ -4747,31 +4747,31 @@
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
         <v>2.24</v>
       </c>
       <c r="V32" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="W32" t="n">
         <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
@@ -4798,7 +4798,7 @@
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4807,13 +4807,13 @@
         <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
         <v>95</v>
@@ -4822,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G33" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="I33" t="n">
         <v>17.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.28</v>
@@ -4876,7 +4876,7 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4885,13 +4885,13 @@
         <v>2.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S33" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
         <v>2.28</v>
@@ -4903,13 +4903,13 @@
         <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="X33" t="n">
         <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4921,10 +4921,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE33" t="n">
         <v>300</v>
@@ -4933,16 +4933,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK33" t="n">
         <v>14</v>
@@ -4951,7 +4951,7 @@
         <v>130</v>
       </c>
       <c r="AM33" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
         <v>3.9</v>
@@ -4996,7 +4996,7 @@
         <v>5.2</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5017,7 +5017,7 @@
         <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q34" t="n">
         <v>2.04</v>
@@ -5032,7 +5032,7 @@
         <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
         <v>1.2</v>
@@ -5053,7 +5053,7 @@
         <v>190</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>980</v>
@@ -5092,7 +5092,7 @@
         <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -5146,7 +5146,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.31</v>
@@ -5155,13 +5155,13 @@
         <v>1.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R35" t="n">
         <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
         <v>1.75</v>
@@ -5224,7 +5224,7 @@
         <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>40</v>
@@ -5263,7 +5263,7 @@
         <v>5.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I36" t="n">
         <v>1.73</v>
@@ -5305,7 +5305,7 @@
         <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
         <v>1.2</v>
@@ -5314,7 +5314,7 @@
         <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
         <v>12</v>
@@ -5326,13 +5326,13 @@
         <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
         <v>10.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
         <v>980</v>
@@ -5350,7 +5350,7 @@
         <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
         <v>65</v>
@@ -5401,13 +5401,13 @@
         <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5416,31 +5416,31 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O37" t="n">
         <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q37" t="n">
         <v>1.66</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U37" t="n">
         <v>2.26</v>
       </c>
       <c r="V37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
         <v>2.62</v>
@@ -5449,10 +5449,10 @@
         <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
         <v>200</v>
@@ -5467,7 +5467,7 @@
         <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="n">
         <v>11.5</v>
@@ -5497,7 +5497,7 @@
         <v>7.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -5527,40 +5527,40 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R38" t="n">
         <v>1.34</v>
@@ -5569,70 +5569,70 @@
         <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC38" t="n">
         <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE38" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
         <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
         <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL38" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5665,7 +5665,7 @@
         <v>4.2</v>
       </c>
       <c r="G39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -5677,7 +5677,7 @@
         <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5692,7 +5692,7 @@
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q39" t="n">
         <v>1.9</v>
@@ -5701,10 +5701,10 @@
         <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U39" t="n">
         <v>2.08</v>
@@ -5725,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB39" t="n">
         <v>17</v>
@@ -5740,7 +5740,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG39" t="n">
         <v>19</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
         <v>2.78</v>
@@ -5806,7 +5806,7 @@
         <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
         <v>3.55</v>
@@ -5815,13 +5815,13 @@
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="n">
         <v>1.3</v>
@@ -5836,7 +5836,7 @@
         <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T40" t="n">
         <v>1.7</v>
@@ -5845,7 +5845,7 @@
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
         <v>1.56</v>
@@ -5854,7 +5854,7 @@
         <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
         <v>19.5</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G41" t="n">
         <v>8.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I41" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="J41" t="n">
         <v>4.8</v>
       </c>
       <c r="K41" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.31</v>
@@ -5956,13 +5956,13 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
         <v>1.23</v>
       </c>
       <c r="P41" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q41" t="n">
         <v>1.66</v>
@@ -5971,16 +5971,16 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T41" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U41" t="n">
         <v>1.96</v>
       </c>
       <c r="V41" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="W41" t="n">
         <v>1.13</v>
@@ -5992,7 +5992,7 @@
         <v>980</v>
       </c>
       <c r="Z41" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AA41" t="n">
         <v>980</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="42">
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H42" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I42" t="n">
         <v>3.1</v>
@@ -6082,7 +6082,7 @@
         <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.48</v>
@@ -6091,19 +6091,19 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S42" t="n">
         <v>3.7</v>
@@ -6112,13 +6112,13 @@
         <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>1.47</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X42" t="n">
         <v>980</v>
@@ -6154,7 +6154,7 @@
         <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ42" t="n">
         <v>60</v>
@@ -6481,10 +6481,10 @@
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="n">
         <v>3.55</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J46" t="n">
         <v>3.15</v>
@@ -6628,16 +6628,16 @@
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
         <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q46" t="n">
         <v>2.12</v>
@@ -6646,73 +6646,73 @@
         <v>1.29</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T46" t="n">
         <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X46" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH46" t="n">
         <v>22</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
         <v>60</v>
       </c>
       <c r="AJ46" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK46" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO46" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -6883,31 +6883,31 @@
         <v>2.66</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I48" t="n">
         <v>3.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>3.65</v>
       </c>
       <c r="L48" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P48" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q48" t="n">
         <v>2.04</v>
@@ -6919,7 +6919,7 @@
         <v>3.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U48" t="n">
         <v>2.1</v>
@@ -6934,7 +6934,7 @@
         <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z48" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
@@ -679,16 +679,16 @@
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.75</v>
@@ -700,46 +700,46 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB2" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
@@ -838,10 +838,10 @@
         <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
@@ -868,7 +868,7 @@
         <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>40</v>
@@ -904,7 +904,7 @@
         <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
         <v>13.5</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>1.45</v>
@@ -1099,7 +1099,7 @@
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>2.12</v>
@@ -1120,16 +1120,16 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>9.6</v>
@@ -1156,7 +1156,7 @@
         <v>36</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1384,37 +1384,37 @@
         <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>85</v>
@@ -1426,10 +1426,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1438,7 +1438,7 @@
         <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
         <v>1.65</v>
@@ -1501,25 +1501,25 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
         <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
@@ -1528,25 +1528,25 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="n">
         <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
         <v>36</v>
@@ -1558,22 +1558,22 @@
         <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
         <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
         <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
         <v>1.8</v>
@@ -1642,7 +1642,7 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1654,16 +1654,16 @@
         <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
         <v>2.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1708,7 +1708,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
@@ -1774,16 +1774,16 @@
         <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>3.1</v>
@@ -1792,7 +1792,7 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1918,7 +1918,7 @@
         <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
@@ -1936,10 +1936,10 @@
         <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>70</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.76</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.77</v>
-      </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2050,13 +2050,13 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.65</v>
@@ -2065,16 +2065,16 @@
         <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>42</v>
@@ -2089,7 +2089,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
@@ -2104,13 +2104,13 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>25</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
         <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -2191,31 +2191,31 @@
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
@@ -2224,25 +2224,25 @@
         <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2251,13 +2251,13 @@
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.34</v>
@@ -2299,7 +2299,7 @@
         <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2326,13 +2326,13 @@
         <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.52</v>
       </c>
       <c r="H15" t="n">
         <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2446,19 +2446,19 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
         <v>2.78</v>
@@ -2467,31 +2467,31 @@
         <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="n">
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>27</v>
@@ -2503,7 +2503,7 @@
         <v>9.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
@@ -2515,16 +2515,16 @@
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
         <v>110</v>
@@ -2566,7 +2566,7 @@
         <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2575,7 +2575,7 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2590,7 +2590,7 @@
         <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
@@ -2599,31 +2599,31 @@
         <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W16" t="n">
         <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
         <v>980</v>
@@ -2653,7 +2653,7 @@
         <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
         <v>95</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
         <v>1.88</v>
@@ -2734,7 +2734,7 @@
         <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
         <v>1.94</v>
@@ -2755,7 +2755,7 @@
         <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="n">
         <v>980</v>
@@ -2767,25 +2767,25 @@
         <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
         <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>980</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
         <v>100</v>
@@ -2851,28 +2851,28 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
         <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.5</v>
@@ -2926,7 +2926,7 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
         <v>980</v>
@@ -3127,7 +3127,7 @@
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q20" t="n">
         <v>1.86</v>
@@ -3235,61 +3235,61 @@
         <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
         <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X21" t="n">
         <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
         <v>980</v>
@@ -3298,13 +3298,13 @@
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3406,31 +3406,31 @@
         <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
         <v>8.6</v>
@@ -3448,10 +3448,10 @@
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>75</v>
@@ -3469,10 +3469,10 @@
         <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
         <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
         <v>1.95</v>
@@ -3541,7 +3541,7 @@
         <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
         <v>1.75</v>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
@@ -3583,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
@@ -3592,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
         <v>25</v>
@@ -3604,7 +3604,7 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G24" t="n">
         <v>1.23</v>
       </c>
       <c r="H24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J24" t="n">
         <v>7.4</v>
@@ -3664,16 +3664,16 @@
         <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
         <v>2.18</v>
@@ -3688,10 +3688,10 @@
         <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="n">
         <v>60</v>
@@ -3709,7 +3709,7 @@
         <v>18.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE24" t="n">
         <v>320</v>
@@ -3721,7 +3721,7 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
         <v>220</v>
@@ -3739,7 +3739,7 @@
         <v>220</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO24" t="n">
         <v>400</v>
@@ -3775,7 +3775,7 @@
         <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H25" t="n">
         <v>9.4</v>
@@ -3802,19 +3802,19 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
         <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
         <v>1.87</v>
@@ -3823,7 +3823,7 @@
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AE25" t="n">
         <v>170</v>
@@ -3856,7 +3856,7 @@
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3910,13 +3910,13 @@
         <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>2.32</v>
       </c>
       <c r="I26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
         <v>3.45</v>
@@ -3925,19 +3925,19 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
         <v>1.94</v>
@@ -3946,22 +3946,22 @@
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
         <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
@@ -3970,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -4000,7 +4000,7 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J27" t="n">
         <v>4.3</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4078,49 +4078,49 @@
         <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,13 +4129,13 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>4.9</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H28" t="n">
         <v>1.78</v>
@@ -4201,10 +4201,10 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
         <v>2.02</v>
@@ -4213,13 +4213,13 @@
         <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
         <v>2.06</v>
@@ -4234,25 +4234,25 @@
         <v>17</v>
       </c>
       <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC28" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
         <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="n">
         <v>1000</v>
@@ -4270,7 +4270,7 @@
         <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4318,16 +4318,16 @@
         <v>1.78</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4342,7 +4342,7 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
         <v>1.95</v>
@@ -4354,7 +4354,7 @@
         <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
@@ -4390,7 +4390,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>9.6</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
         <v>1.53</v>
@@ -4456,7 +4456,7 @@
         <v>7.4</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.7</v>
@@ -4480,22 +4480,22 @@
         <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U30" t="n">
         <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
         <v>2.88</v>
@@ -4522,7 +4522,7 @@
         <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF30" t="n">
         <v>9.4</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>120</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
         <v>5.4</v>
@@ -4618,13 +4618,13 @@
         <v>1.74</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
         <v>1.86</v>
@@ -4633,7 +4633,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X31" t="n">
         <v>20</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G32" t="n">
         <v>7</v>
       </c>
-      <c r="G32" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I32" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -4756,22 +4756,22 @@
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="W32" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
@@ -4798,7 +4798,7 @@
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4810,10 +4810,10 @@
         <v>190</v>
       </c>
       <c r="AK32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
         <v>95</v>
@@ -4822,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="33">
@@ -4867,7 +4867,7 @@
         <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.28</v>
@@ -4891,13 +4891,13 @@
         <v>1.66</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4921,13 +4921,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
         <v>60</v>
       </c>
       <c r="AE33" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AF33" t="n">
         <v>8.199999999999999</v>
@@ -4936,22 +4936,22 @@
         <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK33" t="n">
         <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="n">
         <v>3.9</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.73</v>
+        <v>7.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.77</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>5.2</v>
+        <v>1.44</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>2.28</v>
+        <v>1.12</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
         <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>190</v>
+        <v>15.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="35">
@@ -5128,10 +5128,10 @@
         <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J35" t="n">
         <v>3.55</v>
@@ -5155,7 +5155,7 @@
         <v>1.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.36</v>
@@ -5170,7 +5170,7 @@
         <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
         <v>1.76</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G37" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="H37" t="n">
         <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5419,7 +5419,7 @@
         <v>4.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
         <v>2.36</v>
@@ -5434,25 +5434,25 @@
         <v>2.68</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="X37" t="n">
         <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA37" t="n">
         <v>200</v>
@@ -5461,22 +5461,22 @@
         <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="n">
         <v>11.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH37" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>75</v>
@@ -5494,10 +5494,10 @@
         <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5527,88 +5527,88 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2.2</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R38" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
         <v>20</v>
@@ -5617,16 +5617,16 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
@@ -5662,91 +5662,91 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG39" t="n">
         <v>18</v>
       </c>
-      <c r="Y39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>19</v>
-      </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
         <v>38</v>
@@ -5764,10 +5764,10 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO39" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
@@ -5800,13 +5800,13 @@
         <v>2.68</v>
       </c>
       <c r="G40" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H40" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J40" t="n">
         <v>3.55</v>
@@ -5881,7 +5881,7 @@
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
         <v>980</v>
@@ -5923,82 +5923,82 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7.4</v>
+        <v>1.74</v>
       </c>
       <c r="G41" t="n">
-        <v>8.6</v>
+        <v>1.77</v>
       </c>
       <c r="H41" t="n">
-        <v>1.45</v>
+        <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>1.51</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="T41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.89</v>
       </c>
-      <c r="U41" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V41" t="n">
-        <v>2.94</v>
+        <v>1.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.13</v>
+        <v>2.28</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y41" t="n">
         <v>980</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AB41" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
         <v>980</v>
@@ -6007,37 +6007,37 @@
         <v>980</v>
       </c>
       <c r="AE41" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG41" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AL41" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AM41" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>6.6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
@@ -6070,55 +6070,55 @@
         <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I42" t="n">
         <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.48</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X42" t="n">
         <v>980</v>
@@ -6154,16 +6154,16 @@
         <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK42" t="n">
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
@@ -6205,7 +6205,7 @@
         <v>1.8</v>
       </c>
       <c r="G43" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>4.5</v>
@@ -6232,7 +6232,7 @@
         <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q43" t="n">
         <v>1.96</v>
@@ -6253,7 +6253,7 @@
         <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
         <v>13.5</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,123 +6458,123 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L45" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="O45" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.46</v>
+        <v>1.23</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S45" t="n">
-        <v>5.1</v>
+        <v>1.23</v>
       </c>
       <c r="T45" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="I46" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N46" t="n">
         <v>2.72</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O46" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="P46" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="R46" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S46" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="U46" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="V46" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="W46" t="n">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG46" t="n">
         <v>11</v>
       </c>
-      <c r="Z46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>17</v>
-      </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL46" t="n">
         <v>60</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>65</v>
-      </c>
       <c r="AM46" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="AN46" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AO46" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,261 +6728,531 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J47" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>1.32</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
-        <v>1.32</v>
+        <v>1.81</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>1.22</v>
+        <v>3.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W47" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K48" t="n">
+        <v>950</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K49" t="n">
+        <v>950</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>23:07:00</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Guadalajara</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F50" t="n">
         <v>2.46</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G50" t="n">
         <v>2.66</v>
       </c>
-      <c r="H48" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
         <v>3.3</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J50" t="n">
         <v>3.25</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K50" t="n">
         <v>3.65</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>1.35</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M50" t="n">
         <v>1.07</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N50" t="n">
         <v>3.45</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O50" t="n">
         <v>1.34</v>
       </c>
-      <c r="P48" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="P50" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q50" t="n">
         <v>2.04</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R50" t="n">
         <v>1.35</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S50" t="n">
         <v>3.5</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T50" t="n">
         <v>1.78</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U50" t="n">
         <v>2.1</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V50" t="n">
         <v>1.44</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W50" t="n">
         <v>1.6</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X50" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y50" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="Z50" t="n">
         <v>22</v>
       </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
         <v>11</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AC50" t="n">
         <v>8</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AD50" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AE50" t="n">
         <v>40</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF50" t="n">
         <v>17</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG50" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AH50" t="n">
         <v>18</v>
       </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
         <v>30</v>
       </c>
-      <c r="AL48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM48" t="n">
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
         <v>95</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AN50" t="n">
         <v>24</v>
       </c>
-      <c r="AO48" t="n">
-        <v>40</v>
+      <c r="AO50" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -688,7 +688,7 @@
         <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.75</v>
@@ -700,16 +700,16 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -718,13 +718,13 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.5</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>3.9</v>
@@ -811,55 +811,55 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>16.5</v>
@@ -871,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -886,13 +886,13 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
         <v>50</v>
@@ -901,13 +901,13 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1021,16 +1021,16 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1114,13 +1114,13 @@
         <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
@@ -1150,7 +1150,7 @@
         <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="n">
         <v>36</v>
@@ -1213,7 +1213,7 @@
         <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I7" t="n">
         <v>6.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1381,31 +1381,31 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="n">
         <v>9.199999999999999</v>
@@ -1414,7 +1414,7 @@
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>85</v>
@@ -1438,7 +1438,7 @@
         <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
@@ -1486,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.34</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
@@ -1510,22 +1510,22 @@
         <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
         <v>2.54</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
         <v>220</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
         <v>5.6</v>
@@ -1651,10 +1651,10 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1678,7 +1678,7 @@
         <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1750,16 +1750,16 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
         <v>5.4</v>
@@ -1771,13 +1771,13 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
         <v>1.81</v>
@@ -1792,13 +1792,13 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1813,10 +1813,10 @@
         <v>340</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>32</v>
@@ -1825,7 +1825,7 @@
         <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>9.800000000000001</v>
@@ -1840,7 +1840,7 @@
         <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>38</v>
@@ -1936,10 +1936,10 @@
         <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>70</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>12.5</v>
@@ -1987,7 +1987,7 @@
         <v>3.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
         <v>1.76</v>
@@ -2050,7 +2050,7 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.56</v>
@@ -2161,7 +2161,7 @@
         <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2191,13 +2191,13 @@
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
@@ -2212,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA13" t="n">
         <v>150</v>
@@ -2227,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2323,7 +2323,7 @@
         <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
@@ -2353,7 +2353,7 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
         <v>1.51</v>
@@ -2431,28 +2431,28 @@
         <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -2464,13 +2464,13 @@
         <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
         <v>2.96</v>
@@ -2500,10 +2500,10 @@
         <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
@@ -2512,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -2521,10 +2521,10 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
         <v>110</v>
@@ -2560,16 +2560,16 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
         <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2605,10 +2605,10 @@
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2695,7 +2695,7 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
         <v>4.9</v>
@@ -2710,7 +2710,7 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2851,7 +2851,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
@@ -2860,16 +2860,16 @@
         <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2932,7 +2932,7 @@
         <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
         <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -2986,31 +2986,31 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
         <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W19" t="n">
         <v>2.02</v>
@@ -3025,7 +3025,7 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
         <v>980</v>
@@ -3037,10 +3037,10 @@
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3064,10 +3064,10 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3115,7 +3115,7 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3139,7 +3139,7 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
@@ -3235,31 +3235,31 @@
         <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
         <v>1.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3268,7 +3268,7 @@
         <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
         <v>3.15</v>
@@ -3280,7 +3280,7 @@
         <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W21" t="n">
         <v>1.23</v>
@@ -3289,7 +3289,7 @@
         <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
         <v>980</v>
@@ -3301,10 +3301,10 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3403,13 +3403,13 @@
         <v>1.87</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
         <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U22" t="n">
         <v>2.02</v>
@@ -3418,7 +3418,7 @@
         <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
@@ -3433,13 +3433,13 @@
         <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3451,10 +3451,10 @@
         <v>9.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
         <v>19.5</v>
@@ -3466,13 +3466,13 @@
         <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
         <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3532,7 +3532,7 @@
         <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q23" t="n">
         <v>1.95</v>
@@ -3544,16 +3544,16 @@
         <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -3583,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="I24" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
         <v>8.4</v>
@@ -3661,43 +3661,43 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.74</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.77</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
         <v>42</v>
       </c>
       <c r="Y24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z24" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,43 +3706,43 @@
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK24" t="n">
         <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
         <v>3.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G25" t="n">
         <v>1.41</v>
       </c>
       <c r="H25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25" t="n">
         <v>10.5</v>
@@ -3790,7 +3790,7 @@
         <v>5.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -3802,22 +3802,22 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
         <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V25" t="n">
         <v>1.1</v>
@@ -3835,43 +3835,43 @@
         <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF25" t="n">
         <v>8.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
         <v>5.9</v>
@@ -3910,7 +3910,7 @@
         <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>2.32</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4072,7 +4072,7 @@
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q27" t="n">
         <v>1.64</v>
@@ -4084,28 +4084,28 @@
         <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>40</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H28" t="n">
         <v>1.78</v>
       </c>
       <c r="I28" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4195,7 +4195,7 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4210,13 +4210,13 @@
         <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.84</v>
@@ -4225,7 +4225,7 @@
         <v>2.06</v>
       </c>
       <c r="V28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W28" t="n">
         <v>1.23</v>
@@ -4240,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4339,7 +4339,7 @@
         <v>3.95</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
         <v>1.99</v>
@@ -4351,10 +4351,10 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z29" t="n">
         <v>44</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H30" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4471,46 +4471,46 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
         <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
         <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X30" t="n">
         <v>18.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB30" t="n">
         <v>9.4</v>
@@ -4519,10 +4519,10 @@
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
         <v>9.4</v>
@@ -4537,7 +4537,7 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4585,7 +4585,7 @@
         <v>1.41</v>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H31" t="n">
         <v>9</v>
@@ -4594,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5.4</v>
@@ -4660,7 +4660,7 @@
         <v>190</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -4750,13 +4750,13 @@
         <v>2.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
         <v>1.76</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G33" t="n">
         <v>1.26</v>
       </c>
       <c r="H33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
         <v>7</v>
@@ -4891,13 +4891,13 @@
         <v>1.66</v>
       </c>
       <c r="S33" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
         <v>2.3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
@@ -4954,7 +4954,7 @@
         <v>270</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G34" t="n">
         <v>8.800000000000001</v>
@@ -5005,7 +5005,7 @@
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5038,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
@@ -5053,7 +5053,7 @@
         <v>15.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="n">
         <v>13.5</v>
@@ -5065,10 +5065,10 @@
         <v>18.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
         <v>30</v>
@@ -5077,10 +5077,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL34" t="n">
         <v>120</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
         <v>2.32</v>
@@ -5131,7 +5131,7 @@
         <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.55</v>
@@ -5170,16 +5170,16 @@
         <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
         <v>26</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="G36" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="I36" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q36" t="n">
         <v>1.64</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S36" t="n">
         <v>2.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="W36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X36" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC36" t="n">
         <v>11</v>
       </c>
-      <c r="Z36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
         <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AJ36" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL36" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H37" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5419,85 +5419,85 @@
         <v>4.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U37" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AF37" t="n">
         <v>11.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK37" t="n">
         <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
         <v>7.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
@@ -5545,7 +5545,7 @@
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -5569,16 +5569,16 @@
         <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
         <v>11.5</v>
@@ -5587,10 +5587,10 @@
         <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
         <v>9.199999999999999</v>
@@ -5599,10 +5599,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
         <v>14.5</v>
@@ -5620,7 +5620,7 @@
         <v>34</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
         <v>50</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I39" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.39</v>
@@ -5686,88 +5686,88 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
         <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB39" t="n">
         <v>15.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="40">
@@ -5845,13 +5845,13 @@
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W40" t="n">
         <v>1.56</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
         <v>980</v>
@@ -6085,7 +6085,7 @@
         <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -6094,28 +6094,28 @@
         <v>2.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P42" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.94</v>
       </c>
       <c r="U42" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V42" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W42" t="n">
         <v>1.53</v>
@@ -6484,7 +6484,7 @@
         <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
         <v>950</v>
@@ -6496,28 +6496,28 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O45" t="n">
         <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q45" t="n">
         <v>1.23</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
         <v>1.23</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.01</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.88</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H46" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
         <v>1.56</v>
@@ -6631,7 +6631,7 @@
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O46" t="n">
         <v>1.52</v>
@@ -6649,16 +6649,16 @@
         <v>5.1</v>
       </c>
       <c r="T46" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X46" t="n">
         <v>11.5</v>
@@ -6685,7 +6685,7 @@
         <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
@@ -6748,16 +6748,16 @@
         <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I47" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J47" t="n">
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6769,13 +6769,13 @@
         <v>3.35</v>
       </c>
       <c r="O47" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
         <v>1.81</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R47" t="n">
         <v>1.31</v>
@@ -6790,13 +6790,13 @@
         <v>2.08</v>
       </c>
       <c r="V47" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W47" t="n">
         <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
         <v>12</v>
@@ -6808,7 +6808,7 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>9</v>
@@ -6847,7 +6847,7 @@
         <v>46</v>
       </c>
       <c r="AO47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -7024,7 +7024,7 @@
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K49" t="n">
         <v>950</v>
@@ -7036,13 +7036,13 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q49" t="n">
         <v>1.02</v>
@@ -7054,10 +7054,10 @@
         <v>1.47</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.01</v>
@@ -7180,7 +7180,7 @@
         <v>1.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
         <v>1.35</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -685,13 +685,13 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -703,76 +703,76 @@
         <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18</v>
-      </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -805,109 +805,109 @@
         <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
       </c>
       <c r="AH3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="n">
         <v>980</v>
       </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,43 +937,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -982,58 +982,58 @@
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I5" t="n">
         <v>1.56</v>
@@ -1099,67 +1099,67 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
         <v>2.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>36</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
@@ -1213,61 +1213,61 @@
         <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
         <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
         <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,13 +1366,13 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.72</v>
@@ -1384,58 +1384,58 @@
         <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1507,82 +1507,82 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF8" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1624,13 +1624,13 @@
         <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1651,19 +1651,19 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1711,10 +1711,10 @@
         <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="n">
         <v>12.5</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>5.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1780,25 +1780,25 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1813,13 +1813,13 @@
         <v>340</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1846,7 +1846,7 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
         <v>6.8</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
         <v>14.5</v>
@@ -1897,7 +1897,7 @@
         <v>7.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -1921,10 +1921,10 @@
         <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>1.91</v>
@@ -1933,13 +1933,13 @@
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="X11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,22 +1951,22 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2050,37 +2050,37 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2089,13 +2089,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
         <v>9.6</v>
@@ -2104,22 +2104,22 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO12" t="n">
         <v>42</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>5.8</v>
@@ -2167,43 +2167,43 @@
         <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2212,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
         <v>150</v>
@@ -2239,10 +2239,10 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
@@ -2305,7 +2305,7 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2317,19 +2317,19 @@
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
         <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.14</v>
@@ -2344,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
         <v>16</v>
@@ -2353,16 +2353,16 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
         <v>25</v>
@@ -2374,10 +2374,10 @@
         <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>44</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
         <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -2452,28 +2452,28 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2485,7 +2485,7 @@
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
         <v>9.6</v>
@@ -2500,7 +2500,7 @@
         <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -2521,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
         <v>5.2</v>
@@ -2566,7 +2566,7 @@
         <v>1.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2575,58 +2575,58 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W16" t="n">
         <v>1.24</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>10</v>
@@ -2641,10 +2641,10 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
@@ -2653,10 +2653,10 @@
         <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
         <v>70</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.58</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>18</v>
       </c>
-      <c r="AI18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>980</v>
-      </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>1.19</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>18.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2986,88 +2986,88 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
         <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
         <v>980</v>
       </c>
-      <c r="AF20" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
         <v>980</v>
       </c>
       <c r="AK20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO20" t="n">
         <v>980</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>2.72</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>2.84</v>
       </c>
       <c r="H21" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1.89</v>
+        <v>2.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.68</v>
+        <v>4.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.74</v>
+        <v>5.2</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>2.04</v>
       </c>
       <c r="W22" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.85</v>
       </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>6.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>18.5</v>
+        <v>1.53</v>
       </c>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>1.54</v>
       </c>
       <c r="J24" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.77</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.18</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="W24" t="n">
-        <v>5.5</v>
+        <v>1.17</v>
       </c>
       <c r="X24" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="n">
         <v>65</v>
       </c>
-      <c r="Z24" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL24" t="n">
         <v>75</v>
       </c>
-      <c r="AE24" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>48</v>
-      </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.7</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>540</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.39</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.41</v>
       </c>
-      <c r="H25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.32</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.71</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W25" t="n">
-        <v>3.45</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA25" t="n">
         <v>34</v>
       </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>410</v>
-      </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN25" t="n">
         <v>38</v>
       </c>
-      <c r="AE25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P26" t="n">
         <v>2.44</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.37</v>
       </c>
-      <c r="S26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.69</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>24</v>
       </c>
-      <c r="AG26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.04</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>2.24</v>
       </c>
       <c r="W27" t="n">
-        <v>1.96</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>1.78</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="J28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.38</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="S28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.24</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>2.32</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="H29" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>9.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
         <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="G30" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="H30" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q30" t="n">
         <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S30" t="n">
         <v>2.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>29</v>
       </c>
-      <c r="Z30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,118 +4573,118 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.41</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE31" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.8</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>1.78</v>
       </c>
       <c r="H32" t="n">
-        <v>1.53</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
-        <v>1.54</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.21</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.88</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.17</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,73 +4843,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="G33" t="n">
-        <v>1.26</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>2.86</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="W33" t="n">
-        <v>4.8</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,43 +4918,43 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.4</v>
+        <v>2.28</v>
       </c>
       <c r="G34" t="n">
-        <v>8.800000000000001</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>1.44</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="S34" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>26</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AA34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG34" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>980</v>
-      </c>
       <c r="AH34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>30</v>
       </c>
-      <c r="AI34" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>300</v>
-      </c>
       <c r="AK34" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AL34" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>2.32</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.45</v>
+        <v>1.54</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>1.59</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>2.66</v>
       </c>
       <c r="T35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>2.68</v>
       </c>
       <c r="W35" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="X35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="n">
         <v>15</v>
       </c>
-      <c r="Y35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AF35" t="n">
         <v>70</v>
       </c>
-      <c r="AB35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>85</v>
       </c>
       <c r="AO35" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.2</v>
+        <v>1.53</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="n">
-        <v>1.55</v>
+        <v>6.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.57</v>
+        <v>7.8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="R36" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S36" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="T36" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V36" t="n">
-        <v>2.72</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>1.17</v>
+        <v>2.8</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AA36" t="n">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="AB36" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF36" t="n">
         <v>11</v>
       </c>
-      <c r="AD36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>980</v>
-      </c>
       <c r="AG36" t="n">
-        <v>32</v>
+        <v>9.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="n">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="AK36" t="n">
-        <v>85</v>
+        <v>15.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
       </c>
       <c r="AN36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO36" t="n">
         <v>85</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>6.8</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>2.26</v>
       </c>
       <c r="G37" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC37" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X37" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD37" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.26</v>
+        <v>3.95</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="I38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.65</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.38</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S38" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO38" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.95</v>
+        <v>1.25</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>1.26</v>
       </c>
       <c r="H39" t="n">
-        <v>2.04</v>
+        <v>15.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>16.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>7.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>7.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="S39" t="n">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.06</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>4.9</v>
       </c>
       <c r="X39" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK39" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="H40" t="n">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.86</v>
+        <v>6.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.56</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AK40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,39 +5918,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="G41" t="n">
-        <v>1.77</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>5.2</v>
+        <v>1.97</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>2.24</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -5959,91 +5959,91 @@
         <v>3.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
         <v>1.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="R41" t="n">
         <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.2</v>
+        <v>1.81</v>
       </c>
       <c r="W41" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,120 +6053,120 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.1</v>
       </c>
-      <c r="N42" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O42" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.4</v>
+        <v>1.23</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>4.6</v>
+        <v>1.23</v>
       </c>
       <c r="T42" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U42" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W42" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="X42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,123 +6188,123 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="P43" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="V43" t="n">
         <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA43" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AG43" t="n">
         <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AN43" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,93 +6323,93 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="H44" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
         <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V44" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="W44" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6418,13 +6418,13 @@
         <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
         <v>1000</v>
@@ -6436,13 +6436,13 @@
         <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -6458,17 +6458,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6496,22 +6496,22 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T45" t="n">
         <v>1.04</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,123 +6593,123 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.81</v>
+        <v>2.74</v>
       </c>
       <c r="G46" t="n">
-        <v>1.88</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="I46" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N46" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="O46" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P46" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R46" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S46" t="n">
-        <v>5.1</v>
+        <v>1.05</v>
       </c>
       <c r="T46" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AF46" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,90 +6728,90 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>23:07:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="G47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J47" t="n">
         <v>3.3</v>
       </c>
-      <c r="H47" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K47" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P47" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S47" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T47" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U47" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W47" t="n">
         <v>1.59</v>
       </c>
-      <c r="W47" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
         <v>14.5</v>
@@ -6820,439 +6820,34 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN47" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AO47" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Lobos UPNFM</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K48" t="n">
-        <v>950</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Cucuta Deportivo</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K49" t="n">
-        <v>950</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>23:07:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,85 +694,85 @@
         <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -811,73 +811,73 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>980</v>
@@ -895,16 +895,16 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>15.5</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
         <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -988,16 +988,16 @@
         <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,28 +1009,28 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>46</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1099,10 +1099,10 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.72</v>
@@ -1114,19 +1114,19 @@
         <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="W5" t="n">
         <v>1.11</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1135,31 +1135,31 @@
         <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1210,22 +1210,22 @@
         <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1246,19 +1246,19 @@
         <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1267,7 +1267,7 @@
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,25 +1279,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
         <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>38</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.56</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.8</v>
@@ -1366,16 +1366,16 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.5</v>
@@ -1384,7 +1384,7 @@
         <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1408,7 +1408,7 @@
         <v>190</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1507,31 +1507,31 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
         <v>2.68</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
         <v>25</v>
@@ -1546,7 +1546,7 @@
         <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>25</v>
@@ -1555,7 +1555,7 @@
         <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
         <v>9.6</v>
@@ -1567,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>15.5</v>
@@ -1579,7 +1579,7 @@
         <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>
@@ -1615,13 +1615,13 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
@@ -1759,7 +1759,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
         <v>5.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1780,19 +1780,19 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
         <v>1.12</v>
@@ -1837,7 +1837,7 @@
         <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
         <v>14.5</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="J11" t="n">
         <v>7.8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1912,34 +1912,34 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
         <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,16 +1954,16 @@
         <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>36</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.77</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
@@ -2032,7 +2032,7 @@
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2059,10 +2059,10 @@
         <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
@@ -2077,13 +2077,13 @@
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
@@ -2110,16 +2110,16 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO12" t="n">
         <v>42</v>
@@ -2158,19 +2158,19 @@
         <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,7 +2182,7 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.7</v>
@@ -2197,7 +2197,7 @@
         <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
@@ -2242,7 +2242,7 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
@@ -2305,31 +2305,31 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
         <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
         <v>2.14</v>
@@ -2341,58 +2341,58 @@
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="n">
         <v>42</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>44</v>
-      </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
         <v>1.52</v>
@@ -2431,10 +2431,10 @@
         <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -2446,34 +2446,34 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2485,10 +2485,10 @@
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2500,16 +2500,16 @@
         <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
         <v>13.5</v>
@@ -2521,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
         <v>1.76</v>
@@ -2569,7 +2569,7 @@
         <v>1.78</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2599,7 +2599,7 @@
         <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2608,13 +2608,13 @@
         <v>2.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
       </c>
       <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>25</v>
       </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.19</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>1.22</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>18.5</v>
+        <v>3.85</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>410</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>1.95</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
         <v>34</v>
       </c>
-      <c r="Z20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.6</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.84</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.78</v>
+        <v>1.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>1.97</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="W21" t="n">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>1.66</v>
       </c>
       <c r="G22" t="n">
-        <v>5.2</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>1.82</v>
+        <v>5.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.95</v>
+        <v>5.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11</v>
       </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM22" t="n">
         <v>130</v>
       </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>120</v>
-      </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
         <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.8</v>
+        <v>1.19</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>1.53</v>
+        <v>18.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.54</v>
+        <v>24</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.04</v>
       </c>
-      <c r="N24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.88</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.17</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.5</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK24" t="n">
         <v>15</v>
       </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>85</v>
-      </c>
       <c r="AL24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>3.35</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>1.39</v>
       </c>
       <c r="H25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P25" t="n">
         <v>2.32</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.94</v>
-      </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>3.55</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>11</v>
       </c>
-      <c r="Z25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>5.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>19.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.63</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
         <v>24</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>18</v>
       </c>
-      <c r="Z26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AI26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>65</v>
       </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AK26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN26" t="n">
         <v>40</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AO26" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>2.02</v>
       </c>
       <c r="H27" t="n">
-        <v>1.77</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="T27" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>2.24</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>1.98</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>21</v>
-      </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>95</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4168,37 +4168,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>4.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>1.82</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>1.87</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
@@ -4207,82 +4207,82 @@
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
         <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>2.14</v>
       </c>
       <c r="W28" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE28" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>80</v>
-      </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>9.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
         <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="H30" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="I30" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K30" t="n">
         <v>5</v>
       </c>
-      <c r="K30" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
         <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="X30" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -4573,118 +4573,118 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G31" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB31" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="n">
         <v>8.6</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.77</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>2.92</v>
       </c>
       <c r="W32" t="n">
-        <v>2.28</v>
+        <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,73 +4843,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>1.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>15.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>17.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>2.86</v>
+        <v>5.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,43 +4918,43 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.28</v>
+        <v>7.4</v>
       </c>
       <c r="G34" t="n">
-        <v>2.32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>1.46</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>1.52</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>2.94</v>
       </c>
       <c r="W34" t="n">
-        <v>1.76</v>
+        <v>1.13</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA34" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="AK34" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM34" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>40</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.54</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>1.59</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>2.68</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.16</v>
+        <v>1.77</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB35" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AC35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
         <v>18</v>
       </c>
-      <c r="AB35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21</v>
-      </c>
       <c r="AI35" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="AK35" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AO35" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -5248,34 +5248,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>6.4</v>
+        <v>1.54</v>
       </c>
       <c r="I36" t="n">
-        <v>7.8</v>
+        <v>1.59</v>
       </c>
       <c r="J36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5284,85 +5284,85 @@
         <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S36" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T36" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.14</v>
+        <v>2.68</v>
       </c>
       <c r="W36" t="n">
-        <v>2.8</v>
+        <v>1.16</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB36" t="n">
         <v>32</v>
       </c>
-      <c r="Z36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>11</v>
       </c>
-      <c r="AC36" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD36" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AJ36" t="n">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="AK36" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AL36" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.8</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.26</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="S37" t="n">
-        <v>3.9</v>
+        <v>2.54</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="U37" t="n">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>1.74</v>
+        <v>2.8</v>
       </c>
       <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD37" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF37" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.95</v>
       </c>
-      <c r="G38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="T38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V38" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN38" t="n">
         <v>29</v>
       </c>
-      <c r="AG38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK38" t="n">
+      <c r="AO38" t="n">
         <v>55</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.25</v>
+        <v>3.9</v>
       </c>
       <c r="G39" t="n">
-        <v>1.26</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>15.5</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>16.5</v>
+        <v>2.12</v>
       </c>
       <c r="J39" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>1.98</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.06</v>
+        <v>1.89</v>
       </c>
       <c r="W39" t="n">
-        <v>4.9</v>
+        <v>1.32</v>
       </c>
       <c r="X39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI39" t="n">
         <v>36</v>
       </c>
-      <c r="Y39" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>9.4</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.8</v>
+        <v>2.66</v>
       </c>
       <c r="G40" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="I40" t="n">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.36</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.28</v>
-      </c>
       <c r="S40" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="T40" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="U40" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN40" t="n">
         <v>26</v>
       </c>
-      <c r="AI40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>19</v>
-      </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,75 +5918,75 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.7</v>
+        <v>1.77</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>1.78</v>
       </c>
       <c r="H41" t="n">
-        <v>1.97</v>
+        <v>5.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.24</v>
+        <v>5.7</v>
       </c>
       <c r="J41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
         <v>3.35</v>
       </c>
-      <c r="K41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
         <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="U41" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.81</v>
+        <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.28</v>
+        <v>2.28</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
@@ -5995,13 +5995,13 @@
         <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6013,13 +6013,13 @@
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6031,7 +6031,7 @@
         <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,72 +6053,72 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1</v>
+        <v>2.86</v>
       </c>
       <c r="O42" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.23</v>
+        <v>2.36</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.23</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W42" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,123 +6188,123 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G43" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
         <v>5.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="R43" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S43" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="V43" t="n">
         <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AA43" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AN43" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,93 +6323,93 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="G44" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="H44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.3</v>
       </c>
-      <c r="I44" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
         <v>3.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P44" t="n">
         <v>1.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
         <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="W44" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6418,13 +6418,13 @@
         <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
         <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
         <v>1000</v>
@@ -6436,13 +6436,13 @@
         <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6458,21 +6458,21 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="G45" t="n">
         <v>1000</v>
@@ -6481,7 +6481,7 @@
         <v>1.04</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -6496,22 +6496,22 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T45" t="n">
         <v>1.04</v>
@@ -6520,7 +6520,7 @@
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
         <v>1.01</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,123 +6593,123 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.74</v>
+        <v>1.84</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>1.88</v>
       </c>
       <c r="H46" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M46" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="O46" t="n">
         <v>1.53</v>
       </c>
       <c r="P46" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R46" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S46" t="n">
-        <v>1.05</v>
+        <v>5.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V46" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="W46" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="X46" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z46" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB46" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL46" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN46" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,36 +6728,36 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23:07:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="H47" t="n">
-        <v>2.98</v>
+        <v>2.36</v>
       </c>
       <c r="I47" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="J47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,87 +6766,492 @@
         <v>1.07</v>
       </c>
       <c r="N47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G48" t="n">
+        <v>44</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K48" t="n">
+        <v>32</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>23:07:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
         <v>3.55</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O50" t="n">
         <v>1.32</v>
       </c>
-      <c r="P47" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S47" t="n">
+      <c r="P50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S50" t="n">
         <v>3.55</v>
       </c>
-      <c r="T47" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="T50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U50" t="n">
         <v>2.12</v>
       </c>
-      <c r="V47" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X47" t="n">
+      <c r="V50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X50" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y50" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="Z50" t="n">
         <v>22</v>
       </c>
-      <c r="AA47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB47" t="n">
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
         <v>11</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AC50" t="n">
         <v>8</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AD50" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF47" t="n">
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AG50" t="n">
         <v>13</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AH50" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AI50" t="n">
         <v>50</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM47" t="n">
+      <c r="AJ50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
         <v>120</v>
       </c>
-      <c r="AN47" t="n">
+      <c r="AN50" t="n">
         <v>25</v>
       </c>
-      <c r="AO47" t="n">
+      <c r="AO50" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -700,28 +700,28 @@
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -751,7 +751,7 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>42</v>
@@ -805,16 +805,16 @@
         <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,28 +832,28 @@
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -985,19 +985,19 @@
         <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,16 +1021,16 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>46</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1102,7 +1102,7 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.72</v>
@@ -1114,16 +1114,16 @@
         <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1249,7 +1249,7 @@
         <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
@@ -1285,7 +1285,7 @@
         <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
         <v>6.4</v>
@@ -1372,16 +1372,16 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1480,7 +1480,7 @@
         <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>6.4</v>
@@ -1507,19 +1507,19 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1534,7 +1534,7 @@
         <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1543,10 +1543,10 @@
         <v>200</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>25</v>
@@ -1555,7 +1555,7 @@
         <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG8" t="n">
         <v>9.6</v>
@@ -1576,10 +1576,10 @@
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
         <v>100</v>
@@ -1615,22 +1615,22 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.77</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.79</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1639,7 +1639,7 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.88</v>
@@ -1651,34 +1651,34 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1690,10 +1690,10 @@
         <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
@@ -1702,16 +1702,16 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM9" t="n">
         <v>140</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>130</v>
       </c>
       <c r="AN9" t="n">
         <v>100</v>
@@ -1750,16 +1750,16 @@
         <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>5.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1789,7 +1789,7 @@
         <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
         <v>1.85</v>
@@ -1798,7 +1798,7 @@
         <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB10" t="n">
         <v>8.199999999999999</v>
@@ -1834,10 +1834,10 @@
         <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.24</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.25</v>
-      </c>
       <c r="H11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
         <v>7.8</v>
@@ -1912,7 +1912,7 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
         <v>1.44</v>
@@ -1924,22 +1924,22 @@
         <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AE11" t="n">
         <v>270</v>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
@@ -1987,7 +1987,7 @@
         <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2041,19 +2041,19 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
         <v>2.62</v>
@@ -2062,13 +2062,13 @@
         <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2089,7 +2089,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
@@ -2104,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -2119,7 +2119,7 @@
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO12" t="n">
         <v>42</v>
@@ -2158,16 +2158,16 @@
         <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2206,7 +2206,7 @@
         <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>23</v>
@@ -2236,13 +2236,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
         <v>3.45</v>
@@ -2299,40 +2299,40 @@
         <v>2.38</v>
       </c>
       <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
@@ -2341,13 +2341,13 @@
         <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
         <v>32</v>
@@ -2362,13 +2362,13 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2377,22 +2377,22 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
         <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.5</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
@@ -2440,40 +2440,40 @@
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2482,10 +2482,10 @@
         <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2494,10 +2494,10 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
         <v>9.199999999999999</v>
@@ -2512,7 +2512,7 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -2527,7 +2527,7 @@
         <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>5.4</v>
@@ -2578,10 +2578,10 @@
         <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2590,16 +2590,16 @@
         <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2611,7 +2611,7 @@
         <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2629,13 +2629,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
         <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2722,28 +2722,28 @@
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
         <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
@@ -2755,7 +2755,7 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
@@ -2764,7 +2764,7 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2791,10 +2791,10 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,55 +2827,55 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>1.56</v>
@@ -2884,19 +2884,19 @@
         <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>13.5</v>
@@ -2917,7 +2917,7 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -2929,10 +2929,10 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>3.85</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -2998,13 +2998,13 @@
         <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="n">
         <v>2.66</v>
@@ -3064,10 +3064,10 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -3106,10 +3106,10 @@
         <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3139,13 +3139,13 @@
         <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
         <v>1.6</v>
@@ -3235,16 +3235,16 @@
         <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I21" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.9</v>
@@ -3256,10 +3256,10 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3277,13 +3277,13 @@
         <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H22" t="n">
         <v>5.6</v>
@@ -3394,7 +3394,7 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
         <v>2.02</v>
@@ -3409,16 +3409,16 @@
         <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
         <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
@@ -3442,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3451,7 +3451,7 @@
         <v>9.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>85</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3535,7 +3535,7 @@
         <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
         <v>1.38</v>
@@ -3547,19 +3547,19 @@
         <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X23" t="n">
         <v>16.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
         <v>25</v>
@@ -3589,22 +3589,22 @@
         <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
         <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
         <v>36</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G24" t="n">
         <v>1.22</v>
@@ -3646,13 +3646,13 @@
         <v>18.5</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" t="n">
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.25</v>
@@ -3676,13 +3676,13 @@
         <v>1.79</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T24" t="n">
         <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V24" t="n">
         <v>1.04</v>
@@ -3691,7 +3691,7 @@
         <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
         <v>1.39</v>
@@ -3784,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K25" t="n">
         <v>5.8</v>
@@ -3805,25 +3805,25 @@
         <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
         <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V25" t="n">
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3835,7 +3835,7 @@
         <v>95</v>
       </c>
       <c r="AA25" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
@@ -3850,7 +3850,7 @@
         <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3868,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>160</v>
@@ -3913,7 +3913,7 @@
         <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I26" t="n">
         <v>2.36</v>
@@ -3937,13 +3937,13 @@
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
         <v>3.55</v>
@@ -3952,16 +3952,16 @@
         <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
         <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
@@ -3982,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF26" t="n">
         <v>23</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
         <v>18.5</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
         <v>3.65</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.3</v>
@@ -4075,16 +4075,16 @@
         <v>2.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
         <v>2.48</v>
@@ -4093,7 +4093,7 @@
         <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
@@ -4108,10 +4108,10 @@
         <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
@@ -4144,7 +4144,7 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO27" t="n">
         <v>28</v>
@@ -4180,13 +4180,13 @@
         <v>4.6</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4210,22 +4210,22 @@
         <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
         <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W28" t="n">
         <v>1.25</v>
@@ -4255,7 +4255,7 @@
         <v>19.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG28" t="n">
         <v>19.5</v>
@@ -4315,10 +4315,10 @@
         <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
         <v>5.9</v>
@@ -4351,19 +4351,19 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4378,7 +4378,7 @@
         <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
         <v>8.6</v>
@@ -4399,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.51</v>
       </c>
       <c r="H30" t="n">
         <v>7.4</v>
@@ -4459,10 +4459,10 @@
         <v>7.6</v>
       </c>
       <c r="J30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4471,7 +4471,7 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
@@ -4489,31 +4489,31 @@
         <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="n">
         <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
         <v>120</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G31" t="n">
         <v>1.45</v>
@@ -4591,10 +4591,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
         <v>5.4</v>
@@ -4612,7 +4612,7 @@
         <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>1.74</v>
@@ -4633,10 +4633,10 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>32</v>
@@ -4645,7 +4645,7 @@
         <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB31" t="n">
         <v>8.800000000000001</v>
@@ -4654,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE31" t="n">
         <v>190</v>
@@ -4666,10 +4666,10 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -4681,7 +4681,7 @@
         <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="n">
         <v>6.4</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
         <v>7.2</v>
       </c>
       <c r="H32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.51</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.52</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -4741,7 +4741,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
@@ -4753,28 +4753,28 @@
         <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U32" t="n">
         <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W32" t="n">
         <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
         <v>10.5</v>
@@ -4798,7 +4798,7 @@
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.24</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.25</v>
-      </c>
       <c r="H33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
         <v>17.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K33" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
         <v>1.28</v>
@@ -4885,13 +4885,13 @@
         <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.64</v>
       </c>
       <c r="S33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>2.34</v>
@@ -4903,7 +4903,7 @@
         <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X33" t="n">
         <v>36</v>
@@ -4927,16 +4927,16 @@
         <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AF33" t="n">
         <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
@@ -4948,7 +4948,7 @@
         <v>14.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AM33" t="n">
         <v>260</v>
@@ -4990,7 +4990,7 @@
         <v>7.4</v>
       </c>
       <c r="G34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H34" t="n">
         <v>1.46</v>
@@ -5002,7 +5002,7 @@
         <v>4.9</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.34</v>
@@ -5131,10 +5131,10 @@
         <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5152,7 +5152,7 @@
         <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q35" t="n">
         <v>1.91</v>
@@ -5167,13 +5167,13 @@
         <v>1.74</v>
       </c>
       <c r="U35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X35" t="n">
         <v>14.5</v>
@@ -5221,10 +5221,10 @@
         <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>38</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="I36" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="J36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>1.31</v>
@@ -5284,34 +5284,34 @@
         <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P36" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R36" t="n">
         <v>1.54</v>
       </c>
       <c r="S36" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T36" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V36" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="W36" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>10.5</v>
@@ -5323,46 +5323,46 @@
         <v>18</v>
       </c>
       <c r="AB36" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC36" t="n">
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G37" t="n">
         <v>1.55</v>
@@ -5401,7 +5401,7 @@
         <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>4.6</v>
@@ -5428,22 +5428,22 @@
         <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="T37" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U37" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V37" t="n">
         <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5455,10 +5455,10 @@
         <v>65</v>
       </c>
       <c r="AA37" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
         <v>11.5</v>
@@ -5467,10 +5467,10 @@
         <v>27</v>
       </c>
       <c r="AE37" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>9.6</v>
@@ -5482,7 +5482,7 @@
         <v>90</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK37" t="n">
         <v>14.5</v>
@@ -5494,7 +5494,7 @@
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO37" t="n">
         <v>90</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G38" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
         <v>3.7</v>
@@ -5542,7 +5542,7 @@
         <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.45</v>
@@ -5566,19 +5566,19 @@
         <v>1.29</v>
       </c>
       <c r="S38" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
         <v>1.89</v>
       </c>
       <c r="U38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X38" t="n">
         <v>11.5</v>
@@ -5593,10 +5593,10 @@
         <v>75</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5623,7 +5623,7 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>130</v>
@@ -5632,7 +5632,7 @@
         <v>29</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G39" t="n">
         <v>4.1</v>
@@ -5677,7 +5677,7 @@
         <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5692,13 +5692,13 @@
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
         <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
         <v>3.45</v>
@@ -5725,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB39" t="n">
         <v>15</v>
@@ -5800,7 +5800,7 @@
         <v>2.66</v>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H40" t="n">
         <v>2.8</v>
@@ -5836,7 +5836,7 @@
         <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T40" t="n">
         <v>1.69</v>
@@ -5854,7 +5854,7 @@
         <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
         <v>19.5</v>
@@ -5881,10 +5881,10 @@
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
         <v>42</v>
@@ -5899,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="AN40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO40" t="n">
         <v>32</v>
@@ -5938,16 +5938,16 @@
         <v>1.78</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
         <v>5.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5965,7 +5965,7 @@
         <v>1.81</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
         <v>1.3</v>
@@ -5998,10 +5998,10 @@
         <v>180</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6019,7 +6019,7 @@
         <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6028,7 +6028,7 @@
         <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
         <v>170</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H42" t="n">
         <v>2.86</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6208,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I43" t="n">
         <v>5.8</v>
@@ -6217,7 +6217,7 @@
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6256,37 +6256,37 @@
         <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z43" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA43" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC43" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC43" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AD43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH43" t="n">
         <v>22</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>23</v>
       </c>
       <c r="AI43" t="n">
         <v>100</v>
@@ -6295,16 +6295,16 @@
         <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM43" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G44" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J44" t="n">
         <v>3.35</v>
@@ -6358,7 +6358,7 @@
         <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>3.3</v>
@@ -6385,7 +6385,7 @@
         <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W44" t="n">
         <v>1.25</v>
@@ -6625,7 +6625,7 @@
         <v>3.65</v>
       </c>
       <c r="L46" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
@@ -6634,22 +6634,22 @@
         <v>2.78</v>
       </c>
       <c r="O46" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P46" t="n">
         <v>1.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R46" t="n">
         <v>1.21</v>
       </c>
       <c r="S46" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T46" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U46" t="n">
         <v>1.7</v>
@@ -6793,7 +6793,7 @@
         <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
         <v>15.5</v>
@@ -6883,7 +6883,7 @@
         <v>44</v>
       </c>
       <c r="H48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I48" t="n">
         <v>44</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G49" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="n">
         <v>2.82</v>
@@ -7039,7 +7039,7 @@
         <v>2.44</v>
       </c>
       <c r="O49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P49" t="n">
         <v>1.5</v>
@@ -7060,7 +7060,7 @@
         <v>1.74</v>
       </c>
       <c r="V49" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W49" t="n">
         <v>1.56</v>
@@ -7072,7 +7072,7 @@
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7084,16 +7084,16 @@
         <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH49" t="n">
         <v>25</v>
@@ -7150,7 +7150,7 @@
         <v>2.46</v>
       </c>
       <c r="G50" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H50" t="n">
         <v>2.98</v>
@@ -7165,7 +7165,7 @@
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
@@ -7177,7 +7177,7 @@
         <v>1.32</v>
       </c>
       <c r="P50" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
@@ -7198,7 +7198,7 @@
         <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X50" t="n">
         <v>16.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -673,7 +673,7 @@
         <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
         <v>2.82</v>
@@ -682,7 +682,7 @@
         <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,13 +691,13 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -709,16 +709,16 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
@@ -736,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -811,10 +811,10 @@
         <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -826,28 +826,28 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
         <v>1.83</v>
@@ -859,34 +859,34 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
@@ -970,7 +970,7 @@
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -988,7 +988,7 @@
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -1105,19 +1105,19 @@
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
         <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
         <v>2.78</v>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
         <v>11.5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
         <v>2.58</v>
@@ -1219,13 +1219,13 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1258,7 +1258,7 @@
         <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1378,10 +1378,10 @@
         <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
@@ -1420,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>9.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
         <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1510,13 +1510,13 @@
         <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1525,52 +1525,52 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
         <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
         <v>9.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
@@ -1582,7 +1582,7 @@
         <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.77</v>
@@ -1639,10 +1639,10 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1654,7 +1654,7 @@
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1678,7 +1678,7 @@
         <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
@@ -1792,13 +1792,13 @@
         <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1813,7 +1813,7 @@
         <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1825,7 +1825,7 @@
         <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>9.800000000000001</v>
@@ -1852,7 +1852,7 @@
         <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.23</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -1915,7 +1915,7 @@
         <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
         <v>1.9</v>
@@ -1924,22 +1924,22 @@
         <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,10 +1954,10 @@
         <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>9.4</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H12" t="n">
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
@@ -2041,16 +2041,16 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
         <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
@@ -2059,16 +2059,16 @@
         <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2083,13 +2083,13 @@
         <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
@@ -2104,16 +2104,16 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,31 +2179,31 @@
         <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2212,22 +2212,22 @@
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2236,13 +2236,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
@@ -2290,19 +2290,19 @@
         <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2314,7 +2314,7 @@
         <v>3.65</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.9</v>
@@ -2335,10 +2335,10 @@
         <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2365,10 +2365,10 @@
         <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2392,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2431,13 +2431,13 @@
         <v>7.8</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2449,7 +2449,7 @@
         <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
         <v>2.34</v>
@@ -2461,16 +2461,16 @@
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
@@ -2485,7 +2485,7 @@
         <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2500,7 +2500,7 @@
         <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>9.800000000000001</v>
@@ -2509,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G16" t="n">
         <v>5.4</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2614,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
@@ -2644,7 +2644,7 @@
         <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
@@ -2656,10 +2656,10 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I17" t="n">
         <v>4.7</v>
       </c>
-      <c r="I17" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
@@ -2722,7 +2722,7 @@
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -2740,10 +2740,10 @@
         <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
@@ -2764,7 +2764,7 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.76</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>2.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2845,13 +2845,13 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.31</v>
@@ -2860,7 +2860,7 @@
         <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
         <v>1.36</v>
@@ -2872,22 +2872,22 @@
         <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>48</v>
@@ -2896,16 +2896,16 @@
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
         <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2932,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H19" t="n">
         <v>3.85</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
         <v>4.7</v>
@@ -2992,7 +2992,7 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
         <v>1.47</v>
@@ -3028,19 +3028,19 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
         <v>2.66</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
         <v>3.1</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3124,16 +3124,16 @@
         <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
         <v>1.95</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
@@ -3160,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3202,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
         <v>1.91</v>
       </c>
       <c r="I21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.38</v>
@@ -3256,7 +3256,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3265,79 +3265,79 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH21" t="n">
         <v>19</v>
       </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>3.8</v>
@@ -3415,22 +3415,22 @@
         <v>2.06</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
         <v>8.4</v>
@@ -3439,13 +3439,13 @@
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
         <v>9.4</v>
@@ -3454,25 +3454,25 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.3</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.35</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3535,7 +3535,7 @@
         <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
         <v>1.38</v>
@@ -3550,28 +3550,28 @@
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
         <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
@@ -3589,7 +3589,7 @@
         <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
@@ -3598,16 +3598,16 @@
         <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3643,13 +3643,13 @@
         <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K24" t="n">
         <v>9</v>
@@ -3667,22 +3667,22 @@
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R24" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="S24" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T24" t="n">
         <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
         <v>1.04</v>
@@ -3706,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3733,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
         <v>240</v>
@@ -3775,7 +3775,7 @@
         <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>9.800000000000001</v>
@@ -3787,7 +3787,7 @@
         <v>5.4</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.32</v>
@@ -3799,13 +3799,13 @@
         <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
         <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
         <v>1.52</v>
@@ -3817,13 +3817,13 @@
         <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V25" t="n">
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3835,7 +3835,7 @@
         <v>95</v>
       </c>
       <c r="AA25" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
@@ -3910,19 +3910,19 @@
         <v>3.35</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
         <v>2.32</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3949,16 +3949,16 @@
         <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
         <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -3970,7 +3970,7 @@
         <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.3</v>
@@ -4084,7 +4084,7 @@
         <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
         <v>2.48</v>
@@ -4093,7 +4093,7 @@
         <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
@@ -4105,7 +4105,7 @@
         <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4183,16 +4183,16 @@
         <v>4.9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.38</v>
@@ -4201,16 +4201,16 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="n">
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
@@ -4219,19 +4219,19 @@
         <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
         <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>9.199999999999999</v>
@@ -4240,46 +4240,46 @@
         <v>11.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL28" t="n">
         <v>65</v>
       </c>
-      <c r="AG28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>70</v>
-      </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO28" t="n">
         <v>12</v>
@@ -4312,40 +4312,40 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
@@ -4363,7 +4363,7 @@
         <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4378,13 +4378,13 @@
         <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>80</v>
@@ -4399,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -4453,16 +4453,16 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
         <v>7.6</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4486,10 +4486,10 @@
         <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>27</v>
@@ -4510,7 +4510,7 @@
         <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="n">
         <v>9.199999999999999</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G31" t="n">
         <v>1.45</v>
@@ -4591,13 +4591,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.34</v>
@@ -4606,25 +4606,25 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R31" t="n">
         <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U31" t="n">
         <v>1.9</v>
@@ -4636,13 +4636,13 @@
         <v>3.2</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Z31" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>410</v>
@@ -4651,16 +4651,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
         <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4669,19 +4669,19 @@
         <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
         <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
         <v>6.4</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G32" t="n">
         <v>7</v>
       </c>
-      <c r="G32" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I32" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
         <v>5.2</v>
@@ -4741,46 +4741,46 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="S32" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V32" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="W32" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
         <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB32" t="n">
         <v>30</v>
@@ -4798,7 +4798,7 @@
         <v>65</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4807,22 +4807,22 @@
         <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="n">
         <v>90</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN32" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -4852,31 +4852,31 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.23</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I33" t="n">
         <v>17.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L33" t="n">
         <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4885,31 +4885,31 @@
         <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S33" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T33" t="n">
         <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X33" t="n">
         <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,25 +4918,25 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE33" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AF33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
@@ -4948,10 +4948,10 @@
         <v>14.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="n">
         <v>4</v>
@@ -4987,70 +4987,70 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I34" t="n">
         <v>1.46</v>
       </c>
-      <c r="I34" t="n">
-        <v>1.52</v>
-      </c>
       <c r="J34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
         <v>1.86</v>
       </c>
       <c r="V34" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA34" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB34" t="n">
         <v>1000</v>
@@ -5077,22 +5077,22 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="35">
@@ -5152,7 +5152,7 @@
         <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q35" t="n">
         <v>1.91</v>
@@ -5221,13 +5221,13 @@
         <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
         <v>17.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
@@ -5260,61 +5260,61 @@
         <v>5.5</v>
       </c>
       <c r="G36" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I36" t="n">
         <v>1.66</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.23</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q36" t="n">
         <v>1.66</v>
       </c>
       <c r="R36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
         <v>2.68</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U36" t="n">
         <v>2.18</v>
       </c>
       <c r="V36" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W36" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
@@ -5323,34 +5323,34 @@
         <v>18</v>
       </c>
       <c r="AB36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH36" t="n">
         <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ36" t="n">
         <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL36" t="n">
         <v>65</v>
@@ -5362,7 +5362,7 @@
         <v>65</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G37" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H37" t="n">
         <v>6.8</v>
@@ -5404,10 +5404,10 @@
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.3</v>
@@ -5416,10 +5416,10 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
         <v>2.46</v>
@@ -5428,13 +5428,13 @@
         <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S37" t="n">
         <v>2.46</v>
       </c>
       <c r="T37" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U37" t="n">
         <v>2.26</v>
@@ -5461,7 +5461,7 @@
         <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>27</v>
@@ -5473,13 +5473,13 @@
         <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
         <v>15</v>
@@ -5494,10 +5494,10 @@
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -5527,79 +5527,79 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" t="n">
         <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W38" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>7.8</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5614,10 +5614,10 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK38" t="n">
         <v>1000</v>
@@ -5629,10 +5629,10 @@
         <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5665,13 +5665,13 @@
         <v>3.95</v>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.65</v>
@@ -5704,13 +5704,13 @@
         <v>3.45</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U39" t="n">
         <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W39" t="n">
         <v>1.32</v>
@@ -5725,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB39" t="n">
         <v>15</v>
@@ -5752,10 +5752,10 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK39" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="n">
         <v>60</v>
@@ -5764,10 +5764,10 @@
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="H40" t="n">
         <v>2.8</v>
@@ -5809,13 +5809,13 @@
         <v>2.86</v>
       </c>
       <c r="J40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.6</v>
       </c>
-      <c r="K40" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -5845,16 +5845,16 @@
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W40" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
         <v>19.5</v>
@@ -5884,7 +5884,7 @@
         <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
         <v>42</v>
@@ -5899,10 +5899,10 @@
         <v>90</v>
       </c>
       <c r="AN40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G41" t="n">
         <v>1.78</v>
@@ -5947,7 +5947,7 @@
         <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5962,7 +5962,7 @@
         <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q41" t="n">
         <v>2.1</v>
@@ -5971,10 +5971,10 @@
         <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
         <v>1.91</v>
@@ -6001,7 +6001,7 @@
         <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G42" t="n">
         <v>2.86</v>
       </c>
       <c r="H42" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I42" t="n">
         <v>3.15</v>
@@ -6082,7 +6082,7 @@
         <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
         <v>1.54</v>
@@ -6211,7 +6211,7 @@
         <v>4.6</v>
       </c>
       <c r="I43" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.35</v>
@@ -6256,13 +6256,13 @@
         <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA43" t="n">
         <v>150</v>
@@ -6271,7 +6271,7 @@
         <v>8.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
         <v>21</v>
@@ -6280,10 +6280,10 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
         <v>22</v>
@@ -6295,10 +6295,10 @@
         <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
         <v>170</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -6352,7 +6352,7 @@
         <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.35</v>
@@ -6388,7 +6388,7 @@
         <v>1.79</v>
       </c>
       <c r="W44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6478,16 +6478,16 @@
         <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I45" t="n">
         <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K45" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6523,7 +6523,7 @@
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,76 +6607,76 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="G46" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="H46" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O46" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S46" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T46" t="n">
         <v>2.28</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V46" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="X46" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z46" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA46" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AB46" t="n">
         <v>6.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
         <v>980</v>
@@ -6685,10 +6685,10 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
         <v>980</v>
@@ -6697,10 +6697,10 @@
         <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="n">
         <v>1000</v>
@@ -6709,7 +6709,7 @@
         <v>260</v>
       </c>
       <c r="AN46" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G48" t="n">
         <v>44</v>
       </c>
       <c r="H48" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="I48" t="n">
         <v>44</v>
       </c>
       <c r="J48" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K48" t="n">
         <v>32</v>
@@ -6925,10 +6925,10 @@
         <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="W48" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7087,7 +7087,7 @@
         <v>17.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="n">
         <v>16.5</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G50" t="n">
         <v>2.62</v>
       </c>
       <c r="H50" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3.25</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L50" t="n">
         <v>1.41</v>
@@ -7174,16 +7174,16 @@
         <v>3.55</v>
       </c>
       <c r="O50" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S50" t="n">
         <v>3.55</v>
@@ -7195,7 +7195,7 @@
         <v>2.12</v>
       </c>
       <c r="V50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W50" t="n">
         <v>1.61</v>
@@ -7234,7 +7234,7 @@
         <v>18.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,10 +691,10 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
         <v>1.93</v>
@@ -706,16 +706,16 @@
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
@@ -736,19 +736,19 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -757,13 +757,13 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
@@ -826,34 +826,34 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -868,7 +868,7 @@
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -988,7 +988,7 @@
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -997,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1036,13 +1036,13 @@
         <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>15.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1096,37 +1096,37 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
         <v>2.84</v>
       </c>
       <c r="T5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.89</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1135,31 +1135,31 @@
         <v>11.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
         <v>16</v>
       </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1255,7 +1255,7 @@
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
@@ -1294,13 +1294,13 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
         <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1375,25 +1375,25 @@
         <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="n">
         <v>9.4</v>
@@ -1420,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>9.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1510,13 +1510,13 @@
         <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1525,19 +1525,19 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>190</v>
@@ -1546,7 +1546,7 @@
         <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -1555,7 +1555,7 @@
         <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1567,7 +1567,7 @@
         <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1582,7 +1582,7 @@
         <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1639,31 +1639,31 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1675,7 +1675,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
         <v>17.5</v>
@@ -1708,10 +1708,10 @@
         <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
         <v>100</v>
@@ -1756,7 +1756,7 @@
         <v>8.4</v>
       </c>
       <c r="I10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
@@ -1765,34 +1765,34 @@
         <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
         <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.13</v>
@@ -1801,7 +1801,7 @@
         <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
@@ -1813,13 +1813,13 @@
         <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
         <v>150</v>
@@ -1828,7 +1828,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
@@ -1837,7 +1837,7 @@
         <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1846,13 +1846,13 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
         <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
         <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1918,7 +1918,7 @@
         <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
@@ -1933,16 +1933,16 @@
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
         <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1957,10 +1957,10 @@
         <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1987,7 +1987,7 @@
         <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2035,49 +2035,49 @@
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
@@ -2086,16 +2086,16 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>9.6</v>
@@ -2104,25 +2104,25 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
         <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
@@ -2182,40 +2182,40 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2227,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2242,7 +2242,7 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2251,13 +2251,13 @@
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.55</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2311,31 +2311,31 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.65</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
         <v>1.39</v>
@@ -2359,7 +2359,7 @@
         <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>25</v>
@@ -2389,10 +2389,10 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2452,40 +2452,40 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2494,25 +2494,25 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -2521,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2560,10 +2560,10 @@
         <v>5.1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I16" t="n">
         <v>1.78</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2608,13 +2608,13 @@
         <v>2.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
@@ -2632,19 +2632,19 @@
         <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
@@ -2656,13 +2656,13 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2710,22 +2710,22 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2734,34 +2734,34 @@
         <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>23</v>
@@ -2776,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ17" t="n">
         <v>24</v>
@@ -2788,16 +2788,16 @@
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2860,40 +2860,40 @@
         <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
         <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
         <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
         <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2902,10 +2902,10 @@
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2914,22 +2914,22 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -2965,10 +2965,10 @@
         <v>1.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -2992,7 +2992,7 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="n">
         <v>1.47</v>
@@ -3001,7 +3001,7 @@
         <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T19" t="n">
         <v>1.51</v>
@@ -3013,7 +3013,7 @@
         <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
         <v>29</v>
@@ -3037,7 +3037,7 @@
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3052,7 +3052,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3061,13 +3061,13 @@
         <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -3127,16 +3127,16 @@
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
         <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
@@ -3151,10 +3151,10 @@
         <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
         <v>22</v>
@@ -3172,37 +3172,37 @@
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3235,19 +3235,19 @@
         <v>4.7</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="I21" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
         <v>1.38</v>
@@ -3280,13 +3280,13 @@
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3298,7 +3298,7 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AC21" t="n">
         <v>8.6</v>
@@ -3310,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -3331,10 +3331,10 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
         <v>12.5</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
@@ -3391,16 +3391,16 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
         <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3412,16 +3412,16 @@
         <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
         <v>18.5</v>
@@ -3433,7 +3433,7 @@
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -3454,13 +3454,13 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
         <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>34</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -3526,19 +3526,19 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
         <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
         <v>3.2</v>
@@ -3547,67 +3547,67 @@
         <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
         <v>14</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.25</v>
@@ -3664,10 +3664,10 @@
         <v>6.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q24" t="n">
         <v>1.48</v>
@@ -3679,19 +3679,19 @@
         <v>2.18</v>
       </c>
       <c r="T24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
         <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X24" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,43 +3703,43 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
         <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G25" t="n">
         <v>1.4</v>
@@ -3781,7 +3781,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J25" t="n">
         <v>5.4</v>
@@ -3802,31 +3802,31 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T25" t="n">
         <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3835,10 +3835,10 @@
         <v>95</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>12</v>
@@ -3859,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -3871,13 +3871,13 @@
         <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -3913,13 +3913,13 @@
         <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3934,40 +3934,40 @@
         <v>3.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
         <v>32</v>
@@ -3991,28 +3991,28 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
         <v>65</v>
       </c>
       <c r="AK26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
         <v>4.4</v>
@@ -4069,31 +4069,31 @@
         <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
@@ -4102,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>70</v>
@@ -4120,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G28" t="n">
         <v>4.9</v>
       </c>
       <c r="H28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I28" t="n">
         <v>1.84</v>
       </c>
-      <c r="I28" t="n">
-        <v>1.87</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
@@ -4198,7 +4198,7 @@
         <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>3.95</v>
@@ -4207,37 +4207,37 @@
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
         <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
@@ -4264,25 +4264,25 @@
         <v>19.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
         <v>120</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>65</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.75</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.76</v>
-      </c>
       <c r="H29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.9</v>
@@ -4336,13 +4336,13 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
         <v>1.95</v>
@@ -4363,7 +4363,7 @@
         <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4381,7 +4381,7 @@
         <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
@@ -4417,7 +4417,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I30" t="n">
         <v>7.6</v>
       </c>
       <c r="J30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K30" t="n">
         <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4477,7 +4477,7 @@
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
         <v>1.73</v>
@@ -4486,10 +4486,10 @@
         <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4498,7 +4498,7 @@
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X30" t="n">
         <v>19</v>
@@ -4510,10 +4510,10 @@
         <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.34</v>
@@ -4606,22 +4606,22 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
         <v>2.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R31" t="n">
         <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T31" t="n">
         <v>2.04</v>
@@ -4630,64 +4630,64 @@
         <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
         <v>3.2</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="AB31" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
         <v>8.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -4723,10 +4723,10 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.52</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.53</v>
       </c>
       <c r="J32" t="n">
         <v>5.1</v>
@@ -4741,37 +4741,37 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
         <v>2.26</v>
       </c>
       <c r="V32" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="W32" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -4780,16 +4780,16 @@
         <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC32" t="n">
         <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE32" t="n">
         <v>14</v>
@@ -4810,19 +4810,19 @@
         <v>190</v>
       </c>
       <c r="AK32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="n">
         <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO32" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H33" t="n">
         <v>16.5</v>
@@ -4864,52 +4864,52 @@
         <v>17.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K33" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
         <v>2.56</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.62</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.63</v>
       </c>
       <c r="S33" t="n">
         <v>2.52</v>
       </c>
       <c r="T33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X33" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,40 +4918,40 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>990</v>
+        <v>400</v>
       </c>
       <c r="AE33" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="AJ33" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AK33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM33" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN33" t="n">
         <v>4</v>
@@ -4987,82 +4987,82 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I34" t="n">
         <v>1.46</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="T34" t="n">
         <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W34" t="n">
         <v>1.12</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA34" t="n">
         <v>14.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
@@ -5086,13 +5086,13 @@
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.55</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -5155,7 +5155,7 @@
         <v>1.99</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
@@ -5170,37 +5170,37 @@
         <v>2.18</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
         <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5209,25 +5209,25 @@
         <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL35" t="n">
         <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -5269,10 +5269,10 @@
         <v>1.66</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.32</v>
@@ -5284,10 +5284,10 @@
         <v>4.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q36" t="n">
         <v>1.66</v>
@@ -5302,10 +5302,10 @@
         <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V36" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W36" t="n">
         <v>1.2</v>
@@ -5317,13 +5317,13 @@
         <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
@@ -5335,7 +5335,7 @@
         <v>15.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG36" t="n">
         <v>22</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G37" t="n">
         <v>1.56</v>
@@ -5428,13 +5428,13 @@
         <v>1.59</v>
       </c>
       <c r="R37" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T37" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U37" t="n">
         <v>2.26</v>
@@ -5449,16 +5449,16 @@
         <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA37" t="n">
         <v>220</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -5476,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
         <v>85</v>
@@ -5491,10 +5491,10 @@
         <v>28</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO37" t="n">
         <v>85</v>
@@ -5527,37 +5527,37 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q38" t="n">
         <v>2.22</v>
@@ -5569,31 +5569,31 @@
         <v>3.95</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V38" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA38" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
         <v>7.8</v>
@@ -5602,13 +5602,13 @@
         <v>16</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
         <v>21</v>
@@ -5620,19 +5620,19 @@
         <v>30</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM38" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
         <v>4.2</v>
@@ -5695,49 +5695,49 @@
         <v>1.97</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
         <v>1.82</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V39" t="n">
         <v>1.9</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB39" t="n">
         <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
         <v>29</v>
@@ -5755,7 +5755,7 @@
         <v>85</v>
       </c>
       <c r="AK39" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="n">
         <v>60</v>
@@ -5764,7 +5764,7 @@
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AO39" t="n">
         <v>15.5</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="G40" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
         <v>3.6</v>
@@ -5821,16 +5821,16 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R40" t="n">
         <v>1.36</v>
@@ -5839,31 +5839,31 @@
         <v>3.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W40" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z40" t="n">
         <v>19.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC40" t="n">
         <v>7.8</v>
@@ -5875,7 +5875,7 @@
         <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
@@ -5884,25 +5884,25 @@
         <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM40" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G41" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H41" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5956,88 +5956,88 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S41" t="n">
         <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="X41" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG41" t="n">
         <v>10</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO41" t="n">
         <v>100</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
         <v>2.86</v>
       </c>
       <c r="H42" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6085,16 +6085,16 @@
         <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
         <v>1.58</v>
@@ -6106,7 +6106,7 @@
         <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T42" t="n">
         <v>1.93</v>
@@ -6118,13 +6118,13 @@
         <v>1.46</v>
       </c>
       <c r="W42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,10 +6133,10 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6145,7 +6145,7 @@
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="n">
         <v>1000</v>
@@ -6160,13 +6160,13 @@
         <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H43" t="n">
         <v>4.6</v>
@@ -6253,13 +6253,13 @@
         <v>1.21</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X43" t="n">
         <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
         <v>40</v>
@@ -6271,13 +6271,13 @@
         <v>8.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>21</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF43" t="n">
         <v>11.5</v>
@@ -6292,7 +6292,7 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK43" t="n">
         <v>23</v>
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="I44" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6367,31 +6367,31 @@
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q44" t="n">
         <v>1.96</v>
       </c>
       <c r="R44" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S44" t="n">
         <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="W44" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
         <v>1000</v>
@@ -6400,13 +6400,13 @@
         <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB44" t="n">
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6436,13 +6436,13 @@
         <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="G45" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.09</v>
+        <v>1.48</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>1.63</v>
       </c>
       <c r="J45" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="K45" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,34 +6496,34 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="n">
         <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>1.23</v>
+        <v>2.26</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2</v>
+        <v>2.58</v>
       </c>
       <c r="W45" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6577,7 +6577,7 @@
         <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G46" t="n">
         <v>1.79</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I46" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
         <v>1.53</v>
@@ -6637,7 +6637,7 @@
         <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q46" t="n">
         <v>2.5</v>
@@ -6649,28 +6649,28 @@
         <v>5.1</v>
       </c>
       <c r="T46" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W46" t="n">
         <v>2.26</v>
       </c>
       <c r="X46" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z46" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AA46" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB46" t="n">
         <v>6.4</v>
@@ -6679,40 +6679,40 @@
         <v>8.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -6745,16 +6745,16 @@
         <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I47" t="n">
         <v>2.56</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>3.55</v>
@@ -6763,37 +6763,37 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S47" t="n">
         <v>3.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V47" t="n">
         <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
         <v>15.5</v>
@@ -6808,25 +6808,25 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6841,13 +6841,13 @@
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -6880,19 +6880,19 @@
         <v>1.09</v>
       </c>
       <c r="G48" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="H48" t="n">
         <v>1.6</v>
       </c>
       <c r="I48" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="J48" t="n">
         <v>1.09</v>
       </c>
       <c r="K48" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -7117,7 +7117,7 @@
         <v>46</v>
       </c>
       <c r="AO49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7177,7 +7177,7 @@
         <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
@@ -7234,10 +7234,10 @@
         <v>18.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ50" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
@@ -7252,7 +7252,7 @@
         <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.82</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO2" t="n">
         <v>28</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
@@ -835,25 +835,25 @@
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -877,25 +877,25 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -943,19 +943,19 @@
         <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,13 +964,13 @@
         <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -979,10 +979,10 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,7 +1042,7 @@
         <v>15.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -1081,13 +1081,13 @@
         <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
@@ -1120,10 +1120,10 @@
         <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
         <v>2.56</v>
@@ -1216,13 +1216,13 @@
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1351,13 +1351,13 @@
         <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1369,13 +1369,13 @@
         <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1384,10 +1384,10 @@
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
         <v>1.17</v>
@@ -1396,7 +1396,7 @@
         <v>2.7</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>25</v>
@@ -1408,7 +1408,7 @@
         <v>180</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>9.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>80</v>
@@ -1480,13 +1480,13 @@
         <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1507,7 +1507,7 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
         <v>1.75</v>
@@ -1525,10 +1525,10 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
@@ -1615,7 +1615,7 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
         <v>1.79</v>
@@ -1636,13 +1636,13 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
         <v>2.04</v>
@@ -1681,7 +1681,7 @@
         <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>9.800000000000001</v>
@@ -1693,7 +1693,7 @@
         <v>42</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
         <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1780,10 +1780,10 @@
         <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>3.05</v>
@@ -1795,13 +1795,13 @@
         <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
         <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
@@ -1813,7 +1813,7 @@
         <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
@@ -1888,13 +1888,13 @@
         <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K11" t="n">
         <v>8.199999999999999</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
         <v>1.75</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
@@ -2056,13 +2056,13 @@
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.5</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
@@ -2176,34 +2176,34 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2221,13 +2221,13 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2239,22 +2239,22 @@
         <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
         <v>60</v>
@@ -2320,7 +2320,7 @@
         <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.35</v>
@@ -2338,7 +2338,7 @@
         <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2353,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
         <v>7.8</v>
@@ -2392,7 +2392,7 @@
         <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
         <v>1.52</v>
@@ -2446,28 +2446,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
@@ -2485,7 +2485,7 @@
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2512,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I16" t="n">
         <v>1.78</v>
@@ -2572,10 +2572,10 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2584,7 +2584,7 @@
         <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
         <v>2.08</v>
@@ -2599,7 +2599,7 @@
         <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2632,10 +2632,10 @@
         <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
         <v>70</v>
@@ -2716,16 +2716,16 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2734,7 +2734,7 @@
         <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="AJ17" t="n">
         <v>24</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
         <v>270</v>
@@ -2836,7 +2836,7 @@
         <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2866,7 +2866,7 @@
         <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
         <v>1.74</v>
@@ -2926,7 +2926,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
         <v>44</v>
@@ -2968,7 +2968,7 @@
         <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -3007,7 +3007,7 @@
         <v>1.51</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="V19" t="n">
         <v>1.32</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
         <v>2.66</v>
@@ -3256,22 +3256,22 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
         <v>1.76</v>
@@ -3286,7 +3286,7 @@
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3307,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>36</v>
@@ -3319,7 +3319,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
@@ -3334,7 +3334,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="AO21" t="n">
         <v>12.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
         <v>5.6</v>
@@ -3391,7 +3391,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3415,13 +3415,13 @@
         <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>18.5</v>
@@ -3430,10 +3430,10 @@
         <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -3469,7 +3469,7 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
         <v>85</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -3520,7 +3520,7 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3535,10 +3535,10 @@
         <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
         <v>3.2</v>
@@ -3553,31 +3553,31 @@
         <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
         <v>14.5</v>
@@ -3589,10 +3589,10 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AK23" t="n">
         <v>24</v>
@@ -3604,10 +3604,10 @@
         <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
@@ -3649,13 +3649,13 @@
         <v>22</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
         <v>8.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3673,7 +3673,7 @@
         <v>1.48</v>
       </c>
       <c r="R24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S24" t="n">
         <v>2.18</v>
@@ -3682,13 +3682,13 @@
         <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X24" t="n">
         <v>80</v>
@@ -3709,10 +3709,10 @@
         <v>19</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AE24" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AF24" t="n">
         <v>8.800000000000001</v>
@@ -3724,7 +3724,7 @@
         <v>42</v>
       </c>
       <c r="AI24" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.800000000000001</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
         <v>1.4</v>
@@ -3784,7 +3784,7 @@
         <v>10.5</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K25" t="n">
         <v>5.7</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
@@ -3811,10 +3811,10 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
         <v>1.89</v>
@@ -3823,7 +3823,7 @@
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
@@ -3874,7 +3874,7 @@
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO25" t="n">
         <v>170</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
         <v>3.45</v>
       </c>
       <c r="H26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.34</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.36</v>
-      </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3937,7 +3937,7 @@
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -3946,7 +3946,7 @@
         <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
         <v>1.78</v>
@@ -3955,7 +3955,7 @@
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W26" t="n">
         <v>1.4</v>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -3982,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF26" t="n">
         <v>23</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
         <v>3.7</v>
@@ -4057,7 +4057,7 @@
         <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.3</v>
@@ -4093,7 +4093,7 @@
         <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
@@ -4102,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>70</v>
@@ -4120,7 +4120,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I28" t="n">
         <v>1.84</v>
@@ -4195,22 +4195,22 @@
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
@@ -4219,10 +4219,10 @@
         <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
         <v>2.18</v>
@@ -4240,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
@@ -4252,7 +4252,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
         <v>36</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.51</v>
       </c>
       <c r="H30" t="n">
         <v>7.4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.9</v>
@@ -4489,16 +4489,16 @@
         <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
         <v>19</v>
@@ -4513,7 +4513,7 @@
         <v>230</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.45</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.46</v>
       </c>
       <c r="H31" t="n">
         <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -4618,19 +4618,19 @@
         <v>1.77</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T31" t="n">
         <v>2.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
         <v>3.2</v>
@@ -4648,7 +4648,7 @@
         <v>340</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
@@ -4681,13 +4681,13 @@
         <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
         <v>6.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -4723,16 +4723,16 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.51</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.52</v>
       </c>
       <c r="J32" t="n">
         <v>5.1</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -4750,22 +4750,22 @@
         <v>2.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S32" t="n">
         <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W32" t="n">
         <v>1.16</v>
@@ -4774,7 +4774,7 @@
         <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
         <v>10.5</v>
@@ -4807,10 +4807,10 @@
         <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
         <v>75</v>
@@ -4858,16 +4858,16 @@
         <v>1.24</v>
       </c>
       <c r="H33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
         <v>7.6</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4888,16 +4888,16 @@
         <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S33" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
         <v>1.06</v>
@@ -5026,7 +5026,7 @@
         <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T34" t="n">
         <v>2.06</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5170,13 +5170,13 @@
         <v>2.18</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
         <v>13.5</v>
@@ -5185,7 +5185,7 @@
         <v>24</v>
       </c>
       <c r="AA35" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="AB35" t="n">
         <v>11</v>
@@ -5200,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5209,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="n">
         <v>32</v>
@@ -5221,10 +5221,10 @@
         <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>75</v>
@@ -5293,7 +5293,7 @@
         <v>1.66</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S36" t="n">
         <v>2.68</v>
@@ -5302,7 +5302,7 @@
         <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V36" t="n">
         <v>2.5</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="G37" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="H37" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>870</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="S37" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="T37" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U37" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="W37" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y37" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G38" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>3.55</v>
@@ -5545,13 +5545,13 @@
         <v>3.65</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
@@ -5563,28 +5563,28 @@
         <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
         <v>3.95</v>
       </c>
       <c r="T38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="X38" t="n">
         <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="n">
         <v>26</v>
@@ -5593,7 +5593,7 @@
         <v>200</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>7.8</v>
@@ -5605,7 +5605,7 @@
         <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
         <v>11</v>
@@ -5614,13 +5614,13 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AJ38" t="n">
         <v>30</v>
       </c>
       <c r="AK38" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AL38" t="n">
         <v>250</v>
@@ -5629,7 +5629,7 @@
         <v>470</v>
       </c>
       <c r="AN38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G39" t="n">
         <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J39" t="n">
         <v>3.65</v>
@@ -5686,13 +5686,13 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q39" t="n">
         <v>1.96</v>
@@ -5701,7 +5701,7 @@
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
         <v>1.82</v>
@@ -5710,7 +5710,7 @@
         <v>2.14</v>
       </c>
       <c r="V39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W39" t="n">
         <v>1.31</v>
@@ -5719,7 +5719,7 @@
         <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
         <v>12.5</v>
@@ -5740,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG39" t="n">
         <v>16</v>
@@ -5764,7 +5764,7 @@
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
         <v>15.5</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
         <v>2.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J40" t="n">
         <v>3.55</v>
@@ -5815,7 +5815,7 @@
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -5827,13 +5827,13 @@
         <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q40" t="n">
         <v>1.97</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
         <v>3.5</v>
@@ -5845,7 +5845,7 @@
         <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W40" t="n">
         <v>1.53</v>
@@ -5875,7 +5875,7 @@
         <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
@@ -5896,10 +5896,10 @@
         <v>170</v>
       </c>
       <c r="AM40" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
         <v>25</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G41" t="n">
         <v>1.85</v>
@@ -5941,7 +5941,7 @@
         <v>5.3</v>
       </c>
       <c r="I41" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
         <v>3.7</v>
@@ -5956,7 +5956,7 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -5965,7 +5965,7 @@
         <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R41" t="n">
         <v>1.31</v>
@@ -5977,7 +5977,7 @@
         <v>1.95</v>
       </c>
       <c r="U41" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V41" t="n">
         <v>1.22</v>
@@ -5989,7 +5989,7 @@
         <v>14.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z41" t="n">
         <v>38</v>
@@ -5998,13 +5998,13 @@
         <v>130</v>
       </c>
       <c r="AB41" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE41" t="n">
         <v>75</v>
@@ -6031,7 +6031,7 @@
         <v>46</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
         <v>50</v>
@@ -6067,31 +6067,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="G42" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H42" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
         <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -6112,22 +6112,22 @@
         <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V42" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Y42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6160,7 +6160,7 @@
         <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
@@ -6211,7 +6211,7 @@
         <v>4.6</v>
       </c>
       <c r="I43" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J43" t="n">
         <v>3.35</v>
@@ -6250,7 +6250,7 @@
         <v>1.88</v>
       </c>
       <c r="V43" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W43" t="n">
         <v>2.02</v>
@@ -6340,7 +6340,7 @@
         <v>3.4</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H44" t="n">
         <v>2.14</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G45" t="n">
         <v>8.6</v>
@@ -6484,7 +6484,7 @@
         <v>1.63</v>
       </c>
       <c r="J45" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="n">
         <v>6.4</v>
@@ -6493,16 +6493,16 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q45" t="n">
         <v>1.57</v>
@@ -6523,7 +6523,7 @@
         <v>2.58</v>
       </c>
       <c r="W45" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6541,7 +6541,7 @@
         <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="n">
         <v>1000</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G46" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H46" t="n">
         <v>5.9</v>
       </c>
       <c r="I46" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.53</v>
@@ -6631,40 +6631,40 @@
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O46" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P46" t="n">
         <v>1.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R46" t="n">
         <v>1.22</v>
       </c>
       <c r="S46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V46" t="n">
         <v>1.18</v>
       </c>
       <c r="W46" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X46" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y46" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
         <v>48</v>
@@ -6673,16 +6673,16 @@
         <v>220</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
         <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
         <v>8.6</v>
@@ -6694,7 +6694,7 @@
         <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
         <v>17.5</v>
@@ -6709,10 +6709,10 @@
         <v>250</v>
       </c>
       <c r="AN46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO46" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
@@ -6748,7 +6748,7 @@
         <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I47" t="n">
         <v>2.56</v>
@@ -6757,7 +6757,7 @@
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6877,58 +6877,58 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="G48" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S48" t="n">
-        <v>1.22</v>
+        <v>3.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U48" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V48" t="n">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="W48" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J49" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K49" t="n">
         <v>3.3</v>
@@ -7036,40 +7036,40 @@
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P49" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S49" t="n">
         <v>4.6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U49" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V49" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X49" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z49" t="n">
         <v>25</v>
@@ -7078,19 +7078,19 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC49" t="n">
         <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE49" t="n">
         <v>65</v>
       </c>
       <c r="AF49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG49" t="n">
         <v>14</v>
@@ -7102,7 +7102,7 @@
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
         <v>48</v>
@@ -7147,61 +7147,61 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G50" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
         <v>3.55</v>
       </c>
       <c r="L50" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S50" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T50" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V50" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X50" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y50" t="n">
         <v>12.5</v>
@@ -7213,7 +7213,7 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
@@ -7225,7 +7225,7 @@
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG50" t="n">
         <v>13</v>
@@ -7252,7 +7252,7 @@
         <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -826,37 +826,37 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
@@ -865,49 +865,49 @@
         <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" t="n">
-        <v>42</v>
-      </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.55</v>
@@ -961,40 +961,40 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>110</v>
@@ -1009,28 +1009,28 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>120</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -1084,13 +1084,13 @@
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,19 +1099,19 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.92</v>
@@ -1126,10 +1126,10 @@
         <v>1.11</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>11.5</v>
@@ -1141,7 +1141,7 @@
         <v>65</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1150,13 +1150,13 @@
         <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>95</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
@@ -1225,46 +1225,46 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1285,10 +1285,10 @@
         <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
@@ -1300,16 +1300,16 @@
         <v>95</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.57</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.59</v>
-      </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
         <v>6.8</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1375,25 +1375,25 @@
         <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1402,19 +1402,19 @@
         <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>85</v>
@@ -1438,13 +1438,13 @@
         <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO7" t="n">
         <v>85</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
@@ -1495,25 +1495,25 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
         <v>2.88</v>
@@ -1528,10 +1528,10 @@
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>25</v>
@@ -1558,7 +1558,7 @@
         <v>9.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
         <v>95</v>
@@ -1615,22 +1615,22 @@
         <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>1.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,7 +1642,7 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
         <v>2.04</v>
@@ -1657,10 +1657,10 @@
         <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1669,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>18</v>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
         <v>150</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
         <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -1780,16 +1780,16 @@
         <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.87</v>
@@ -1804,7 +1804,7 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>80</v>
@@ -1813,7 +1813,7 @@
         <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.23</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1915,25 +1915,25 @@
         <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
         <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -1957,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
         <v>9.199999999999999</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -1987,7 +1987,7 @@
         <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2035,13 +2035,13 @@
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.21</v>
@@ -2050,7 +2050,7 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
@@ -2065,10 +2065,10 @@
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2077,13 +2077,13 @@
         <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2092,7 +2092,7 @@
         <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2101,10 +2101,10 @@
         <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
@@ -2122,7 +2122,7 @@
         <v>7.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H13" t="n">
         <v>5.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,25 +2176,25 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.24</v>
@@ -2203,10 +2203,10 @@
         <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>22</v>
@@ -2215,16 +2215,16 @@
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2305,22 +2305,22 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>1.35</v>
@@ -2332,13 +2332,13 @@
         <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2347,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="n">
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.8</v>
@@ -2386,10 +2386,10 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.52</v>
       </c>
       <c r="H15" t="n">
         <v>7.4</v>
@@ -2434,34 +2434,34 @@
         <v>7.6</v>
       </c>
       <c r="J15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
         <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
         <v>1.88</v>
@@ -2473,10 +2473,10 @@
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
         <v>28</v>
@@ -2485,16 +2485,16 @@
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>110</v>
@@ -2503,7 +2503,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
@@ -2563,10 +2563,10 @@
         <v>5.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2575,28 +2575,28 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.79</v>
@@ -2605,13 +2605,13 @@
         <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>18</v>
@@ -2623,7 +2623,7 @@
         <v>18.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
@@ -2635,7 +2635,7 @@
         <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2644,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>70</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H17" t="n">
         <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2710,19 +2710,19 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
         <v>2.04</v>
@@ -2731,28 +2731,28 @@
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
         <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="n">
         <v>130</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G18" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2854,19 +2854,19 @@
         <v>3.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
         <v>1.74</v>
@@ -2875,16 +2875,16 @@
         <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>18</v>
@@ -2902,37 +2902,37 @@
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>46</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -2980,28 +2980,28 @@
         <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.51</v>
@@ -3010,7 +3010,7 @@
         <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
         <v>2.1</v>
@@ -3043,7 +3043,7 @@
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>15.5</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="n">
         <v>2.66</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
         <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
@@ -3145,22 +3145,22 @@
         <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
         <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3199,7 +3199,7 @@
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>48</v>
@@ -3235,10 +3235,10 @@
         <v>4.7</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I21" t="n">
         <v>1.89</v>
@@ -3250,28 +3250,28 @@
         <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
         <v>1.76</v>
@@ -3283,10 +3283,10 @@
         <v>2.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3298,7 +3298,7 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
         <v>8.6</v>
@@ -3331,13 +3331,13 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
@@ -3385,13 +3385,13 @@
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3400,28 +3400,28 @@
         <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>18.5</v>
@@ -3430,13 +3430,13 @@
         <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>21</v>
@@ -3454,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ22" t="n">
         <v>18</v>
@@ -3469,7 +3469,7 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>85</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.65</v>
@@ -3520,7 +3520,7 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3535,13 +3535,13 @@
         <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R23" t="n">
         <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
@@ -3550,40 +3550,40 @@
         <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>18</v>
@@ -3592,10 +3592,10 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
@@ -3607,7 +3607,7 @@
         <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3640,10 +3640,10 @@
         <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="I24" t="n">
         <v>22</v>
@@ -3652,22 +3652,22 @@
         <v>7.6</v>
       </c>
       <c r="K24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="Q24" t="n">
         <v>1.48</v>
@@ -3682,22 +3682,22 @@
         <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3709,22 +3709,22 @@
         <v>19</v>
       </c>
       <c r="AD24" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AF24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.800000000000001</v>
@@ -3733,13 +3733,13 @@
         <v>15.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3778,19 +3778,19 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K25" t="n">
         <v>5.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -3802,16 +3802,16 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
         <v>2.04</v>
@@ -3823,22 +3823,22 @@
         <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="n">
         <v>95</v>
       </c>
       <c r="AA25" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>12</v>
@@ -3847,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF25" t="n">
         <v>8.4</v>
@@ -3868,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>150</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
         <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I26" t="n">
         <v>2.34</v>
@@ -3925,28 +3925,28 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.98</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.96</v>
       </c>
       <c r="R26" t="n">
         <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
         <v>1.78</v>
@@ -3955,7 +3955,7 @@
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
         <v>1.4</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
         <v>65</v>
@@ -4009,10 +4009,10 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.02</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4072,16 +4072,16 @@
         <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
         <v>1.64</v>
@@ -4090,28 +4090,28 @@
         <v>2.46</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
@@ -4120,13 +4120,13 @@
         <v>38</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>40</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4195,10 +4195,10 @@
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
@@ -4210,13 +4210,13 @@
         <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
         <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
         <v>1.85</v>
@@ -4330,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4342,10 +4342,10 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
@@ -4381,7 +4381,7 @@
         <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
@@ -4459,40 +4459,40 @@
         <v>7.8</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
         <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
         <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
         <v>1.15</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
         <v>27</v>
@@ -4513,7 +4513,7 @@
         <v>230</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4549,7 +4549,7 @@
         <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO30" t="n">
         <v>120</v>
@@ -4585,22 +4585,22 @@
         <v>1.44</v>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I31" t="n">
         <v>9</v>
       </c>
-      <c r="I31" t="n">
-        <v>9.6</v>
-      </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
         <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4618,34 +4618,34 @@
         <v>1.77</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
         <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X31" t="n">
         <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>80</v>
       </c>
       <c r="AA31" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AB31" t="n">
         <v>8.6</v>
@@ -4681,13 +4681,13 @@
         <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
         <v>6.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I32" t="n">
         <v>1.51</v>
@@ -4735,13 +4735,13 @@
         <v>5.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.19</v>
@@ -4753,16 +4753,16 @@
         <v>1.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V32" t="n">
         <v>2.96</v>
@@ -4771,7 +4771,7 @@
         <v>1.16</v>
       </c>
       <c r="X32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
         <v>11.5</v>
@@ -4804,13 +4804,13 @@
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
         <v>200</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="n">
         <v>75</v>
@@ -4870,43 +4870,43 @@
         <v>7.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
         <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T33" t="n">
         <v>2.34</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W33" t="n">
         <v>5.2</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
         <v>50</v>
@@ -4918,7 +4918,7 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC33" t="n">
         <v>17.5</v>
@@ -4927,7 +4927,7 @@
         <v>400</v>
       </c>
       <c r="AE33" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AF33" t="n">
         <v>7.6</v>
@@ -4936,7 +4936,7 @@
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AI33" t="n">
         <v>950</v>
@@ -4948,10 +4948,10 @@
         <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="n">
         <v>4</v>
@@ -4990,46 +4990,46 @@
         <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I34" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J34" t="n">
         <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
         <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
         <v>1.9</v>
@@ -5038,7 +5038,7 @@
         <v>3.1</v>
       </c>
       <c r="W34" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X34" t="n">
         <v>25</v>
@@ -5053,7 +5053,7 @@
         <v>14.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AC34" t="n">
         <v>18</v>
@@ -5122,58 +5122,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.74</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.76</v>
       </c>
       <c r="X35" t="n">
         <v>14.5</v>
@@ -5200,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
@@ -5227,7 +5227,7 @@
         <v>17.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -5275,34 +5275,34 @@
         <v>4.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
         <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R36" t="n">
         <v>1.54</v>
       </c>
       <c r="S36" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T36" t="n">
         <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
         <v>2.5</v>
@@ -5317,7 +5317,7 @@
         <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>17</v>
@@ -5326,7 +5326,7 @@
         <v>27</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>10</v>
@@ -5335,7 +5335,7 @@
         <v>15.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="n">
         <v>22</v>
@@ -5362,7 +5362,7 @@
         <v>65</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="37">
@@ -5395,70 +5395,70 @@
         <v>1.39</v>
       </c>
       <c r="G37" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H37" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I37" t="n">
-        <v>870</v>
+        <v>10.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="K37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q37" t="n">
         <v>1.51</v>
       </c>
       <c r="R37" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
         <v>2.22</v>
       </c>
       <c r="T37" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W37" t="n">
         <v>3.25</v>
       </c>
       <c r="X37" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC37" t="n">
         <v>13</v>
@@ -5467,19 +5467,19 @@
         <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI37" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AJ37" t="n">
         <v>12</v>
@@ -5488,16 +5488,16 @@
         <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G38" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>3.55</v>
@@ -5545,19 +5545,19 @@
         <v>3.65</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q38" t="n">
         <v>2.22</v>
@@ -5566,28 +5566,28 @@
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Z38" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
         <v>200</v>
@@ -5602,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -5614,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
         <v>30</v>
@@ -5623,13 +5623,13 @@
         <v>26</v>
       </c>
       <c r="AL38" t="n">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AM38" t="n">
         <v>470</v>
       </c>
       <c r="AN38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
         <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.65</v>
@@ -5680,28 +5680,28 @@
         <v>3.75</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T39" t="n">
         <v>1.82</v>
@@ -5710,13 +5710,13 @@
         <v>2.14</v>
       </c>
       <c r="V39" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
         <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>11.5</v>
@@ -5740,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>16</v>
@@ -5797,37 +5797,37 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="H40" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I40" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O40" t="n">
         <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q40" t="n">
         <v>1.97</v>
@@ -5845,10 +5845,10 @@
         <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
@@ -5857,10 +5857,10 @@
         <v>22</v>
       </c>
       <c r="Z40" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="AB40" t="n">
         <v>12.5</v>
@@ -5869,13 +5869,13 @@
         <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
@@ -5887,13 +5887,13 @@
         <v>170</v>
       </c>
       <c r="AJ40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK40" t="n">
         <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
@@ -5902,7 +5902,7 @@
         <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -5965,46 +5965,46 @@
         <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
         <v>1.31</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.95</v>
       </c>
-      <c r="U41" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W41" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X41" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z41" t="n">
         <v>38</v>
       </c>
       <c r="AA41" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB41" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
         <v>75</v>
@@ -6016,7 +6016,7 @@
         <v>10</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
         <v>85</v>
@@ -6028,13 +6028,13 @@
         <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AO41" t="n">
         <v>100</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="G42" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I42" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
         <v>3.15</v>
@@ -6085,52 +6085,52 @@
         <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P42" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R42" t="n">
         <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
         <v>1.89</v>
       </c>
       <c r="V42" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W42" t="n">
         <v>1.56</v>
       </c>
       <c r="X42" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB42" t="n">
         <v>24</v>
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G43" t="n">
         <v>1.82</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.98</v>
-      </c>
       <c r="H43" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I43" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
         <v>3.35</v>
       </c>
-      <c r="K43" t="n">
+      <c r="O43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S43" t="n">
         <v>3.9</v>
       </c>
-      <c r="L43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U43" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.88</v>
       </c>
       <c r="V43" t="n">
         <v>1.22</v>
       </c>
       <c r="W43" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z43" t="n">
         <v>40</v>
@@ -6268,16 +6268,16 @@
         <v>150</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD43" t="n">
         <v>21</v>
       </c>
       <c r="AE43" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AF43" t="n">
         <v>11.5</v>
@@ -6289,25 +6289,25 @@
         <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AJ43" t="n">
         <v>22</v>
       </c>
       <c r="AK43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="n">
         <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -6337,46 +6337,46 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G44" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S44" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T44" t="n">
         <v>1.9</v>
@@ -6385,10 +6385,10 @@
         <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
         <v>90</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6421,7 +6421,7 @@
         <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6475,49 +6475,49 @@
         <v>5.3</v>
       </c>
       <c r="G45" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>1.48</v>
       </c>
       <c r="I45" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>6.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S45" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U45" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V45" t="n">
         <v>2.58</v>
@@ -6607,31 +6607,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G46" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H46" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I46" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L46" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O46" t="n">
         <v>1.51</v>
@@ -6640,49 +6640,49 @@
         <v>1.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R46" t="n">
         <v>1.22</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T46" t="n">
         <v>2.32</v>
       </c>
       <c r="U46" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y46" t="n">
         <v>15.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA46" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="n">
         <v>8.6</v>
@@ -6709,10 +6709,10 @@
         <v>250</v>
       </c>
       <c r="AN46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -6742,31 +6742,31 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G47" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>2.46</v>
       </c>
       <c r="I47" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="n">
         <v>1.37</v>
@@ -6781,28 +6781,28 @@
         <v>1.3</v>
       </c>
       <c r="S47" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
         <v>2.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W47" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X47" t="n">
         <v>15.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -6820,16 +6820,16 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
         <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
@@ -6844,10 +6844,10 @@
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6895,19 +6895,19 @@
         <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q48" t="n">
         <v>1.78</v>
@@ -6946,7 +6946,7 @@
         <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD48" t="n">
         <v>1000</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G49" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H49" t="n">
         <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J49" t="n">
         <v>2.86</v>
@@ -7030,7 +7030,7 @@
         <v>3.3</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M49" t="n">
         <v>1.12</v>
@@ -7054,7 +7054,7 @@
         <v>4.6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U49" t="n">
         <v>1.76</v>
@@ -7147,31 +7147,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G50" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H50" t="n">
         <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J50" t="n">
         <v>3.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L50" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -7186,19 +7186,19 @@
         <v>1.33</v>
       </c>
       <c r="S50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T50" t="n">
         <v>1.79</v>
       </c>
       <c r="U50" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V50" t="n">
         <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X50" t="n">
         <v>15.5</v>
@@ -7216,7 +7216,7 @@
         <v>10.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD50" t="n">
         <v>14.5</v>
@@ -7237,7 +7237,7 @@
         <v>50</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="n">
         <v>1000</v>
@@ -7252,7 +7252,7 @@
         <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="H2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>65</v>
+      </c>
+      <c r="J2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.92</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,52 +733,52 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20</v>
-      </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>1.92</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>11</v>
       </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.88</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.8</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>2.82</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>65</v>
       </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16</v>
-      </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>460</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>460</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>75</v>
       </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:35:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.52</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.66</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>7.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
         <v>6.8</v>
@@ -1357,43 +1357,43 @@
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1402,28 +1402,28 @@
         <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>190</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1432,19 +1432,19 @@
         <v>80</v>
       </c>
       <c r="AJ7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>15</v>
       </c>
-      <c r="AK7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>85</v>
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>1.79</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.34</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.51</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>2.24</v>
       </c>
       <c r="W8" t="n">
-        <v>2.66</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="n">
         <v>85</v>
       </c>
-      <c r="AF8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.79</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.04</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>3.2</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AG9" t="n">
         <v>10</v>
       </c>
-      <c r="AA9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM9" t="n">
         <v>150</v>
       </c>
-      <c r="AK9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>130</v>
-      </c>
       <c r="AN9" t="n">
-        <v>100</v>
+        <v>6.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.3</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="X10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
         <v>19</v>
       </c>
-      <c r="Y10" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>10</v>
       </c>
-      <c r="AH10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH11" t="n">
         <v>16.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO11" t="n">
         <v>40</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.3</v>
+        <v>2.96</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM12" t="n">
         <v>110</v>
       </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
       <c r="AN12" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.69</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>1.71</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>20</v>
-      </c>
       <c r="AE13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>65</v>
       </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO13" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>5.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>40</v>
-      </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>1.76</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>17.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>70</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.2</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
-        <v>5.7</v>
+        <v>1.97</v>
       </c>
       <c r="H16" t="n">
-        <v>1.71</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.74</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2.34</v>
+        <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.199999999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.8</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>110</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO17" t="n">
         <v>23</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>270</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="O18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.32</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK18" t="n">
         <v>17</v>
       </c>
-      <c r="AI18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK19" t="n">
         <v>34</v>
       </c>
-      <c r="Z19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
-      </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
         <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.54</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.66</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.86</v>
+        <v>1.87</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="W20" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
         <v>21</v>
       </c>
-      <c r="AA20" t="n">
-        <v>300</v>
-      </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
         <v>85</v>
       </c>
-      <c r="AF20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.9</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.87</v>
-      </c>
       <c r="I21" t="n">
-        <v>1.89</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
         <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
         <v>12</v>
       </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>60</v>
-      </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
         <v>3.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG22" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.18</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>5.6</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK23" t="n">
         <v>15</v>
       </c>
-      <c r="AE23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>22</v>
-      </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>3.45</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>21</v>
       </c>
-      <c r="I24" t="n">
-        <v>22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="Y24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF24" t="n">
         <v>8.4</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.38</v>
       </c>
-      <c r="G25" t="n">
+      <c r="S25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.4</v>
       </c>
-      <c r="H25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="X25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD25" t="n">
         <v>11</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AE25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
         <v>36</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM25" t="n">
         <v>95</v>
       </c>
-      <c r="AA25" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>150</v>
-      </c>
       <c r="AN25" t="n">
-        <v>5.6</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>1.98</v>
       </c>
       <c r="G26" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.34</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>2.64</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="n">
         <v>14</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>24</v>
       </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>65</v>
-      </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>4.8</v>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P27" t="n">
         <v>2.02</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.44</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="U27" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL27" t="n">
         <v>70</v>
       </c>
-      <c r="AB27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>28</v>
-      </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28">
@@ -4168,37 +4168,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>1.82</v>
+        <v>5.8</v>
       </c>
       <c r="I28" t="n">
-        <v>1.84</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K28" t="n">
         <v>4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
@@ -4207,82 +4207,82 @@
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>2.18</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL28" t="n">
         <v>36</v>
       </c>
-      <c r="AG28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="AM28" t="n">
         <v>120</v>
       </c>
-      <c r="AK28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>110</v>
-      </c>
       <c r="AN28" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AA29" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>9.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO29" t="n">
         <v>120</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H30" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
         <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.44</v>
+        <v>6.8</v>
       </c>
       <c r="G31" t="n">
-        <v>1.46</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>1.51</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>1.52</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>2.92</v>
       </c>
       <c r="W31" t="n">
-        <v>3.15</v>
+        <v>1.16</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
         <v>80</v>
       </c>
-      <c r="AA31" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>140</v>
-      </c>
       <c r="AN31" t="n">
-        <v>6.6</v>
+        <v>65</v>
       </c>
       <c r="AO31" t="n">
-        <v>170</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.8</v>
+        <v>1.23</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>1.24</v>
       </c>
       <c r="H32" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.51</v>
+        <v>17.5</v>
       </c>
       <c r="J32" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="K32" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.3</v>
@@ -4741,94 +4741,94 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="U32" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>2.96</v>
+        <v>1.06</v>
       </c>
       <c r="W32" t="n">
-        <v>1.16</v>
+        <v>5.2</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="Z32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>950</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK32" t="n">
         <v>14</v>
       </c>
-      <c r="AB32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>80</v>
-      </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="n">
-        <v>70</v>
+        <v>4.2</v>
       </c>
       <c r="AO32" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>1.24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>1.46</v>
       </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>1.47</v>
       </c>
       <c r="J33" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="T33" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.05</v>
+        <v>3.1</v>
       </c>
       <c r="W33" t="n">
-        <v>5.2</v>
+        <v>1.13</v>
       </c>
       <c r="X33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB33" t="n">
         <v>28</v>
       </c>
-      <c r="Y33" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9</v>
-      </c>
       <c r="AC33" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>370</v>
+        <v>15.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.6</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AH33" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>950</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.199999999999999</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>8.800000000000001</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>1.46</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>1.47</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="W34" t="n">
-        <v>1.13</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AE34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
         <v>18</v>
       </c>
-      <c r="AD34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="G35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P35" t="n">
         <v>2.36</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="R35" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="T35" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U35" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="36">
@@ -5248,55 +5248,55 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.5</v>
+        <v>1.51</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.52</v>
       </c>
       <c r="H36" t="n">
-        <v>1.64</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.66</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="S36" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.74</v>
@@ -5305,64 +5305,64 @@
         <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="W36" t="n">
-        <v>1.2</v>
+        <v>2.92</v>
       </c>
       <c r="X36" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y36" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF36" t="n">
         <v>11</v>
       </c>
-      <c r="Z36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>120</v>
-      </c>
       <c r="AG36" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>150</v>
+        <v>13.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="AL36" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>65</v>
+        <v>5.2</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.39</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>1.42</v>
+        <v>2.34</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.51</v>
+        <v>2.18</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>3.25</v>
+        <v>1.74</v>
       </c>
       <c r="X37" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA37" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.3</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.4</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T38" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="X38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>48</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="n">
         <v>16</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AH38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN38" t="n">
         <v>50</v>
       </c>
-      <c r="AF38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>22</v>
-      </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="H39" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
         <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q39" t="n">
         <v>1.97</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
         <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Z39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB39" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>15</v>
-      </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN39" t="n">
         <v>29</v>
       </c>
-      <c r="AG39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>55</v>
-      </c>
       <c r="AO39" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="G40" t="n">
-        <v>2.96</v>
+        <v>2.06</v>
       </c>
       <c r="H40" t="n">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q40" t="n">
         <v>1.97</v>
       </c>
       <c r="R40" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V40" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AA40" t="n">
         <v>110</v>
       </c>
       <c r="AB40" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH40" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AK40" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.87</v>
+        <v>2.78</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
-        <v>5.1</v>
+        <v>2.98</v>
       </c>
       <c r="I41" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="L41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.46</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.36</v>
-      </c>
       <c r="P41" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK41" t="n">
         <v>38</v>
       </c>
-      <c r="AA41" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>21</v>
-      </c>
       <c r="AL41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN41" t="n">
         <v>42</v>
       </c>
-      <c r="AM41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>14</v>
-      </c>
       <c r="AO41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,123 +6053,123 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.74</v>
+        <v>1.76</v>
       </c>
       <c r="G42" t="n">
-        <v>2.84</v>
+        <v>1.82</v>
       </c>
       <c r="H42" t="n">
-        <v>2.98</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L42" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U42" t="n">
         <v>1.89</v>
       </c>
       <c r="V42" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="W42" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA42" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB42" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF42" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.81</v>
+        <v>3.45</v>
       </c>
       <c r="G43" t="n">
-        <v>1.82</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="I43" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K43" t="n">
         <v>3.85</v>
       </c>
       <c r="L43" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S43" t="n">
         <v>3.35</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T43" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U43" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="W43" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,75 +6323,75 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="H44" t="n">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="P44" t="n">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="R44" t="n">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="S44" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="T44" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="U44" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="V44" t="n">
-        <v>1.76</v>
+        <v>2.68</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="X44" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
         <v>1000</v>
@@ -6400,13 +6400,13 @@
         <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6421,7 +6421,7 @@
         <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6436,19 +6436,19 @@
         <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.3</v>
+        <v>1.65</v>
       </c>
       <c r="G45" t="n">
-        <v>8.199999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>1.48</v>
+        <v>6.8</v>
       </c>
       <c r="I45" t="n">
-        <v>1.61</v>
+        <v>7.6</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="M45" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.54</v>
+        <v>2.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="S45" t="n">
-        <v>2.28</v>
+        <v>5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="U45" t="n">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>2.58</v>
+        <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>1.15</v>
+        <v>2.48</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC45" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>29</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.71</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W46" t="n">
-        <v>2.36</v>
+        <v>1.35</v>
       </c>
       <c r="X46" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11</v>
-      </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>230</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,108 +6728,108 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S47" t="n">
         <v>3.05</v>
       </c>
-      <c r="G47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W47" t="n">
         <v>1.3</v>
       </c>
-      <c r="S47" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X47" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
@@ -6841,19 +6841,19 @@
         <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,100 +6868,100 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="G48" t="n">
-        <v>4.4</v>
+        <v>2.74</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="K48" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N48" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="P48" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="T48" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="U48" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="V48" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
@@ -6970,10 +6970,10 @@
         <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -6982,13 +6982,13 @@
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,261 +6998,126 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>23:07:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G49" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="S49" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="T49" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="U49" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W49" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN49" t="n">
         <v>25</v>
       </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>46</v>
-      </c>
       <c r="AO49" t="n">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>23:07:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.12</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>11</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AM2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>1.47</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.4</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X4" t="n">
         <v>10</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:35:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.82</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>460</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1198,34 +1198,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
         <v>6.8</v>
       </c>
       <c r="J6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.8</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1234,22 +1234,22 @@
         <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
         <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
@@ -1258,37 +1258,37 @@
         <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1297,19 +1297,19 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
         <v>85</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>1.81</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.72</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="n">
         <v>80</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.4</v>
       </c>
-      <c r="G8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>2.24</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>140</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>100</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="H9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
         <v>8.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W9" t="n">
         <v>5.3</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.2</v>
-      </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.22</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
         <v>16.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AI10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>40</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.7</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.51</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>7.4</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="W12" t="n">
-        <v>2.96</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>65</v>
       </c>
-      <c r="AA12" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>1.69</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>2.46</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11</v>
       </c>
-      <c r="AE13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>24</v>
-      </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>7.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>1.74</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>1.76</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.23</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.42</v>
-      </c>
       <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="n">
         <v>21</v>
       </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>130</v>
       </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16</v>
-      </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.8</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.2</v>
+        <v>1.93</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.76</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.27</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.3</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>23</v>
       </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AH15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>44</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>70</v>
-      </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.199999999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>2.46</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
         <v>16</v>
       </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>110</v>
-      </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
       </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.6</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="V17" t="n">
         <v>1.32</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.88</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>2.72</v>
       </c>
       <c r="H18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.85</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.6</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.76</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.51</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>85</v>
       </c>
-      <c r="AA18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AF18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
         <v>170</v>
       </c>
-      <c r="AF18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>1.85</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
         <v>21</v>
       </c>
-      <c r="AA19" t="n">
-        <v>300</v>
-      </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.9</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.87</v>
-      </c>
       <c r="I20" t="n">
-        <v>1.92</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN20" t="n">
         <v>12</v>
       </c>
-      <c r="AA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>60</v>
-      </c>
       <c r="AO20" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.78</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>18</v>
       </c>
-      <c r="Z21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>1.19</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.84</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="AA22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF22" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK22" t="n">
         <v>15</v>
       </c>
-      <c r="AE22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
         <v>48</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>36</v>
-      </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>3.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X23" t="n">
         <v>21</v>
       </c>
-      <c r="I23" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>40</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.38</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
         <v>36</v>
       </c>
-      <c r="Z24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AJ24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN24" t="n">
         <v>38</v>
       </c>
-      <c r="AE24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="H25" t="n">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>24</v>
       </c>
-      <c r="AF25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM25" t="n">
         <v>65</v>
       </c>
-      <c r="AK25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>95</v>
-      </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>9.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>1.82</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>1.84</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.32</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P26" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL26" t="n">
         <v>70</v>
       </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>28</v>
-      </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -4033,25 +4033,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="H27" t="n">
-        <v>1.82</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.84</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -4060,94 +4060,94 @@
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V27" t="n">
-        <v>2.18</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
         <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH27" t="n">
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>70</v>
       </c>
       <c r="AM27" t="n">
         <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.72</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AB28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF28" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="I29" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA29" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.44</v>
+        <v>6.8</v>
       </c>
       <c r="G30" t="n">
-        <v>1.46</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>1.51</v>
       </c>
       <c r="I30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X30" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="n">
         <v>9.6</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X30" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AE30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK30" t="n">
         <v>80</v>
       </c>
-      <c r="AA30" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>15</v>
-      </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.6</v>
+        <v>70</v>
       </c>
       <c r="AO30" t="n">
-        <v>170</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J31" t="n">
         <v>6.8</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>7</v>
       </c>
-      <c r="H31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
         <v>5.3</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="T31" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="U31" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>2.92</v>
+        <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>1.16</v>
+        <v>4.7</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Z31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AH31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>930</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK31" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>75</v>
-      </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
-        <v>65</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.23</v>
+        <v>2.94</v>
       </c>
       <c r="G32" t="n">
-        <v>1.24</v>
+        <v>2.98</v>
       </c>
       <c r="H32" t="n">
-        <v>16.5</v>
+        <v>2.64</v>
       </c>
       <c r="I32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z32" t="n">
         <v>17.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="AA32" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC32" t="n">
         <v>7.8</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>17</v>
-      </c>
       <c r="AD32" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>950</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.199999999999999</v>
+        <v>48</v>
       </c>
       <c r="AK32" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO32" t="n">
         <v>46</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC33" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X33" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG33" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>32</v>
-      </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>48</v>
       </c>
       <c r="AJ33" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>7.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P34" t="n">
         <v>2.3</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.99</v>
-      </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="S34" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U34" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>2.42</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="X34" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD34" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>1.51</v>
       </c>
       <c r="H35" t="n">
-        <v>1.65</v>
+        <v>7.6</v>
       </c>
       <c r="I35" t="n">
-        <v>1.67</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K35" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="S35" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
-        <v>1.2</v>
+        <v>2.96</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="AB35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>19.5</v>
       </c>
       <c r="AI35" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL35" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>65</v>
       </c>
       <c r="AM35" t="n">
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>70</v>
+        <v>5.3</v>
       </c>
       <c r="AO35" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>2.68</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>2.92</v>
+        <v>1.75</v>
       </c>
       <c r="X36" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AA36" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF36" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF36" t="n">
+      <c r="AG36" t="n">
         <v>11</v>
       </c>
-      <c r="AG36" t="n">
-        <v>12</v>
-      </c>
       <c r="AH36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.2</v>
+        <v>22</v>
       </c>
       <c r="AO36" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="J37" t="n">
         <v>3.55</v>
@@ -5410,94 +5410,94 @@
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="O37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.38</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.9</v>
       </c>
-      <c r="U37" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z37" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>24</v>
-      </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK37" t="n">
         <v>46</v>
       </c>
-      <c r="AF37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>27</v>
-      </c>
       <c r="AL37" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="n">
         <v>55</v>
       </c>
       <c r="AO37" t="n">
-        <v>50</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="R38" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="V38" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>29</v>
+        <v>450</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AI38" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ38" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AO38" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.92</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="H39" t="n">
-        <v>2.62</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
         <v>1.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
         <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="W39" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="X39" t="n">
         <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="AA39" t="n">
         <v>110</v>
       </c>
       <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF39" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF39" t="n">
+      <c r="AG39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH39" t="n">
         <v>19</v>
       </c>
-      <c r="AG39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI39" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AL39" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="G40" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="I40" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>3.75</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="P40" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="U40" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD40" t="n">
         <v>14</v>
       </c>
-      <c r="Y40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE40" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL40" t="n">
         <v>65</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>40</v>
-      </c>
       <c r="AM40" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AO40" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,126 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
-        <v>2.98</v>
+        <v>4.9</v>
       </c>
       <c r="I41" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U41" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="X41" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AA41" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="AF41" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.76</v>
+        <v>3.45</v>
       </c>
       <c r="G42" t="n">
-        <v>1.82</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>2.14</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>2.28</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R42" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="W42" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AB42" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AF42" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,75 +6188,75 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="H43" t="n">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="J43" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K43" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="L43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q43" t="n">
         <v>1.42</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R43" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="T43" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="U43" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V43" t="n">
-        <v>1.76</v>
+        <v>2.74</v>
       </c>
       <c r="W43" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="X43" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
         <v>1000</v>
@@ -6265,7 +6265,7 @@
         <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
         <v>1000</v>
@@ -6301,19 +6301,19 @@
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.5</v>
+        <v>1.67</v>
       </c>
       <c r="G44" t="n">
-        <v>7.4</v>
+        <v>1.69</v>
       </c>
       <c r="H44" t="n">
-        <v>1.45</v>
+        <v>6.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.57</v>
+        <v>7.2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="O44" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>2.84</v>
+        <v>1.64</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.76</v>
+        <v>1.22</v>
       </c>
       <c r="S44" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.59</v>
+        <v>2.34</v>
       </c>
       <c r="U44" t="n">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="V44" t="n">
-        <v>2.68</v>
+        <v>1.16</v>
       </c>
       <c r="W44" t="n">
-        <v>1.16</v>
+        <v>2.44</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC44" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
-        <v>6.8</v>
+        <v>2.22</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>2.36</v>
       </c>
       <c r="J45" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T45" t="n">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.15</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
-        <v>2.48</v>
+        <v>1.36</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z45" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AF45" t="n">
-        <v>7.8</v>
+        <v>44</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
         <v>22</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,105 +6593,105 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q46" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q46" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R46" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S46" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="W46" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X46" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
@@ -6703,22 +6703,22 @@
         <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
         <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,100 +6733,100 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="K47" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N47" t="n">
-        <v>3.55</v>
+        <v>2.54</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="P47" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="R47" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="S47" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="V47" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="W47" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC47" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6835,10 +6835,10 @@
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,260 +6863,125 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>23:07:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I48" t="n">
         <v>3.2</v>
       </c>
-      <c r="I48" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="K48" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L48" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="S48" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="T48" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="U48" t="n">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X48" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
         <v>17</v>
       </c>
-      <c r="AE48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>16</v>
-      </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN48" t="n">
         <v>25</v>
       </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO48" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>23:07:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO49" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -694,85 +694,85 @@
         <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="I3" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -835,25 +835,25 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -862,35 +862,35 @@
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
         <v>85</v>
       </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.52</v>
@@ -976,22 +976,22 @@
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
         <v>12.5</v>
@@ -1006,19 +1006,19 @@
         <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1027,10 +1027,10 @@
         <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>85</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.54</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1096,40 +1096,40 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>60</v>
@@ -1138,43 +1138,43 @@
         <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>85</v>
@@ -1225,7 +1225,7 @@
         <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1234,25 +1234,25 @@
         <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.17</v>
@@ -1264,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1273,7 +1273,7 @@
         <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1288,13 +1288,13 @@
         <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
         <v>14.5</v>
@@ -1303,13 +1303,13 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO6" t="n">
         <v>85</v>
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1405,7 +1405,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
         <v>17.5</v>
@@ -1426,10 +1426,10 @@
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
         <v>140</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.42</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1501,28 +1501,28 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
         <v>1.11</v>
@@ -1531,19 +1531,19 @@
         <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="n">
         <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
@@ -1558,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1576,13 +1576,13 @@
         <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
         <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
         <v>15.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16.5</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -1642,28 +1642,28 @@
         <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X9" t="n">
         <v>40</v>
@@ -1675,22 +1675,22 @@
         <v>160</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
         <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,25 +1699,25 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
@@ -1771,46 +1771,46 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
@@ -1819,28 +1819,28 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
         <v>25</v>
@@ -1849,10 +1849,10 @@
         <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
         <v>6.6</v>
@@ -1894,7 +1894,7 @@
         <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.8</v>
@@ -1903,7 +1903,7 @@
         <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.9</v>
@@ -1915,25 +1915,25 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
@@ -1960,34 +1960,34 @@
         <v>85</v>
       </c>
       <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG11" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -2047,28 +2047,28 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2077,7 +2077,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
         <v>30</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>24</v>
@@ -2119,7 +2119,7 @@
         <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
         <v>18.5</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
@@ -2164,31 +2164,31 @@
         <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
         <v>2.72</v>
@@ -2203,16 +2203,16 @@
         <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
         <v>140</v>
@@ -2221,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2254,10 +2254,10 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2308,40 +2308,40 @@
         <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>
@@ -2350,43 +2350,43 @@
         <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE14" t="n">
         <v>17.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
         <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
         <v>70</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.46</v>
@@ -2452,7 +2452,7 @@
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
         <v>2.06</v>
@@ -2470,31 +2470,31 @@
         <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2509,25 +2509,25 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2557,73 +2557,73 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2632,7 +2632,7 @@
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
@@ -2641,28 +2641,28 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2695,82 +2695,82 @@
         <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
         <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.74</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
         <v>27</v>
       </c>
-      <c r="Y17" t="n">
-        <v>80</v>
-      </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2779,25 +2779,25 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="G18" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -2851,88 +2851,88 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM18" t="n">
         <v>85</v>
       </c>
-      <c r="AF18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2965,37 +2965,37 @@
         <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I19" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
         <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
         <v>1.4</v>
@@ -3004,19 +3004,19 @@
         <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W19" t="n">
         <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>9.199999999999999</v>
@@ -3028,19 +3028,19 @@
         <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
         <v>18.5</v>
@@ -3049,25 +3049,25 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="AN19" t="n">
         <v>65</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O20" t="n">
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
         <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>18.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
         <v>44</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>85</v>
       </c>
       <c r="AM21" t="n">
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>210</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3370,49 +3370,49 @@
         <v>1.19</v>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K22" t="n">
         <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="S22" t="n">
         <v>2.16</v>
       </c>
       <c r="T22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
         <v>1.04</v>
@@ -3421,13 +3421,13 @@
         <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
         <v>75</v>
       </c>
       <c r="Z22" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,40 +3436,40 @@
         <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>440</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.38</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.39</v>
       </c>
       <c r="H23" t="n">
         <v>10</v>
@@ -3514,46 +3514,46 @@
         <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
         <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3565,10 +3565,10 @@
         <v>95</v>
       </c>
       <c r="AA23" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -3580,16 +3580,16 @@
         <v>160</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
@@ -3598,16 +3598,16 @@
         <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -3643,10 +3643,10 @@
         <v>3.65</v>
       </c>
       <c r="H24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.26</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3655,91 +3655,91 @@
         <v>3.65</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB24" t="n">
         <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
       </c>
       <c r="AF24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
         <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.7</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.32</v>
@@ -3796,34 +3796,34 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q25" t="n">
         <v>1.64</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
         <v>2.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U25" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X25" t="n">
         <v>24</v>
@@ -3832,25 +3832,25 @@
         <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
         <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
@@ -3859,25 +3859,25 @@
         <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
         <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="I26" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3934,13 +3934,13 @@
         <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
@@ -3949,58 +3949,58 @@
         <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
         <v>70</v>
@@ -4009,10 +4009,10 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -4063,7 +4063,7 @@
         <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>4.1</v>
@@ -4072,10 +4072,10 @@
         <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R27" t="n">
         <v>1.41</v>
@@ -4084,43 +4084,43 @@
         <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
         <v>2.08</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>9.6</v>
@@ -4132,7 +4132,7 @@
         <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
         <v>17.5</v>
@@ -4147,7 +4147,7 @@
         <v>10.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4177,52 +4177,52 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.45</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I28" t="n">
         <v>8.4</v>
       </c>
-      <c r="I28" t="n">
-        <v>8.6</v>
-      </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
         <v>1.13</v>
@@ -4231,40 +4231,40 @@
         <v>3.2</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
         <v>75</v>
       </c>
       <c r="AA28" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
         <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
         <v>12.5</v>
@@ -4276,13 +4276,13 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4315,10 +4315,10 @@
         <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H29" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
         <v>10.5</v>
@@ -4336,25 +4336,25 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
         <v>1.9</v>
@@ -4363,10 +4363,10 @@
         <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
@@ -4375,37 +4375,37 @@
         <v>90</v>
       </c>
       <c r="AA29" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
         <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
         <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>36</v>
@@ -4414,10 +4414,10 @@
         <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="I30" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
         <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="W30" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
         <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="31">
@@ -4585,13 +4585,13 @@
         <v>1.26</v>
       </c>
       <c r="G31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I31" t="n">
         <v>15</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15.5</v>
       </c>
       <c r="J31" t="n">
         <v>6.8</v>
@@ -4600,37 +4600,37 @@
         <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="S31" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W31" t="n">
         <v>4.7</v>
@@ -4639,16 +4639,16 @@
         <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="n">
         <v>150</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
         <v>15.5</v>
@@ -4657,19 +4657,19 @@
         <v>55</v>
       </c>
       <c r="AE31" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="n">
-        <v>930</v>
+        <v>240</v>
       </c>
       <c r="AJ31" t="n">
         <v>9.199999999999999</v>
@@ -4678,13 +4678,13 @@
         <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G32" t="n">
         <v>2.98</v>
@@ -4732,34 +4732,34 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O32" t="n">
         <v>1.31</v>
       </c>
       <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.96</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.97</v>
       </c>
       <c r="R32" t="n">
         <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
         <v>2.22</v>
@@ -4774,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>17.5</v>
@@ -4804,10 +4804,10 @@
         <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AJ32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="n">
         <v>32</v>
@@ -4819,10 +4819,10 @@
         <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO32" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4876,37 +4876,37 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O33" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R33" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
         <v>3.45</v>
       </c>
       <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.76</v>
       </c>
-      <c r="U33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>13</v>
@@ -4915,19 +4915,19 @@
         <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF33" t="n">
         <v>15</v>
@@ -4939,22 +4939,22 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
         <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO33" t="n">
         <v>36</v>
@@ -4993,106 +4993,106 @@
         <v>5.7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="T34" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="W34" t="n">
         <v>1.21</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>17</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
         <v>140</v>
       </c>
       <c r="AK34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -5122,79 +5122,79 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.5</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.51</v>
-      </c>
       <c r="H35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R35" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="T35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W35" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC35" t="n">
         <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AE35" t="n">
         <v>290</v>
@@ -5203,10 +5203,10 @@
         <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
         <v>260</v>
@@ -5215,16 +5215,16 @@
         <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO35" t="n">
         <v>970</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.6</v>
@@ -5275,67 +5275,67 @@
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U36" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
         <v>24</v>
       </c>
       <c r="AA36" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
         <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5344,25 +5344,25 @@
         <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
         <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN36" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I37" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.43</v>
@@ -5419,31 +5419,31 @@
         <v>3.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
         <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T37" t="n">
         <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W37" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
         <v>14.5</v>
@@ -5458,22 +5458,22 @@
         <v>25</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
         <v>18.5</v>
@@ -5482,22 +5482,22 @@
         <v>36</v>
       </c>
       <c r="AJ37" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK37" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO37" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38">
@@ -5533,7 +5533,7 @@
         <v>8.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I38" t="n">
         <v>1.49</v>
@@ -5545,7 +5545,7 @@
         <v>5.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5557,10 +5557,10 @@
         <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R38" t="n">
         <v>1.44</v>
@@ -5569,7 +5569,7 @@
         <v>3.1</v>
       </c>
       <c r="T38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U38" t="n">
         <v>1.85</v>
@@ -5581,10 +5581,10 @@
         <v>1.13</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z38" t="n">
         <v>8.4</v>
@@ -5593,7 +5593,7 @@
         <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
@@ -5605,19 +5605,19 @@
         <v>16.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="AG38" t="n">
         <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ38" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK38" t="n">
         <v>130</v>
@@ -5632,7 +5632,7 @@
         <v>160</v>
       </c>
       <c r="AO38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="39">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G39" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H39" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
         <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -5689,46 +5689,46 @@
         <v>3.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P39" t="n">
         <v>1.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="X39" t="n">
         <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AA39" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC39" t="n">
         <v>8</v>
@@ -5743,19 +5743,19 @@
         <v>12.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ39" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL39" t="n">
         <v>40</v>
@@ -5764,10 +5764,10 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -5797,112 +5797,112 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U40" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
         <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK40" t="n">
         <v>38</v>
       </c>
       <c r="AL40" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -5935,16 +5935,16 @@
         <v>1.83</v>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H41" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
         <v>5.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
         <v>3.85</v>
@@ -5956,25 +5956,25 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U41" t="n">
         <v>1.91</v>
@@ -5983,31 +5983,31 @@
         <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA41" t="n">
         <v>140</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
         <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="AF41" t="n">
         <v>10.5</v>
@@ -6019,7 +6019,7 @@
         <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="AJ41" t="n">
         <v>20</v>
@@ -6034,10 +6034,10 @@
         <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6070,7 @@
         <v>3.45</v>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
         <v>2.14</v>
@@ -6079,7 +6079,7 @@
         <v>2.28</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
         <v>3.9</v>
@@ -6091,7 +6091,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O42" t="n">
         <v>1.35</v>
@@ -6100,13 +6100,13 @@
         <v>1.91</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
         <v>1.9</v>
@@ -6163,7 +6163,7 @@
         <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G43" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H43" t="n">
         <v>1.45</v>
       </c>
       <c r="I43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="J43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K43" t="n">
         <v>7.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T43" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V43" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="G44" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M44" t="n">
         <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V44" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="X44" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA44" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE44" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AF44" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL44" t="n">
         <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AN44" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO44" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="J45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.6</v>
       </c>
       <c r="L45" t="n">
         <v>1.44</v>
@@ -6499,7 +6499,7 @@
         <v>3.35</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="n">
         <v>1.8</v>
@@ -6514,46 +6514,46 @@
         <v>3.75</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U45" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="W45" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
         <v>12</v>
       </c>
       <c r="AE45" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AF45" t="n">
         <v>44</v>
       </c>
       <c r="AG45" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
         <v>18.5</v>
@@ -6562,13 +6562,13 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK45" t="n">
         <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>580</v>
@@ -6577,7 +6577,7 @@
         <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6613,10 +6613,10 @@
         <v>4.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I46" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
@@ -6625,40 +6625,40 @@
         <v>4.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P46" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R46" t="n">
         <v>1.33</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U46" t="n">
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,34 +6742,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M47" t="n">
         <v>1.12</v>
       </c>
       <c r="N47" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O47" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P47" t="n">
         <v>1.52</v>
@@ -6781,70 +6781,70 @@
         <v>1.19</v>
       </c>
       <c r="S47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T47" t="n">
         <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="X47" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G48" t="n">
         <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L48" t="n">
         <v>1.43</v>
@@ -6907,7 +6907,7 @@
         <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q48" t="n">
         <v>2.06</v>
@@ -6916,7 +6916,7 @@
         <v>1.33</v>
       </c>
       <c r="S48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T48" t="n">
         <v>1.79</v>
@@ -6925,7 +6925,7 @@
         <v>2.14</v>
       </c>
       <c r="V48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
         <v>1.62</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-27.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>2.66</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>1.59</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>6.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>3.85</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>11